--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
@@ -5,18 +5,23 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90C52885-8FE5-41D6-A8E5-C047961D3F09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A8EA800-66CC-4296-98FB-1E35CD73722C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" activeTab="3" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure_2" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure_5" sheetId="2" r:id="rId2"/>
-    <sheet name="Figure_8" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure_9" sheetId="4" r:id="rId4"/>
+    <sheet name="Figure_1" sheetId="5" r:id="rId1"/>
+    <sheet name="Figure_2" sheetId="1" r:id="rId2"/>
+    <sheet name="Figure_3" sheetId="6" r:id="rId3"/>
+    <sheet name="Figure_4a" sheetId="7" r:id="rId4"/>
+    <sheet name="Figure_4b" sheetId="8" r:id="rId5"/>
+    <sheet name="Figure_5" sheetId="2" r:id="rId6"/>
+    <sheet name="Figure_6" sheetId="9" r:id="rId7"/>
+    <sheet name="Figure_8" sheetId="3" r:id="rId8"/>
+    <sheet name="Figure_9" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="50">
   <si>
     <t>State</t>
   </si>
@@ -81,6 +86,114 @@
   </si>
   <si>
     <t>value</t>
+  </si>
+  <si>
+    <t>fin_year</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>prop</t>
+  </si>
+  <si>
+    <t>nom_spend_total</t>
+  </si>
+  <si>
+    <t>nom_spend_exp</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Switzerland</t>
+  </si>
+  <si>
+    <t>Sweden</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Portugal</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Reference area</t>
+  </si>
+  <si>
+    <t>OBS_VALUE</t>
+  </si>
+  <si>
+    <t>colour_flag</t>
+  </si>
+  <si>
+    <t>Slovak Republic</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>year_var</t>
+  </si>
+  <si>
+    <t>Federal</t>
+  </si>
+  <si>
+    <t>Non-Federal</t>
+  </si>
+  <si>
+    <t>change_pp</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Revenue</t>
   </si>
 </sst>
 </file>
@@ -451,6 +564,604 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0.3728552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.36608859999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.37410890000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.3705349</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.36385020000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.36326540000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.3632668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.35934509999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.35800070000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.3559136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.38196269999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.39243220000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.37859799999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.38062940000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.37881150000000002</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.3818742</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0.38782840000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.39169579999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.38535380000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.3860557</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0.38604260000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>0.43808209999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0.45861489999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0.41017300000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>0.38371820000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>0.39886569999999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>0.34871269999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.34295350000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.35105120000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.3467421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.34098780000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.34098650000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.33942739999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.33300920000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.32994990000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.32696039999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.3487498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.35190539999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.34243249999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.34761700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.35081319999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>0.35189920000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.3582224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.3609771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0.35345100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0.35015380000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>0.34788089999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0.39849909999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.41878650000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.37178359999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>0.34488210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.35905140000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A60D39-76D9-4B67-AB58-B56A7AA5E81B}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -458,9 +1169,9 @@
       <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -474,7 +1185,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
@@ -488,7 +1199,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
@@ -502,7 +1213,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
@@ -516,7 +1227,7 @@
         <v>-1.6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
@@ -530,7 +1241,7 @@
         <v>-4.5999999999999996</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
@@ -544,7 +1255,7 @@
         <v>-6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
@@ -558,7 +1269,7 @@
         <v>-6.6</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
@@ -572,7 +1283,7 @@
         <v>-3.1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -586,7 +1297,7 @@
         <v>2.9</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -600,7 +1311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
@@ -614,7 +1325,7 @@
         <v>11.1</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
@@ -628,7 +1339,7 @@
         <v>12.3</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
@@ -642,7 +1353,7 @@
         <v>15.1</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
@@ -656,7 +1367,7 @@
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
@@ -670,7 +1381,7 @@
         <v>19.8</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
@@ -684,7 +1395,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
@@ -698,7 +1409,7 @@
         <v>19.7</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
@@ -712,7 +1423,7 @@
         <v>20.2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
@@ -726,7 +1437,7 @@
         <v>27.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
@@ -740,7 +1451,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
@@ -754,7 +1465,7 @@
         <v>28.9</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2023</v>
       </c>
@@ -768,7 +1479,7 @@
         <v>30.2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2024</v>
       </c>
@@ -782,7 +1493,7 @@
         <v>32.9</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2025</v>
       </c>
@@ -796,7 +1507,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2026</v>
       </c>
@@ -810,7 +1521,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2027</v>
       </c>
@@ -829,7 +1540,1741 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D15C1-53F7-417C-B78F-47F6C0E478A8}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>30.888999999999999</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>38.487000000000002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>39.017000000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>39.22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>42.091999999999999</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>46.265999999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>49.747999999999998</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9">
+        <v>50.155000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>54.575000000000003</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>63.44</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12">
+        <v>68.320999999999998</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13">
+        <v>80.694000000000003</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B14">
+        <v>82.477999999999994</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15">
+        <v>98.213999999999999</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16">
+        <v>104.748</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17">
+        <v>104.786</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>116.452</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>121.26600000000001</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20">
+        <v>180.17599999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521CE950-F8DA-4835-BD99-2FA59D7324CA}">
+  <dimension ref="A1:E53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2">
+        <v>1998</v>
+      </c>
+      <c r="D2">
+        <v>19.360669999999999</v>
+      </c>
+      <c r="E2">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3">
+        <v>1998</v>
+      </c>
+      <c r="D3">
+        <v>16.486789999999999</v>
+      </c>
+      <c r="E3">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>1999</v>
+      </c>
+      <c r="D4">
+        <v>19.33832</v>
+      </c>
+      <c r="E4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5">
+        <v>1999</v>
+      </c>
+      <c r="D5">
+        <v>15.979200000000001</v>
+      </c>
+      <c r="E5">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6">
+        <v>2000</v>
+      </c>
+      <c r="D6">
+        <v>20.28931</v>
+      </c>
+      <c r="E6">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7">
+        <v>2000</v>
+      </c>
+      <c r="D7">
+        <v>16.1416</v>
+      </c>
+      <c r="E7">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8">
+        <v>2001</v>
+      </c>
+      <c r="D8">
+        <v>20.106390000000001</v>
+      </c>
+      <c r="E8">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>2001</v>
+      </c>
+      <c r="D9">
+        <v>15.85216</v>
+      </c>
+      <c r="E9">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10">
+        <v>2002</v>
+      </c>
+      <c r="D10">
+        <v>19.477209999999999</v>
+      </c>
+      <c r="E10">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11">
+        <v>2002</v>
+      </c>
+      <c r="D11">
+        <v>15.5547</v>
+      </c>
+      <c r="E11">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12">
+        <v>2003</v>
+      </c>
+      <c r="D12">
+        <v>19.692879999999999</v>
+      </c>
+      <c r="E12">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13">
+        <v>2003</v>
+      </c>
+      <c r="D13">
+        <v>15.43695</v>
+      </c>
+      <c r="E13">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14">
+        <v>2004</v>
+      </c>
+      <c r="D14">
+        <v>19.669090000000001</v>
+      </c>
+      <c r="E14">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15">
+        <v>2004</v>
+      </c>
+      <c r="D15">
+        <v>15.45262</v>
+      </c>
+      <c r="E15">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16">
+        <v>2005</v>
+      </c>
+      <c r="D16">
+        <v>19.19266</v>
+      </c>
+      <c r="E16">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17">
+        <v>2005</v>
+      </c>
+      <c r="D17">
+        <v>15.583769999999999</v>
+      </c>
+      <c r="E17">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18">
+        <v>2006</v>
+      </c>
+      <c r="D18">
+        <v>19.03706</v>
+      </c>
+      <c r="E18">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19">
+        <v>2006</v>
+      </c>
+      <c r="D19">
+        <v>15.579190000000001</v>
+      </c>
+      <c r="E19">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20">
+        <v>2007</v>
+      </c>
+      <c r="D20">
+        <v>18.922139999999999</v>
+      </c>
+      <c r="E20">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21">
+        <v>2007</v>
+      </c>
+      <c r="D21">
+        <v>15.64916</v>
+      </c>
+      <c r="E21">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22">
+        <v>2008</v>
+      </c>
+      <c r="D22">
+        <v>20.646629999999998</v>
+      </c>
+      <c r="E22">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23">
+        <v>2008</v>
+      </c>
+      <c r="D23">
+        <v>16.258790000000001</v>
+      </c>
+      <c r="E23">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24">
+        <v>2009</v>
+      </c>
+      <c r="D24">
+        <v>20.4573</v>
+      </c>
+      <c r="E24">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25">
+        <v>2009</v>
+      </c>
+      <c r="D25">
+        <v>17.77261</v>
+      </c>
+      <c r="E25">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26">
+        <v>2010</v>
+      </c>
+      <c r="D26">
+        <v>20.12923</v>
+      </c>
+      <c r="E26">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27">
+        <v>2010</v>
+      </c>
+      <c r="D27">
+        <v>16.694759999999999</v>
+      </c>
+      <c r="E27">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28">
+        <v>2011</v>
+      </c>
+      <c r="D28">
+        <v>20.66996</v>
+      </c>
+      <c r="E28">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>8</v>
+      </c>
+      <c r="B29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29">
+        <v>2011</v>
+      </c>
+      <c r="D29">
+        <v>16.438510000000001</v>
+      </c>
+      <c r="E29">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" t="s">
+        <v>44</v>
+      </c>
+      <c r="C30">
+        <v>2012</v>
+      </c>
+      <c r="D30">
+        <v>20.226299999999998</v>
+      </c>
+      <c r="E30">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>8</v>
+      </c>
+      <c r="B31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31">
+        <v>2012</v>
+      </c>
+      <c r="D31">
+        <v>16.003489999999999</v>
+      </c>
+      <c r="E31">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>8</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32">
+        <v>2013</v>
+      </c>
+      <c r="D32">
+        <v>20.72945</v>
+      </c>
+      <c r="E32">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" t="s">
+        <v>45</v>
+      </c>
+      <c r="C33">
+        <v>2013</v>
+      </c>
+      <c r="D33">
+        <v>15.77276</v>
+      </c>
+      <c r="E33">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34">
+        <v>2014</v>
+      </c>
+      <c r="D34">
+        <v>20.756879999999999</v>
+      </c>
+      <c r="E34">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B35" t="s">
+        <v>45</v>
+      </c>
+      <c r="C35">
+        <v>2014</v>
+      </c>
+      <c r="D35">
+        <v>15.902139999999999</v>
+      </c>
+      <c r="E35">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36">
+        <v>2015</v>
+      </c>
+      <c r="D36">
+        <v>21.052060000000001</v>
+      </c>
+      <c r="E36">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C37">
+        <v>2015</v>
+      </c>
+      <c r="D37">
+        <v>16.358809999999998</v>
+      </c>
+      <c r="E37">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>8</v>
+      </c>
+      <c r="B38" t="s">
+        <v>44</v>
+      </c>
+      <c r="C38">
+        <v>2016</v>
+      </c>
+      <c r="D38">
+        <v>20.218589999999999</v>
+      </c>
+      <c r="E38">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B39" t="s">
+        <v>45</v>
+      </c>
+      <c r="C39">
+        <v>2016</v>
+      </c>
+      <c r="D39">
+        <v>16.523040000000002</v>
+      </c>
+      <c r="E39">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40">
+        <v>2017</v>
+      </c>
+      <c r="D40">
+        <v>20.069649999999999</v>
+      </c>
+      <c r="E40">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41">
+        <v>2017</v>
+      </c>
+      <c r="D41">
+        <v>16.835799999999999</v>
+      </c>
+      <c r="E41">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42">
+        <v>2018</v>
+      </c>
+      <c r="D42">
+        <v>19.86891</v>
+      </c>
+      <c r="E42">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>8</v>
+      </c>
+      <c r="B43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43">
+        <v>2018</v>
+      </c>
+      <c r="D43">
+        <v>16.838889999999999</v>
+      </c>
+      <c r="E43">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44">
+        <v>2019</v>
+      </c>
+      <c r="D44">
+        <v>23.877520000000001</v>
+      </c>
+      <c r="E44">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45">
+        <v>2019</v>
+      </c>
+      <c r="D45">
+        <v>17.72607</v>
+      </c>
+      <c r="E45">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C46">
+        <v>2020</v>
+      </c>
+      <c r="D46">
+        <v>25.851389999999999</v>
+      </c>
+      <c r="E46">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>8</v>
+      </c>
+      <c r="B47" t="s">
+        <v>45</v>
+      </c>
+      <c r="C47">
+        <v>2020</v>
+      </c>
+      <c r="D47">
+        <v>18.17557</v>
+      </c>
+      <c r="E47">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48">
+        <v>2021</v>
+      </c>
+      <c r="D48">
+        <v>21.073630000000001</v>
+      </c>
+      <c r="E48">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>45</v>
+      </c>
+      <c r="C49">
+        <v>2021</v>
+      </c>
+      <c r="D49">
+        <v>18.470179999999999</v>
+      </c>
+      <c r="E49">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B50" t="s">
+        <v>44</v>
+      </c>
+      <c r="C50">
+        <v>2022</v>
+      </c>
+      <c r="D50">
+        <v>19.87445</v>
+      </c>
+      <c r="E50">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>8</v>
+      </c>
+      <c r="B51" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51">
+        <v>2022</v>
+      </c>
+      <c r="D51">
+        <v>17.3672</v>
+      </c>
+      <c r="E51">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>8</v>
+      </c>
+      <c r="B52" t="s">
+        <v>44</v>
+      </c>
+      <c r="C52">
+        <v>2023</v>
+      </c>
+      <c r="D52">
+        <v>20.690930000000002</v>
+      </c>
+      <c r="E52">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" t="s">
+        <v>45</v>
+      </c>
+      <c r="C53">
+        <v>2023</v>
+      </c>
+      <c r="D53">
+        <v>17.866140000000001</v>
+      </c>
+      <c r="E53">
+        <v>2024</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC05B1-9AB1-4509-9089-29AFAE6666A5}">
+  <dimension ref="A1:C51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>1999</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3">
+        <v>2000</v>
+      </c>
+      <c r="C3">
+        <v>-2.2352609999999998E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2001</v>
+      </c>
+      <c r="C4">
+        <v>0.92864237000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5">
+        <v>2002</v>
+      </c>
+      <c r="C5">
+        <v>0.74572247000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2003</v>
+      </c>
+      <c r="C6">
+        <v>0.11653626</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7">
+        <v>0.33220907</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8">
+        <v>0.30841805999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9">
+        <v>2006</v>
+      </c>
+      <c r="C9">
+        <v>-0.16800482999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>2007</v>
+      </c>
+      <c r="C10">
+        <v>-0.32360629000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11">
+        <v>2008</v>
+      </c>
+      <c r="C11">
+        <v>-0.43853409999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>2009</v>
+      </c>
+      <c r="C12">
+        <v>1.2859557800000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13">
+        <v>2010</v>
+      </c>
+      <c r="C13">
+        <v>1.0966252599999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>2011</v>
+      </c>
+      <c r="C14">
+        <v>0.76855994000000005</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15">
+        <v>2012</v>
+      </c>
+      <c r="C15">
+        <v>1.30929392</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2013</v>
+      </c>
+      <c r="C16">
+        <v>0.86562733000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17">
+        <v>2014</v>
+      </c>
+      <c r="C17">
+        <v>1.3687843</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18">
+        <v>1.3962114400000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>2016</v>
+      </c>
+      <c r="C19">
+        <v>1.6913871899999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2017</v>
+      </c>
+      <c r="C20">
+        <v>0.85791691000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21">
+        <v>0.70898106000000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>2019</v>
+      </c>
+      <c r="C22">
+        <v>0.50823715000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>2020</v>
+      </c>
+      <c r="C23">
+        <v>4.5168512600000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2021</v>
+      </c>
+      <c r="C24">
+        <v>6.4907211699999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+      <c r="C25">
+        <v>1.71296402</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26">
+        <v>0.51377680000000003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27">
+        <v>1999</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>2000</v>
+      </c>
+      <c r="C28">
+        <v>-0.50758828</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>45</v>
+      </c>
+      <c r="B29">
+        <v>2001</v>
+      </c>
+      <c r="C29">
+        <v>-0.34518788</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>2002</v>
+      </c>
+      <c r="C30">
+        <v>-0.63463170000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B31">
+        <v>2003</v>
+      </c>
+      <c r="C31">
+        <v>-0.93209268999999995</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32">
+        <v>2004</v>
+      </c>
+      <c r="C32">
+        <v>-1.04983618</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>45</v>
+      </c>
+      <c r="B33">
+        <v>2005</v>
+      </c>
+      <c r="C33">
+        <v>-1.0341715499999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34">
+        <v>2006</v>
+      </c>
+      <c r="C34">
+        <v>-0.90302044000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>45</v>
+      </c>
+      <c r="B35">
+        <v>2007</v>
+      </c>
+      <c r="C35">
+        <v>-0.90759424</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>45</v>
+      </c>
+      <c r="B36">
+        <v>2008</v>
+      </c>
+      <c r="C36">
+        <v>-0.83763021000000004</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>2009</v>
+      </c>
+      <c r="C37">
+        <v>-0.22800112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>45</v>
+      </c>
+      <c r="B38">
+        <v>2010</v>
+      </c>
+      <c r="C38">
+        <v>1.2858175300000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39">
+        <v>2011</v>
+      </c>
+      <c r="C39">
+        <v>0.20797085000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>2012</v>
+      </c>
+      <c r="C40">
+        <v>-4.8275449999999998E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>2013</v>
+      </c>
+      <c r="C41">
+        <v>-0.48329840000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>45</v>
+      </c>
+      <c r="B42">
+        <v>2014</v>
+      </c>
+      <c r="C42">
+        <v>-0.71402493</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43">
+        <v>2015</v>
+      </c>
+      <c r="C43">
+        <v>-0.58464722000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>45</v>
+      </c>
+      <c r="B44">
+        <v>2016</v>
+      </c>
+      <c r="C44">
+        <v>-0.12797776999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>45</v>
+      </c>
+      <c r="B45">
+        <v>2017</v>
+      </c>
+      <c r="C45">
+        <v>3.62501E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>2018</v>
+      </c>
+      <c r="C46">
+        <v>0.34901164000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2019</v>
+      </c>
+      <c r="C47">
+        <v>0.35210721</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>45</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48">
+        <v>1.23928379</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>45</v>
+      </c>
+      <c r="B49">
+        <v>2021</v>
+      </c>
+      <c r="C49">
+        <v>1.6887804900000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50">
+        <v>2022</v>
+      </c>
+      <c r="C50">
+        <v>1.98339398</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>45</v>
+      </c>
+      <c r="B51">
+        <v>2023</v>
+      </c>
+      <c r="C51">
+        <v>0.88040770999999995</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D5BD26-8E8B-4A7A-AF07-A861F04DF87D}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -837,12 +3282,12 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -850,7 +3295,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2001</v>
       </c>
@@ -858,7 +3303,7 @@
         <v>0.61436919013262092</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2002</v>
       </c>
@@ -866,7 +3311,7 @@
         <v>0.61942110177404297</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2003</v>
       </c>
@@ -874,7 +3319,7 @@
         <v>0.59433655883025915</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2004</v>
       </c>
@@ -882,7 +3327,7 @@
         <v>0.59471442872596125</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2005</v>
       </c>
@@ -890,7 +3335,7 @@
         <v>0.59518369726469311</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2006</v>
       </c>
@@ -898,7 +3343,7 @@
         <v>0.5863913923062386</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2007</v>
       </c>
@@ -906,7 +3351,7 @@
         <v>0.60828969688030088</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2008</v>
       </c>
@@ -914,7 +3359,7 @@
         <v>0.57095352564102564</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2009</v>
       </c>
@@ -922,7 +3367,7 @@
         <v>0.50579277606749229</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2010</v>
       </c>
@@ -930,7 +3375,7 @@
         <v>0.45913117598709247</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2011</v>
       </c>
@@ -938,7 +3383,7 @@
         <v>0.49556881124840224</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2012</v>
       </c>
@@ -946,7 +3391,7 @@
         <v>0.48581471775032237</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2013</v>
       </c>
@@ -954,7 +3399,7 @@
         <v>0.53215668363130197</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2014</v>
       </c>
@@ -962,7 +3407,7 @@
         <v>0.53207952164358363</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2015</v>
       </c>
@@ -970,7 +3415,7 @@
         <v>0.54251386321626616</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2016</v>
       </c>
@@ -978,7 +3423,7 @@
         <v>0.53825535611956299</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2017</v>
       </c>
@@ -986,7 +3431,7 @@
         <v>0.51789615480929474</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
@@ -994,7 +3439,7 @@
         <v>0.52672759496565635</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2019</v>
       </c>
@@ -1002,7 +3447,7 @@
         <v>0.52446798537545702</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2020</v>
       </c>
@@ -1010,7 +3455,7 @@
         <v>0.47136822074215035</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2021</v>
       </c>
@@ -1018,7 +3463,7 @@
         <v>0.50353454872201664</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2022</v>
       </c>
@@ -1026,7 +3471,7 @@
         <v>0.45934617601844735</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2023</v>
       </c>
@@ -1034,7 +3479,7 @@
         <v>0.52137445727181719</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2024</v>
       </c>
@@ -1042,7 +3487,7 @@
         <v>0.52312122313598985</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2025</v>
       </c>
@@ -1055,7 +3500,787 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947EF26A-0411-4DBC-AC86-CB82F965425F}">
+  <dimension ref="A1:E45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2">
+        <v>2002</v>
+      </c>
+      <c r="C2">
+        <v>19.477209999999999</v>
+      </c>
+      <c r="D2">
+        <v>20.064299999999999</v>
+      </c>
+      <c r="E2">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3">
+        <v>15.5547</v>
+      </c>
+      <c r="D3">
+        <v>15.644970000000001</v>
+      </c>
+      <c r="E3">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>2003</v>
+      </c>
+      <c r="C4">
+        <v>19.692879999999999</v>
+      </c>
+      <c r="D4">
+        <v>20.458310000000001</v>
+      </c>
+      <c r="E4">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5">
+        <v>2003</v>
+      </c>
+      <c r="C5">
+        <v>15.43695</v>
+      </c>
+      <c r="D5">
+        <v>15.43684</v>
+      </c>
+      <c r="E5">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6">
+        <v>2004</v>
+      </c>
+      <c r="C6">
+        <v>19.669090000000001</v>
+      </c>
+      <c r="D6">
+        <v>20.737010000000001</v>
+      </c>
+      <c r="E6">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>2004</v>
+      </c>
+      <c r="C7">
+        <v>15.45262</v>
+      </c>
+      <c r="D7">
+        <v>15.282539999999999</v>
+      </c>
+      <c r="E7">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2005</v>
+      </c>
+      <c r="C8">
+        <v>19.19266</v>
+      </c>
+      <c r="D8">
+        <v>21.1995</v>
+      </c>
+      <c r="E8">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2005</v>
+      </c>
+      <c r="C9">
+        <v>15.583769999999999</v>
+      </c>
+      <c r="D9">
+        <v>15.150790000000001</v>
+      </c>
+      <c r="E9">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10">
+        <v>2006</v>
+      </c>
+      <c r="C10">
+        <v>19.03706</v>
+      </c>
+      <c r="D10">
+        <v>21.12462</v>
+      </c>
+      <c r="E10">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>2006</v>
+      </c>
+      <c r="C11">
+        <v>15.579190000000001</v>
+      </c>
+      <c r="D11">
+        <v>15.04541</v>
+      </c>
+      <c r="E11">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>44</v>
+      </c>
+      <c r="B12">
+        <v>2007</v>
+      </c>
+      <c r="C12">
+        <v>18.922139999999999</v>
+      </c>
+      <c r="D12">
+        <v>20.260100000000001</v>
+      </c>
+      <c r="E12">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>2007</v>
+      </c>
+      <c r="C13">
+        <v>15.64916</v>
+      </c>
+      <c r="D13">
+        <v>14.929779999999999</v>
+      </c>
+      <c r="E13">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14">
+        <v>2008</v>
+      </c>
+      <c r="C14">
+        <v>20.646629999999998</v>
+      </c>
+      <c r="D14">
+        <v>18.10755</v>
+      </c>
+      <c r="E14">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>2008</v>
+      </c>
+      <c r="C15">
+        <v>16.258790000000001</v>
+      </c>
+      <c r="D15">
+        <v>14.94323</v>
+      </c>
+      <c r="E15">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>2009</v>
+      </c>
+      <c r="C16">
+        <v>20.4573</v>
+      </c>
+      <c r="D16">
+        <v>16.567229999999999</v>
+      </c>
+      <c r="E16">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>2009</v>
+      </c>
+      <c r="C17">
+        <v>17.77261</v>
+      </c>
+      <c r="D17">
+        <v>16.010919999999999</v>
+      </c>
+      <c r="E17">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18">
+        <v>2010</v>
+      </c>
+      <c r="C18">
+        <v>20.12923</v>
+      </c>
+      <c r="D18">
+        <v>16.79401</v>
+      </c>
+      <c r="E18">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>2010</v>
+      </c>
+      <c r="C19">
+        <v>16.694759999999999</v>
+      </c>
+      <c r="D19">
+        <v>15.461460000000001</v>
+      </c>
+      <c r="E19">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20">
+        <v>2011</v>
+      </c>
+      <c r="C20">
+        <v>20.66996</v>
+      </c>
+      <c r="D20">
+        <v>17.57948</v>
+      </c>
+      <c r="E20">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21">
+        <v>16.438510000000001</v>
+      </c>
+      <c r="D21">
+        <v>14.908530000000001</v>
+      </c>
+      <c r="E21">
+        <v>2011</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22">
+        <v>2012</v>
+      </c>
+      <c r="C22">
+        <v>20.226299999999998</v>
+      </c>
+      <c r="D22">
+        <v>18.70438</v>
+      </c>
+      <c r="E22">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>2012</v>
+      </c>
+      <c r="C23">
+        <v>16.003489999999999</v>
+      </c>
+      <c r="D23">
+        <v>14.69286</v>
+      </c>
+      <c r="E23">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24">
+        <v>2013</v>
+      </c>
+      <c r="C24">
+        <v>20.72945</v>
+      </c>
+      <c r="D24">
+        <v>18.675719999999998</v>
+      </c>
+      <c r="E24">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2013</v>
+      </c>
+      <c r="C25">
+        <v>15.77276</v>
+      </c>
+      <c r="D25">
+        <v>15.056089999999999</v>
+      </c>
+      <c r="E25">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>2014</v>
+      </c>
+      <c r="C26">
+        <v>20.756879999999999</v>
+      </c>
+      <c r="D26">
+        <v>18.755610000000001</v>
+      </c>
+      <c r="E26">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>2014</v>
+      </c>
+      <c r="C27">
+        <v>15.902139999999999</v>
+      </c>
+      <c r="D27">
+        <v>15.67901</v>
+      </c>
+      <c r="E27">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>44</v>
+      </c>
+      <c r="B28">
+        <v>2015</v>
+      </c>
+      <c r="C28">
+        <v>21.052060000000001</v>
+      </c>
+      <c r="D28">
+        <v>19.197199999999999</v>
+      </c>
+      <c r="E28">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>2015</v>
+      </c>
+      <c r="C29">
+        <v>16.358809999999998</v>
+      </c>
+      <c r="D29">
+        <v>16.001010000000001</v>
+      </c>
+      <c r="E29">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>44</v>
+      </c>
+      <c r="B30">
+        <v>2016</v>
+      </c>
+      <c r="C30">
+        <v>20.218589999999999</v>
+      </c>
+      <c r="D30">
+        <v>19.033539999999999</v>
+      </c>
+      <c r="E30">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>2016</v>
+      </c>
+      <c r="C31">
+        <v>16.523040000000002</v>
+      </c>
+      <c r="D31">
+        <v>16.129729999999999</v>
+      </c>
+      <c r="E31">
+        <v>2016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32">
+        <v>2017</v>
+      </c>
+      <c r="C32">
+        <v>20.069649999999999</v>
+      </c>
+      <c r="D32">
+        <v>19.722750000000001</v>
+      </c>
+      <c r="E32">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>2017</v>
+      </c>
+      <c r="C33">
+        <v>16.835799999999999</v>
+      </c>
+      <c r="D33">
+        <v>15.98582</v>
+      </c>
+      <c r="E33">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34">
+        <v>2018</v>
+      </c>
+      <c r="C34">
+        <v>19.86891</v>
+      </c>
+      <c r="D34">
+        <v>19.597660000000001</v>
+      </c>
+      <c r="E34">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>2018</v>
+      </c>
+      <c r="C35">
+        <v>16.838889999999999</v>
+      </c>
+      <c r="D35">
+        <v>15.75977</v>
+      </c>
+      <c r="E35">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36">
+        <v>2019</v>
+      </c>
+      <c r="C36">
+        <v>23.877520000000001</v>
+      </c>
+      <c r="D36">
+        <v>19.625990000000002</v>
+      </c>
+      <c r="E36">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>2019</v>
+      </c>
+      <c r="C37">
+        <v>17.72607</v>
+      </c>
+      <c r="D37">
+        <v>15.1829</v>
+      </c>
+      <c r="E37">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>44</v>
+      </c>
+      <c r="B38">
+        <v>2020</v>
+      </c>
+      <c r="C38">
+        <v>25.851389999999999</v>
+      </c>
+      <c r="D38">
+        <v>20.029990000000002</v>
+      </c>
+      <c r="E38">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39">
+        <v>18.17557</v>
+      </c>
+      <c r="D39">
+        <v>15.83117</v>
+      </c>
+      <c r="E39">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>2021</v>
+      </c>
+      <c r="C40">
+        <v>21.073630000000001</v>
+      </c>
+      <c r="D40">
+        <v>18.884589999999999</v>
+      </c>
+      <c r="E40">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>2021</v>
+      </c>
+      <c r="C41">
+        <v>18.470179999999999</v>
+      </c>
+      <c r="D41">
+        <v>16.289719999999999</v>
+      </c>
+      <c r="E41">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42">
+        <v>19.87445</v>
+      </c>
+      <c r="D42">
+        <v>20.210260000000002</v>
+      </c>
+      <c r="E42">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>2022</v>
+      </c>
+      <c r="C43">
+        <v>17.3672</v>
+      </c>
+      <c r="D43">
+        <v>15.89546</v>
+      </c>
+      <c r="E43">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44">
+        <v>2023</v>
+      </c>
+      <c r="C44">
+        <v>20.690930000000002</v>
+      </c>
+      <c r="D44">
+        <v>20.574490000000001</v>
+      </c>
+      <c r="E44">
+        <v>2023</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>2023</v>
+      </c>
+      <c r="C45">
+        <v>17.866140000000001</v>
+      </c>
+      <c r="D45">
+        <v>15.88138</v>
+      </c>
+      <c r="E45">
+        <v>2023</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643595FF-C969-4B3B-A38B-54922C656916}">
   <dimension ref="A1:C76"/>
   <sheetViews>
@@ -1063,9 +4288,9 @@
       <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1076,7 +4301,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -1087,7 +4312,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2000</v>
       </c>
@@ -1098,7 +4323,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2001</v>
       </c>
@@ -1109,7 +4334,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2002</v>
       </c>
@@ -1120,7 +4345,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2003</v>
       </c>
@@ -1131,7 +4356,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2004</v>
       </c>
@@ -1142,7 +4367,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2005</v>
       </c>
@@ -1153,7 +4378,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2006</v>
       </c>
@@ -1164,7 +4389,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2007</v>
       </c>
@@ -1175,7 +4400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2008</v>
       </c>
@@ -1186,7 +4411,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2009</v>
       </c>
@@ -1197,7 +4422,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2010</v>
       </c>
@@ -1208,7 +4433,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2011</v>
       </c>
@@ -1219,7 +4444,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2012</v>
       </c>
@@ -1230,7 +4455,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2013</v>
       </c>
@@ -1241,7 +4466,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2014</v>
       </c>
@@ -1252,7 +4477,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2015</v>
       </c>
@@ -1263,7 +4488,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2016</v>
       </c>
@@ -1274,7 +4499,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2017</v>
       </c>
@@ -1285,7 +4510,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
@@ -1296,7 +4521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2019</v>
       </c>
@@ -1307,7 +4532,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2020</v>
       </c>
@@ -1318,7 +4543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2021</v>
       </c>
@@ -1329,7 +4554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2022</v>
       </c>
@@ -1340,7 +4565,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2023</v>
       </c>
@@ -1351,7 +4576,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1999</v>
       </c>
@@ -1362,7 +4587,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2000</v>
       </c>
@@ -1373,7 +4598,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2001</v>
       </c>
@@ -1384,7 +4609,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -1395,7 +4620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2003</v>
       </c>
@@ -1406,7 +4631,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2004</v>
       </c>
@@ -1417,7 +4642,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2005</v>
       </c>
@@ -1428,7 +4653,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2006</v>
       </c>
@@ -1439,7 +4664,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2007</v>
       </c>
@@ -1450,7 +4675,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2008</v>
       </c>
@@ -1461,7 +4686,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2009</v>
       </c>
@@ -1472,7 +4697,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2010</v>
       </c>
@@ -1483,7 +4708,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2011</v>
       </c>
@@ -1494,7 +4719,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2012</v>
       </c>
@@ -1505,7 +4730,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2013</v>
       </c>
@@ -1516,7 +4741,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2014</v>
       </c>
@@ -1527,7 +4752,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2015</v>
       </c>
@@ -1538,7 +4763,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2016</v>
       </c>
@@ -1549,7 +4774,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2017</v>
       </c>
@@ -1560,7 +4785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2018</v>
       </c>
@@ -1571,7 +4796,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2019</v>
       </c>
@@ -1582,7 +4807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2020</v>
       </c>
@@ -1593,7 +4818,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2021</v>
       </c>
@@ -1604,7 +4829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2022</v>
       </c>
@@ -1615,7 +4840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2023</v>
       </c>
@@ -1626,7 +4851,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1999</v>
       </c>
@@ -1637,7 +4862,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2000</v>
       </c>
@@ -1648,7 +4873,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2001</v>
       </c>
@@ -1659,7 +4884,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2002</v>
       </c>
@@ -1670,7 +4895,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2003</v>
       </c>
@@ -1681,7 +4906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2004</v>
       </c>
@@ -1692,7 +4917,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2005</v>
       </c>
@@ -1703,7 +4928,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2006</v>
       </c>
@@ -1714,7 +4939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2007</v>
       </c>
@@ -1725,7 +4950,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2008</v>
       </c>
@@ -1736,7 +4961,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2009</v>
       </c>
@@ -1747,7 +4972,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2010</v>
       </c>
@@ -1758,7 +4983,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2011</v>
       </c>
@@ -1769,7 +4994,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2012</v>
       </c>
@@ -1780,7 +5005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2013</v>
       </c>
@@ -1791,7 +5016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -1802,7 +5027,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -1813,7 +5038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2016</v>
       </c>
@@ -1824,7 +5049,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2017</v>
       </c>
@@ -1835,7 +5060,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2018</v>
       </c>
@@ -1846,7 +5071,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2019</v>
       </c>
@@ -1857,7 +5082,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2020</v>
       </c>
@@ -1868,7 +5093,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2021</v>
       </c>
@@ -1879,7 +5104,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2022</v>
       </c>
@@ -1890,7 +5115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2023</v>
       </c>
@@ -1906,17 +5131,17 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0764D6E1-C02B-4C95-A604-A8A7B9048862}">
   <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>5</v>
       </c>
@@ -1927,7 +5152,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1999</v>
       </c>
@@ -1938,7 +5163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1999</v>
       </c>
@@ -1949,7 +5174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2000</v>
       </c>
@@ -1960,7 +5185,7 @@
         <v>1.0081986000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2000</v>
       </c>
@@ -1971,7 +5196,7 @@
         <v>0.96943449999999998</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -1982,7 +5207,7 @@
         <v>1.0172063</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2001</v>
       </c>
@@ -1993,7 +5218,7 @@
         <v>0.99501289999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2002</v>
       </c>
@@ -2004,7 +5229,7 @@
         <v>0.99754759999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2002</v>
       </c>
@@ -2015,7 +5240,7 @@
         <v>1.0333237</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2003</v>
       </c>
@@ -2026,7 +5251,7 @@
         <v>0.98590259999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2003</v>
       </c>
@@ -2037,7 +5262,7 @@
         <v>1.0145052999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2004</v>
       </c>
@@ -2048,7 +5273,7 @@
         <v>0.9871645</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2004</v>
       </c>
@@ -2059,7 +5284,7 @@
         <v>0.99088410000000005</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2005</v>
       </c>
@@ -2070,7 +5295,7 @@
         <v>0.98219860000000003</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2005</v>
       </c>
@@ -2081,7 +5306,7 @@
         <v>0.98316440000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2006</v>
       </c>
@@ -2092,7 +5317,7 @@
         <v>0.97509610000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2006</v>
       </c>
@@ -2103,7 +5328,7 @@
         <v>0.97017520000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2007</v>
       </c>
@@ -2114,7 +5339,7 @@
         <v>0.97221349999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2007</v>
       </c>
@@ -2125,7 +5350,7 @@
         <v>0.96899360000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2008</v>
       </c>
@@ -2136,7 +5361,7 @@
         <v>1.0043804000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2008</v>
       </c>
@@ -2147,7 +5372,7 @@
         <v>1.0241259</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2009</v>
       </c>
@@ -2158,7 +5383,7 @@
         <v>1.0557905999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -2169,7 +5394,7 @@
         <v>1.0937199</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2010</v>
       </c>
@@ -2180,7 +5405,7 @@
         <v>1.0546465</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2010</v>
       </c>
@@ -2191,7 +5416,7 @@
         <v>1.0767211999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2011</v>
       </c>
@@ -2202,7 +5427,7 @@
         <v>1.0388884</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2011</v>
       </c>
@@ -2213,7 +5438,7 @@
         <v>1.0533627999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2012</v>
       </c>
@@ -2224,7 +5449,7 @@
         <v>1.0305386999999999</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2012</v>
       </c>
@@ -2235,7 +5460,7 @@
         <v>1.0292513000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2013</v>
       </c>
@@ -2246,7 +5471,7 @@
         <v>1.0220197</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2013</v>
       </c>
@@ -2257,7 +5482,7 @@
         <v>1.0163057</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2014</v>
       </c>
@@ -2268,7 +5493,7 @@
         <v>1.0280511999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2014</v>
       </c>
@@ -2279,7 +5504,7 @@
         <v>0.99900549999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2015</v>
       </c>
@@ -2290,7 +5515,7 @@
         <v>1.0408194</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2015</v>
       </c>
@@ -2301,7 +5526,7 @@
         <v>0.99393920000000002</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2016</v>
       </c>
@@ -2312,7 +5537,7 @@
         <v>1.0419802</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2016</v>
       </c>
@@ -2323,7 +5548,7 @@
         <v>0.99794439999999995</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2017</v>
       </c>
@@ -2334,7 +5559,7 @@
         <v>1.0348781</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2017</v>
       </c>
@@ -2345,7 +5570,7 @@
         <v>0.98864280000000004</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2018</v>
       </c>
@@ -2356,7 +5581,7 @@
         <v>1.0344028999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2018</v>
       </c>
@@ -2367,7 +5592,7 @@
         <v>0.98957669999999998</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2019</v>
       </c>
@@ -2378,7 +5603,7 @@
         <v>1.1004205</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2019</v>
       </c>
@@ -2389,7 +5614,7 @@
         <v>0.99813390000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2020</v>
       </c>
@@ -2400,7 +5625,7 @@
         <v>1.2032681999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2020</v>
       </c>
@@ -2411,7 +5636,7 @@
         <v>1.1803524000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2021</v>
       </c>
@@ -2422,7 +5647,7 @@
         <v>1.1743245</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2021</v>
       </c>
@@ -2433,7 +5658,7 @@
         <v>1.1031403</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2022</v>
       </c>
@@ -2444,7 +5669,7 @@
         <v>1.0789782000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2022</v>
       </c>

--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E60324D-6226-49B4-9D10-F204E32F2EF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924DDA5-3333-4544-A6BC-BC0DFC76875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="27" activeTab="28" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="4" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest_plot" sheetId="57" r:id="rId1"/>
@@ -44,32 +44,33 @@
     <sheet name="Figure_23" sheetId="25" r:id="rId29"/>
     <sheet name="Figure_24" sheetId="26" r:id="rId30"/>
     <sheet name="Figure_25" sheetId="27" r:id="rId31"/>
-    <sheet name="Figure_26a" sheetId="28" r:id="rId32"/>
-    <sheet name="Figure_26b" sheetId="29" r:id="rId33"/>
-    <sheet name="Figure_27" sheetId="30" r:id="rId34"/>
-    <sheet name="Figure29_a" sheetId="41" r:id="rId35"/>
-    <sheet name="Figure29_b" sheetId="42" r:id="rId36"/>
-    <sheet name="Figure30_a" sheetId="43" r:id="rId37"/>
-    <sheet name="Figure30_b" sheetId="44" r:id="rId38"/>
-    <sheet name="Figure_31" sheetId="45" r:id="rId39"/>
-    <sheet name="Figure_32" sheetId="46" r:id="rId40"/>
-    <sheet name="Figure_33" sheetId="47" r:id="rId41"/>
-    <sheet name="Figure_34" sheetId="48" r:id="rId42"/>
-    <sheet name="Figure_35" sheetId="49" r:id="rId43"/>
-    <sheet name="Figure_36" sheetId="50" r:id="rId44"/>
-    <sheet name="Figure_37_a" sheetId="31" r:id="rId45"/>
-    <sheet name="Figure_37_b" sheetId="32" r:id="rId46"/>
-    <sheet name="Figure_38" sheetId="55" r:id="rId47"/>
-    <sheet name="Figure_39a" sheetId="56" r:id="rId48"/>
-    <sheet name="Figure43_a" sheetId="33" r:id="rId49"/>
-    <sheet name="Figure43_b" sheetId="34" r:id="rId50"/>
-    <sheet name="Figure44_a" sheetId="35" r:id="rId51"/>
-    <sheet name="Figure44_b" sheetId="36" r:id="rId52"/>
-    <sheet name="Figure45" sheetId="37" r:id="rId53"/>
-    <sheet name="Figure46_a" sheetId="38" r:id="rId54"/>
-    <sheet name="Figur46_b" sheetId="39" r:id="rId55"/>
-    <sheet name="Figure47" sheetId="40" r:id="rId56"/>
-    <sheet name="Release schedule" sheetId="54" r:id="rId57"/>
+    <sheet name="Figure_26" sheetId="58" r:id="rId32"/>
+    <sheet name="Figure_26a" sheetId="28" r:id="rId33"/>
+    <sheet name="Figure_26b" sheetId="29" r:id="rId34"/>
+    <sheet name="Figure_27" sheetId="30" r:id="rId35"/>
+    <sheet name="Figure29_a" sheetId="41" r:id="rId36"/>
+    <sheet name="Figure29_b" sheetId="42" r:id="rId37"/>
+    <sheet name="Figure30_a" sheetId="43" r:id="rId38"/>
+    <sheet name="Figure30_b" sheetId="44" r:id="rId39"/>
+    <sheet name="Figure_31" sheetId="45" r:id="rId40"/>
+    <sheet name="Figure_32" sheetId="46" r:id="rId41"/>
+    <sheet name="Figure_33" sheetId="47" r:id="rId42"/>
+    <sheet name="Figure_34" sheetId="48" r:id="rId43"/>
+    <sheet name="Figure_35" sheetId="49" r:id="rId44"/>
+    <sheet name="Figure_36" sheetId="50" r:id="rId45"/>
+    <sheet name="Figure_37_a" sheetId="31" r:id="rId46"/>
+    <sheet name="Figure_37_b" sheetId="32" r:id="rId47"/>
+    <sheet name="Figure_38" sheetId="55" r:id="rId48"/>
+    <sheet name="Figure_39a" sheetId="56" r:id="rId49"/>
+    <sheet name="Figure43_a" sheetId="33" r:id="rId50"/>
+    <sheet name="Figure43_b" sheetId="34" r:id="rId51"/>
+    <sheet name="Figure44_a" sheetId="35" r:id="rId52"/>
+    <sheet name="Figure44_b" sheetId="36" r:id="rId53"/>
+    <sheet name="Figure45" sheetId="37" r:id="rId54"/>
+    <sheet name="Figure46_a" sheetId="38" r:id="rId55"/>
+    <sheet name="Figur46_b" sheetId="39" r:id="rId56"/>
+    <sheet name="Figure47" sheetId="40" r:id="rId57"/>
+    <sheet name="Release schedule" sheetId="54" r:id="rId58"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -92,7 +93,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3168" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="321">
   <si>
     <t>State</t>
   </si>
@@ -1035,12 +1036,37 @@
   <si>
     <t>RGDP_trend</t>
   </si>
+  <si>
+    <t>Historical</t>
+  </si>
+  <si>
+    <t>Projection (base)</t>
+  </si>
+  <si>
+    <t>Consolidated</t>
+  </si>
+  <si>
+    <t>Addition</t>
+  </si>
+  <si>
+    <t>State share</t>
+  </si>
+  <si>
+    <t>Increases on 2025</t>
+  </si>
+  <si>
+    <t>Consolidate</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1072,6 +1098,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1090,10 +1123,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1106,9 +1140,12 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6333,12 +6370,13 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -16544,7 +16582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABF7EBE-627D-4BB0-9405-ECD76D3B70EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
@@ -16923,7 +16961,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3953408D-929D-4056-9C00-212E6B38F34C}">
   <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
@@ -17819,7 +17857,7 @@
   <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="Q35" sqref="Q35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -18049,6 +18087,3052 @@
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F09A25-5A7F-46B5-878B-A5D4C9D9CFAA}">
+  <dimension ref="A1:N93"/>
+  <sheetViews>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L48" sqref="L48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>316</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2">
+        <v>0.33358106902907397</v>
+      </c>
+      <c r="D2">
+        <v>0.13323473452642801</v>
+      </c>
+      <c r="E2">
+        <v>0.20033147036090099</v>
+      </c>
+      <c r="F2">
+        <f>D2+E2</f>
+        <v>0.33356620488732902</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3">
+        <v>0.34234996327772499</v>
+      </c>
+      <c r="D3">
+        <v>0.13496747455670999</v>
+      </c>
+      <c r="E3">
+        <v>0.207382488721016</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F46" si="0">D3+E3</f>
+        <v>0.34234996327772599</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4">
+        <v>0.34243956831667399</v>
+      </c>
+      <c r="D4">
+        <v>0.13140513263965101</v>
+      </c>
+      <c r="E4">
+        <v>0.21104012470346001</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>0.34244525734311104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5">
+        <v>0.36969617117710601</v>
+      </c>
+      <c r="D5">
+        <v>0.13797992041950999</v>
+      </c>
+      <c r="E5">
+        <v>0.231710980526496</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>0.36969090094600598</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6">
+        <v>0.37465388213283402</v>
+      </c>
+      <c r="D6">
+        <v>0.13672123479887699</v>
+      </c>
+      <c r="E6">
+        <v>0.237932647333957</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>0.37465388213283402</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7">
+        <v>0.38535363186614902</v>
+      </c>
+      <c r="D7">
+        <v>0.14141452746459399</v>
+      </c>
+      <c r="E7">
+        <v>0.24394335095653699</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>0.38535787842113101</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8">
+        <v>0.38723092726603697</v>
+      </c>
+      <c r="D8">
+        <v>0.141232521771127</v>
+      </c>
+      <c r="E8">
+        <v>0.24599840549491001</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.38723092726603703</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9">
+        <v>0.387584900913995</v>
+      </c>
+      <c r="D9">
+        <v>0.14041493138049599</v>
+      </c>
+      <c r="E9">
+        <v>0.24716996953349901</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.387584900913995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10">
+        <v>0.36184958279045298</v>
+      </c>
+      <c r="D10">
+        <v>0.131212325623658</v>
+      </c>
+      <c r="E10">
+        <v>0.23064033734063999</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>0.36185266296429797</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11">
+        <v>0.34642664227335501</v>
+      </c>
+      <c r="D11">
+        <v>0.125608362490398</v>
+      </c>
+      <c r="E11">
+        <v>0.22082099417220599</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>0.34642935666260399</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12">
+        <v>0.34313739991322501</v>
+      </c>
+      <c r="D12">
+        <v>0.12723592868694</v>
+      </c>
+      <c r="E12">
+        <v>0.21589900603478901</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>0.34313493472172901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13">
+        <v>0.35779644247365799</v>
+      </c>
+      <c r="D13">
+        <v>0.13314122979963899</v>
+      </c>
+      <c r="E13">
+        <v>0.22465039804911399</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>0.35779162784875296</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14">
+        <v>0.373779001662636</v>
+      </c>
+      <c r="D14">
+        <v>0.13720998337363999</v>
+      </c>
+      <c r="E14">
+        <v>0.23656665659008499</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>0.37377663996372501</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15">
+        <v>0.37268094378441202</v>
+      </c>
+      <c r="D15">
+        <v>0.13677310727646799</v>
+      </c>
+      <c r="E15">
+        <v>0.23590558554340499</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>0.37267869281987298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16">
+        <v>0.37098807517655702</v>
+      </c>
+      <c r="D16">
+        <v>0.12968727890193901</v>
+      </c>
+      <c r="E16">
+        <v>0.241309372199425</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>0.37099665110136404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17">
+        <v>0.37117244908856101</v>
+      </c>
+      <c r="D17">
+        <v>0.12783521356913</v>
+      </c>
+      <c r="E17">
+        <v>0.24333723551943101</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>0.37117244908856101</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18">
+        <v>0.36582092824579798</v>
+      </c>
+      <c r="D18">
+        <v>0.126851312835013</v>
+      </c>
+      <c r="E18">
+        <v>0.23897150546983101</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>0.36582281830484398</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19">
+        <v>0.356710575079068</v>
+      </c>
+      <c r="D19">
+        <v>0.12720066780125699</v>
+      </c>
+      <c r="E19">
+        <v>0.22951350534492901</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>0.35671417314618603</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20">
+        <v>0.34288859899267699</v>
+      </c>
+      <c r="D20">
+        <v>0.12699093951818799</v>
+      </c>
+      <c r="E20">
+        <v>0.21589596307272599</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>0.34288690259091398</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21">
+        <v>0.34602571046080499</v>
+      </c>
+      <c r="D21">
+        <v>0.133130945282907</v>
+      </c>
+      <c r="E21">
+        <v>0.21289315807320999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>0.346024103356117</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22">
+        <v>0.345364892411548</v>
+      </c>
+      <c r="D22">
+        <v>0.12990885045348399</v>
+      </c>
+      <c r="E22">
+        <v>0.21545905965534901</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>0.345367910108833</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23">
+        <v>0.35134383007817499</v>
+      </c>
+      <c r="D23">
+        <v>0.12969591836158101</v>
+      </c>
+      <c r="E23">
+        <v>0.22164649909168199</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>0.351342417453263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24">
+        <v>0.34590256258394803</v>
+      </c>
+      <c r="D24">
+        <v>0.12806574090721601</v>
+      </c>
+      <c r="E24">
+        <v>0.21783682167673199</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>0.34590256258394803</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25">
+        <v>0.33945942449408101</v>
+      </c>
+      <c r="D25">
+        <v>0.126636430131711</v>
+      </c>
+      <c r="E25">
+        <v>0.21282423832294201</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>0.339460668454653</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26">
+        <v>0.33830352760310101</v>
+      </c>
+      <c r="D26">
+        <v>0.12547348046343201</v>
+      </c>
+      <c r="E26">
+        <v>0.212831204793613</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>0.33830468525704505</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27">
+        <v>0.33742978362875198</v>
+      </c>
+      <c r="D27">
+        <v>0.12575187441779001</v>
+      </c>
+      <c r="E27">
+        <v>0.21167682854345499</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>0.337428702961245</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28">
+        <v>0.33451384417256902</v>
+      </c>
+      <c r="D28">
+        <v>0.12765314978422801</v>
+      </c>
+      <c r="E28">
+        <v>0.20685969452032299</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>0.33451284430455097</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29">
+        <v>0.33025060049066801</v>
+      </c>
+      <c r="D29">
+        <v>0.125813116661254</v>
+      </c>
+      <c r="E29">
+        <v>0.20443748382941501</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>0.33025060049066901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30">
+        <v>0.32995604609861401</v>
+      </c>
+      <c r="D30">
+        <v>0.12715266033425299</v>
+      </c>
+      <c r="E30">
+        <v>0.20280253805170201</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>0.329955198385955</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31">
+        <v>0.35162931765015498</v>
+      </c>
+      <c r="D31">
+        <v>0.13171761083616901</v>
+      </c>
+      <c r="E31">
+        <v>0.21991012137340399</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>0.351627732209573</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32">
+        <v>0.35752057553956801</v>
+      </c>
+      <c r="D32">
+        <v>0.14049611510791399</v>
+      </c>
+      <c r="E32">
+        <v>0.21702292565947201</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>0.357519040767386</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33">
+        <v>0.34822504121705</v>
+      </c>
+      <c r="D33">
+        <v>0.13626120649125401</v>
+      </c>
+      <c r="E33">
+        <v>0.21196594932435101</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>0.34822715581560504</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34">
+        <v>0.35105410144746801</v>
+      </c>
+      <c r="D34">
+        <v>0.13463363746540699</v>
+      </c>
+      <c r="E34">
+        <v>0.21642113098712101</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>0.35105476845252803</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35">
+        <v>0.34588674935744701</v>
+      </c>
+      <c r="D35">
+        <v>0.13343253452097301</v>
+      </c>
+      <c r="E35">
+        <v>0.21245226376416501</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>0.34588479828513802</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36">
+        <v>0.347643589009624</v>
+      </c>
+      <c r="D36">
+        <v>0.131092275211904</v>
+      </c>
+      <c r="E36">
+        <v>0.21655068880475101</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>0.34764296401665501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37">
+        <v>0.35031740028654101</v>
+      </c>
+      <c r="D37">
+        <v>0.13218031145018599</v>
+      </c>
+      <c r="E37">
+        <v>0.21813708883635499</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>0.35031740028654101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38">
+        <v>0.356054985106391</v>
+      </c>
+      <c r="D38">
+        <v>0.13622615604931501</v>
+      </c>
+      <c r="E38">
+        <v>0.219830035505786</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>0.35605619155510104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39">
+        <v>0.35146401126451499</v>
+      </c>
+      <c r="D39">
+        <v>0.13922762492444599</v>
+      </c>
+      <c r="E39">
+        <v>0.21223581719523099</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>0.35146344211967695</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40">
+        <v>0.35128239092999702</v>
+      </c>
+      <c r="D40">
+        <v>0.14156245181940799</v>
+      </c>
+      <c r="E40">
+        <v>0.20971776759093799</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>0.35128021941034598</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41">
+        <v>0.35037060286341998</v>
+      </c>
+      <c r="D41">
+        <v>0.142299273691332</v>
+      </c>
+      <c r="E41">
+        <v>0.20807081548040701</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>0.35037008917173901</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42">
+        <v>0.39912534970861802</v>
+      </c>
+      <c r="D42">
+        <v>0.150096453929361</v>
+      </c>
+      <c r="E42">
+        <v>0.24902940077365099</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>0.39912585470301198</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43">
+        <v>0.42110218470466898</v>
+      </c>
+      <c r="D43">
+        <v>0.15033933667474</v>
+      </c>
+      <c r="E43">
+        <v>0.27076188877431101</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>0.42110122544905104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44">
+        <v>0.37954043112125502</v>
+      </c>
+      <c r="D44">
+        <v>0.14790621029293</v>
+      </c>
+      <c r="E44">
+        <v>0.23163379214200799</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>0.37954000243493802</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45">
+        <v>0.35903576431439599</v>
+      </c>
+      <c r="D45">
+        <v>0.14552921716733799</v>
+      </c>
+      <c r="E45">
+        <v>0.21350732645335799</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>0.35903654362069598</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46">
+        <v>0.37337145704237501</v>
+      </c>
+      <c r="D46">
+        <v>0.14904305450508401</v>
+      </c>
+      <c r="E46">
+        <v>0.224327654426831</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>0.37337070893191504</v>
+      </c>
+      <c r="J46" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47">
+        <v>0.36987750244790102</v>
+      </c>
+      <c r="D47">
+        <v>0.14964798909232799</v>
+      </c>
+      <c r="E47">
+        <v>0.237493307245943</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:F85" si="1">D47+E47</f>
+        <v>0.38714129633827099</v>
+      </c>
+      <c r="J47" t="s">
+        <v>320</v>
+      </c>
+      <c r="K47" t="s">
+        <v>0</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>317</v>
+      </c>
+      <c r="N47" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2026</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48">
+        <v>0.37220766774599501</v>
+      </c>
+      <c r="D48">
+        <v>0.15082201536775999</v>
+      </c>
+      <c r="E48">
+        <v>0.23895831313513199</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="1"/>
+        <v>0.38978032850289202</v>
+      </c>
+      <c r="I48">
+        <v>2026</v>
+      </c>
+      <c r="J48" s="11">
+        <f>C48-C$47</f>
+        <v>2.3301652980939891E-3</v>
+      </c>
+      <c r="K48" s="11">
+        <f>D48-D$47</f>
+        <v>1.1740262754320052E-3</v>
+      </c>
+      <c r="L48" s="11">
+        <f>E48-E$47</f>
+        <v>1.4650058891889917E-3</v>
+      </c>
+      <c r="M48" s="11">
+        <f>F48-F$47</f>
+        <v>2.6390321646210246E-3</v>
+      </c>
+      <c r="N48" s="10">
+        <f>K48/M48</f>
+        <v>0.44487001377666041</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2027</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49">
+        <v>0.37428677801829902</v>
+      </c>
+      <c r="D49">
+        <v>0.151938842823927</v>
+      </c>
+      <c r="E49">
+        <v>0.240956196239941</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="1"/>
+        <v>0.39289503906386802</v>
+      </c>
+      <c r="I49">
+        <v>2027</v>
+      </c>
+      <c r="J49" s="11">
+        <f>C49-C$47</f>
+        <v>4.4092755703979969E-3</v>
+      </c>
+      <c r="K49" s="11">
+        <f>D49-D$47</f>
+        <v>2.290853731599013E-3</v>
+      </c>
+      <c r="L49" s="11">
+        <f>E49-E$47</f>
+        <v>3.4628889939979923E-3</v>
+      </c>
+      <c r="M49" s="11">
+        <f>F49-F$47</f>
+        <v>5.753742725597033E-3</v>
+      </c>
+      <c r="N49" s="10">
+        <f t="shared" ref="N49:N93" si="2">K49/M49</f>
+        <v>0.398150185166874</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50">
+        <v>0.37589390528389099</v>
+      </c>
+      <c r="D50">
+        <v>0.15276996646883401</v>
+      </c>
+      <c r="E50">
+        <v>0.24288727875371599</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="1"/>
+        <v>0.39565724522254997</v>
+      </c>
+      <c r="I50">
+        <v>2028</v>
+      </c>
+      <c r="J50" s="11">
+        <f>C50-C$47</f>
+        <v>6.0164028359899757E-3</v>
+      </c>
+      <c r="K50" s="11">
+        <f>D50-D$47</f>
+        <v>3.1219773765060188E-3</v>
+      </c>
+      <c r="L50" s="11">
+        <f>E50-E$47</f>
+        <v>5.3939715077729877E-3</v>
+      </c>
+      <c r="M50" s="11">
+        <f>F50-F$47</f>
+        <v>8.5159488842789788E-3</v>
+      </c>
+      <c r="N50" s="10">
+        <f t="shared" si="2"/>
+        <v>0.36660358333871657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2029</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51">
+        <v>0.37712298759094898</v>
+      </c>
+      <c r="D51">
+        <v>0.153393352808181</v>
+      </c>
+      <c r="E51">
+        <v>0.24454494502469001</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="1"/>
+        <v>0.39793829783287105</v>
+      </c>
+      <c r="I51">
+        <v>2029</v>
+      </c>
+      <c r="J51" s="11">
+        <f>C51-C$47</f>
+        <v>7.2454851430479583E-3</v>
+      </c>
+      <c r="K51" s="11">
+        <f>D51-D$47</f>
+        <v>3.7453637158530173E-3</v>
+      </c>
+      <c r="L51" s="11">
+        <f>E51-E$47</f>
+        <v>7.0516377787470108E-3</v>
+      </c>
+      <c r="M51" s="11">
+        <f>F51-F$47</f>
+        <v>1.0797001494600056E-2</v>
+      </c>
+      <c r="N51" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34688924677154115</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2030</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52">
+        <v>0.37803153985377203</v>
+      </c>
+      <c r="D52">
+        <v>0.15383130355638999</v>
+      </c>
+      <c r="E52">
+        <v>0.24583745037778501</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="1"/>
+        <v>0.399668753934175</v>
+      </c>
+      <c r="I52">
+        <v>2030</v>
+      </c>
+      <c r="J52" s="11">
+        <f>C52-C$47</f>
+        <v>8.1540374058710063E-3</v>
+      </c>
+      <c r="K52" s="11">
+        <f>D52-D$47</f>
+        <v>4.1833144640620046E-3</v>
+      </c>
+      <c r="L52" s="11">
+        <f>E52-E$47</f>
+        <v>8.3441431318420078E-3</v>
+      </c>
+      <c r="M52" s="11">
+        <f>F52-F$47</f>
+        <v>1.2527457595904012E-2</v>
+      </c>
+      <c r="N52" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33393164032179878</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2031</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53">
+        <v>0.37895824511592702</v>
+      </c>
+      <c r="D53">
+        <v>0.154174393715442</v>
+      </c>
+      <c r="E53">
+        <v>0.24709441673148799</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="1"/>
+        <v>0.40126881044692997</v>
+      </c>
+      <c r="I53">
+        <v>2031</v>
+      </c>
+      <c r="J53" s="11">
+        <f>C53-C$47</f>
+        <v>9.0807426680259984E-3</v>
+      </c>
+      <c r="K53" s="11">
+        <f>D53-D$47</f>
+        <v>4.5264046231140165E-3</v>
+      </c>
+      <c r="L53" s="11">
+        <f>E53-E$47</f>
+        <v>9.6011094855449897E-3</v>
+      </c>
+      <c r="M53" s="11">
+        <f>F53-F$47</f>
+        <v>1.4127514108658978E-2</v>
+      </c>
+      <c r="N53" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32039639729255065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2032</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54">
+        <v>0.37979575514257002</v>
+      </c>
+      <c r="D54">
+        <v>0.154549821900822</v>
+      </c>
+      <c r="E54">
+        <v>0.248197993763667</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="1"/>
+        <v>0.40274781566448903</v>
+      </c>
+      <c r="I54">
+        <v>2032</v>
+      </c>
+      <c r="J54" s="11">
+        <f>C54-C$47</f>
+        <v>9.9182526946690053E-3</v>
+      </c>
+      <c r="K54" s="11">
+        <f>D54-D$47</f>
+        <v>4.9018328084940166E-3</v>
+      </c>
+      <c r="L54" s="11">
+        <f>E54-E$47</f>
+        <v>1.0704686517723994E-2</v>
+      </c>
+      <c r="M54" s="11">
+        <f>F54-F$47</f>
+        <v>1.5606519326218038E-2</v>
+      </c>
+      <c r="N54" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31408879238429704</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2033</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55">
+        <v>0.38063194594532901</v>
+      </c>
+      <c r="D55">
+        <v>0.15498428172242801</v>
+      </c>
+      <c r="E55">
+        <v>0.24930200300712499</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="1"/>
+        <v>0.40428628472955297</v>
+      </c>
+      <c r="I55">
+        <v>2033</v>
+      </c>
+      <c r="J55" s="11">
+        <f>C55-C$47</f>
+        <v>1.075444349742799E-2</v>
+      </c>
+      <c r="K55" s="11">
+        <f>D55-D$47</f>
+        <v>5.3362926301000202E-3</v>
+      </c>
+      <c r="L55" s="11">
+        <f>E55-E$47</f>
+        <v>1.1808695761181986E-2</v>
+      </c>
+      <c r="M55" s="11">
+        <f>F55-F$47</f>
+        <v>1.7144988391281979E-2</v>
+      </c>
+      <c r="N55" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31124504189302693</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2034</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56">
+        <v>0.38154109070985198</v>
+      </c>
+      <c r="D56">
+        <v>0.155523973447034</v>
+      </c>
+      <c r="E56">
+        <v>0.25046556826593702</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="1"/>
+        <v>0.40598954171297102</v>
+      </c>
+      <c r="I56">
+        <v>2034</v>
+      </c>
+      <c r="J56" s="11">
+        <f>C56-C$47</f>
+        <v>1.1663588261950963E-2</v>
+      </c>
+      <c r="K56" s="11">
+        <f>D56-D$47</f>
+        <v>5.8759843547060153E-3</v>
+      </c>
+      <c r="L56" s="11">
+        <f>E56-E$47</f>
+        <v>1.2972261019994019E-2</v>
+      </c>
+      <c r="M56" s="11">
+        <f>F56-F$47</f>
+        <v>1.8848245374700034E-2</v>
+      </c>
+      <c r="N56" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31175232696160349</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2035</v>
+      </c>
+      <c r="B57" t="s">
+        <v>315</v>
+      </c>
+      <c r="C57">
+        <v>0.38230505070168502</v>
+      </c>
+      <c r="D57">
+        <v>0.15608557090095301</v>
+      </c>
+      <c r="E57">
+        <v>0.251311950831483</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="1"/>
+        <v>0.40739752173243604</v>
+      </c>
+      <c r="I57">
+        <v>2035</v>
+      </c>
+      <c r="J57" s="11">
+        <f>C57-C$47</f>
+        <v>1.2427548253784004E-2</v>
+      </c>
+      <c r="K57" s="11">
+        <f>D57-D$47</f>
+        <v>6.4375818086250258E-3</v>
+      </c>
+      <c r="L57" s="11">
+        <f>E57-E$47</f>
+        <v>1.3818643585539997E-2</v>
+      </c>
+      <c r="M57" s="11">
+        <f>F57-F$47</f>
+        <v>2.0256225394165051E-2</v>
+      </c>
+      <c r="N57" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31780757191215975</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2036</v>
+      </c>
+      <c r="B58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58">
+        <v>0.38349201074407901</v>
+      </c>
+      <c r="D58">
+        <v>0.156921840832835</v>
+      </c>
+      <c r="E58">
+        <v>0.252475248997935</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="1"/>
+        <v>0.40939708983077</v>
+      </c>
+      <c r="I58">
+        <v>2036</v>
+      </c>
+      <c r="J58" s="11">
+        <f>C58-C$47</f>
+        <v>1.3614508296177996E-2</v>
+      </c>
+      <c r="K58" s="11">
+        <f>D58-D$47</f>
+        <v>7.2738517405070147E-3</v>
+      </c>
+      <c r="L58" s="11">
+        <f>E58-E$47</f>
+        <v>1.4981941751991995E-2</v>
+      </c>
+      <c r="M58" s="11">
+        <f>F58-F$47</f>
+        <v>2.225579349249901E-2</v>
+      </c>
+      <c r="N58" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32682958452856603</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59">
+        <v>0.385130533978157</v>
+      </c>
+      <c r="D59">
+        <v>0.157818229741338</v>
+      </c>
+      <c r="E59">
+        <v>0.25349794194638797</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="1"/>
+        <v>0.41131617168772594</v>
+      </c>
+      <c r="I59">
+        <v>2037</v>
+      </c>
+      <c r="J59" s="11">
+        <f>C59-C$47</f>
+        <v>1.5253031530255978E-2</v>
+      </c>
+      <c r="K59" s="11">
+        <f>D59-D$47</f>
+        <v>8.1702406490100077E-3</v>
+      </c>
+      <c r="L59" s="11">
+        <f>E59-E$47</f>
+        <v>1.600463470044497E-2</v>
+      </c>
+      <c r="M59" s="11">
+        <f>F59-F$47</f>
+        <v>2.417487534945495E-2</v>
+      </c>
+      <c r="N59" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33796412725636721</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2038</v>
+      </c>
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60">
+        <v>0.38687794265641201</v>
+      </c>
+      <c r="D60">
+        <v>0.158778695467957</v>
+      </c>
+      <c r="E60">
+        <v>0.25373482156753802</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="1"/>
+        <v>0.41251351703549499</v>
+      </c>
+      <c r="I60">
+        <v>2038</v>
+      </c>
+      <c r="J60" s="11">
+        <f>C60-C$47</f>
+        <v>1.7000440208510992E-2</v>
+      </c>
+      <c r="K60" s="11">
+        <f>D60-D$47</f>
+        <v>9.1307063756290163E-3</v>
+      </c>
+      <c r="L60" s="11">
+        <f>E60-E$47</f>
+        <v>1.6241514321595013E-2</v>
+      </c>
+      <c r="M60" s="11">
+        <f>F60-F$47</f>
+        <v>2.5372220697224002E-2</v>
+      </c>
+      <c r="N60" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3598702094148194</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61">
+        <v>0.38833190191146999</v>
+      </c>
+      <c r="D61">
+        <v>0.15962381211427301</v>
+      </c>
+      <c r="E61">
+        <v>0.25379258774436803</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="1"/>
+        <v>0.41341639985864104</v>
+      </c>
+      <c r="I61">
+        <v>2039</v>
+      </c>
+      <c r="J61" s="11">
+        <f>C61-C$47</f>
+        <v>1.8454399463568971E-2</v>
+      </c>
+      <c r="K61" s="11">
+        <f>D61-D$47</f>
+        <v>9.9758230219450239E-3</v>
+      </c>
+      <c r="L61" s="11">
+        <f>E61-E$47</f>
+        <v>1.6299280498425023E-2</v>
+      </c>
+      <c r="M61" s="11">
+        <f>F61-F$47</f>
+        <v>2.6275103520370047E-2</v>
+      </c>
+      <c r="N61" s="10">
+        <f t="shared" si="2"/>
+        <v>0.37966826711876372</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2040</v>
+      </c>
+      <c r="B62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62">
+        <v>0.38967648259673199</v>
+      </c>
+      <c r="D62">
+        <v>0.16039211924338101</v>
+      </c>
+      <c r="E62">
+        <v>0.25346996475190497</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="1"/>
+        <v>0.41386208399528601</v>
+      </c>
+      <c r="I62">
+        <v>2040</v>
+      </c>
+      <c r="J62" s="11">
+        <f>C62-C$47</f>
+        <v>1.9798980148830969E-2</v>
+      </c>
+      <c r="K62" s="11">
+        <f>D62-D$47</f>
+        <v>1.0744130151053022E-2</v>
+      </c>
+      <c r="L62" s="11">
+        <f>E62-E$47</f>
+        <v>1.5976657505961972E-2</v>
+      </c>
+      <c r="M62" s="11">
+        <f>F62-F$47</f>
+        <v>2.6720787657015022E-2</v>
+      </c>
+      <c r="N62" s="10">
+        <f t="shared" si="2"/>
+        <v>0.40208882645839072</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63">
+        <v>0.390853722961716</v>
+      </c>
+      <c r="D63">
+        <v>0.16107743246759301</v>
+      </c>
+      <c r="E63">
+        <v>0.25284082890346099</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="1"/>
+        <v>0.41391826137105403</v>
+      </c>
+      <c r="I63">
+        <v>2041</v>
+      </c>
+      <c r="J63" s="11">
+        <f>C63-C$47</f>
+        <v>2.097622051381498E-2</v>
+      </c>
+      <c r="K63" s="11">
+        <f>D63-D$47</f>
+        <v>1.1429443375265025E-2</v>
+      </c>
+      <c r="L63" s="11">
+        <f>E63-E$47</f>
+        <v>1.5347521657517987E-2</v>
+      </c>
+      <c r="M63" s="11">
+        <f>F63-F$47</f>
+        <v>2.677696503278304E-2</v>
+      </c>
+      <c r="N63" s="10">
+        <f t="shared" si="2"/>
+        <v>0.42683864139464484</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64">
+        <v>0.39174276167073302</v>
+      </c>
+      <c r="D64">
+        <v>0.16164495003084001</v>
+      </c>
+      <c r="E64">
+        <v>0.252011882360545</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="1"/>
+        <v>0.41365683239138501</v>
+      </c>
+      <c r="I64">
+        <v>2042</v>
+      </c>
+      <c r="J64" s="11">
+        <f>C64-C$47</f>
+        <v>2.1865259222832001E-2</v>
+      </c>
+      <c r="K64" s="11">
+        <f>D64-D$47</f>
+        <v>1.1996960938512019E-2</v>
+      </c>
+      <c r="L64" s="11">
+        <f>E64-E$47</f>
+        <v>1.4518575114602E-2</v>
+      </c>
+      <c r="M64" s="11">
+        <f>F64-F$47</f>
+        <v>2.6515536053114019E-2</v>
+      </c>
+      <c r="N64" s="10">
+        <f t="shared" si="2"/>
+        <v>0.45245025084465829</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2043</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65">
+        <v>0.39257714139146599</v>
+      </c>
+      <c r="D65">
+        <v>0.16219571729283799</v>
+      </c>
+      <c r="E65">
+        <v>0.25112446478860001</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="1"/>
+        <v>0.413320182081438</v>
+      </c>
+      <c r="I65">
+        <v>2043</v>
+      </c>
+      <c r="J65" s="11">
+        <f>C65-C$47</f>
+        <v>2.269963894356497E-2</v>
+      </c>
+      <c r="K65" s="11">
+        <f>D65-D$47</f>
+        <v>1.2547728200510005E-2</v>
+      </c>
+      <c r="L65" s="11">
+        <f>E65-E$47</f>
+        <v>1.3631157542657008E-2</v>
+      </c>
+      <c r="M65" s="11">
+        <f>F65-F$47</f>
+        <v>2.6178885743167013E-2</v>
+      </c>
+      <c r="N65" s="10">
+        <f t="shared" si="2"/>
+        <v>0.47930719143709566</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66">
+        <v>0.39347974049366502</v>
+      </c>
+      <c r="D66">
+        <v>0.16281352055818399</v>
+      </c>
+      <c r="E66">
+        <v>0.25036573152069902</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="1"/>
+        <v>0.41317925207888301</v>
+      </c>
+      <c r="I66">
+        <v>2044</v>
+      </c>
+      <c r="J66" s="11">
+        <f>C66-C$47</f>
+        <v>2.3602238045764001E-2</v>
+      </c>
+      <c r="K66" s="11">
+        <f>D66-D$47</f>
+        <v>1.3165531465856001E-2</v>
+      </c>
+      <c r="L66" s="11">
+        <f>E66-E$47</f>
+        <v>1.2872424274756017E-2</v>
+      </c>
+      <c r="M66" s="11">
+        <f>F66-F$47</f>
+        <v>2.6037955740612018E-2</v>
+      </c>
+      <c r="N66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.50562846012221341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2045</v>
+      </c>
+      <c r="B67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67">
+        <v>0.39446606948851498</v>
+      </c>
+      <c r="D67">
+        <v>0.163501791515443</v>
+      </c>
+      <c r="E67">
+        <v>0.24965733833873999</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="1"/>
+        <v>0.41315912985418302</v>
+      </c>
+      <c r="I67">
+        <v>2045</v>
+      </c>
+      <c r="J67" s="11">
+        <f>C67-C$47</f>
+        <v>2.4588567040613962E-2</v>
+      </c>
+      <c r="K67" s="11">
+        <f>D67-D$47</f>
+        <v>1.3853802423115014E-2</v>
+      </c>
+      <c r="L67" s="11">
+        <f>E67-E$47</f>
+        <v>1.2164031092796984E-2</v>
+      </c>
+      <c r="M67" s="11">
+        <f>F67-F$47</f>
+        <v>2.6017833515912026E-2</v>
+      </c>
+      <c r="N67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.53247332890504828</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2046</v>
+      </c>
+      <c r="B68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68">
+        <v>0.395453848939052</v>
+      </c>
+      <c r="D68">
+        <v>0.164266057108164</v>
+      </c>
+      <c r="E68">
+        <v>0.249361872785237</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>0.41362792989340103</v>
+      </c>
+      <c r="I68">
+        <v>2046</v>
+      </c>
+      <c r="J68" s="11">
+        <f>C68-C$47</f>
+        <v>2.5576346491150981E-2</v>
+      </c>
+      <c r="K68" s="11">
+        <f>D68-D$47</f>
+        <v>1.4618068015836011E-2</v>
+      </c>
+      <c r="L68" s="11">
+        <f>E68-E$47</f>
+        <v>1.1868565539293996E-2</v>
+      </c>
+      <c r="M68" s="11">
+        <f>F68-F$47</f>
+        <v>2.6486633555130035E-2</v>
+      </c>
+      <c r="N68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.55190358508224713</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2047</v>
+      </c>
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69">
+        <v>0.39619469812445202</v>
+      </c>
+      <c r="D69">
+        <v>0.16495701335808799</v>
+      </c>
+      <c r="E69">
+        <v>0.24932320480319201</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>0.41428021816128002</v>
+      </c>
+      <c r="I69">
+        <v>2047</v>
+      </c>
+      <c r="J69" s="11">
+        <f>C69-C$47</f>
+        <v>2.6317195676550997E-2</v>
+      </c>
+      <c r="K69" s="11">
+        <f>D69-D$47</f>
+        <v>1.5309024265760002E-2</v>
+      </c>
+      <c r="L69" s="11">
+        <f>E69-E$47</f>
+        <v>1.1829897557249003E-2</v>
+      </c>
+      <c r="M69" s="11">
+        <f>F69-F$47</f>
+        <v>2.7138921823009032E-2</v>
+      </c>
+      <c r="N69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.56409846955602494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2048</v>
+      </c>
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70">
+        <v>0.39686736468058398</v>
+      </c>
+      <c r="D70">
+        <v>0.16566627037973999</v>
+      </c>
+      <c r="E70">
+        <v>0.249563106982193</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>0.41522937736193299</v>
+      </c>
+      <c r="I70">
+        <v>2048</v>
+      </c>
+      <c r="J70" s="11">
+        <f>C70-C$47</f>
+        <v>2.698986223268296E-2</v>
+      </c>
+      <c r="K70" s="11">
+        <f>D70-D$47</f>
+        <v>1.6018281287412006E-2</v>
+      </c>
+      <c r="L70" s="11">
+        <f>E70-E$47</f>
+        <v>1.2069799736249998E-2</v>
+      </c>
+      <c r="M70" s="11">
+        <f>F70-F$47</f>
+        <v>2.8088081023662004E-2</v>
+      </c>
+      <c r="N70" s="10">
+        <f t="shared" si="2"/>
+        <v>0.57028749218993857</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2049</v>
+      </c>
+      <c r="B71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71">
+        <v>0.39756647786886201</v>
+      </c>
+      <c r="D71">
+        <v>0.166362722006487</v>
+      </c>
+      <c r="E71">
+        <v>0.24986042314267201</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>0.41622314514915904</v>
+      </c>
+      <c r="I71">
+        <v>2049</v>
+      </c>
+      <c r="J71" s="11">
+        <f>C71-C$47</f>
+        <v>2.7688975420960993E-2</v>
+      </c>
+      <c r="K71" s="11">
+        <f>D71-D$47</f>
+        <v>1.6714732914159008E-2</v>
+      </c>
+      <c r="L71" s="11">
+        <f>E71-E$47</f>
+        <v>1.2367115896729008E-2</v>
+      </c>
+      <c r="M71" s="11">
+        <f>F71-F$47</f>
+        <v>2.9081848810888045E-2</v>
+      </c>
+      <c r="N71" s="10">
+        <f t="shared" si="2"/>
+        <v>0.57474794752048664</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2050</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72">
+        <v>0.39831469830937499</v>
+      </c>
+      <c r="D72">
+        <v>0.16706882720018301</v>
+      </c>
+      <c r="E72">
+        <v>0.25027047048484202</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>0.41733929768502503</v>
+      </c>
+      <c r="I72">
+        <v>2050</v>
+      </c>
+      <c r="J72" s="11">
+        <f>C72-C$47</f>
+        <v>2.8437195861473974E-2</v>
+      </c>
+      <c r="K72" s="11">
+        <f>D72-D$47</f>
+        <v>1.7420838107855025E-2</v>
+      </c>
+      <c r="L72" s="11">
+        <f>E72-E$47</f>
+        <v>1.277716323889902E-2</v>
+      </c>
+      <c r="M72" s="11">
+        <f>F72-F$47</f>
+        <v>3.0198001346754044E-2</v>
+      </c>
+      <c r="N72" s="10">
+        <f t="shared" si="2"/>
+        <v>0.57688712268792497</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2051</v>
+      </c>
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73">
+        <v>0.39876314149323899</v>
+      </c>
+      <c r="D73">
+        <v>0.16762581877187499</v>
+      </c>
+      <c r="E73">
+        <v>0.25081310322315198</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>0.41843892199502697</v>
+      </c>
+      <c r="I73">
+        <v>2051</v>
+      </c>
+      <c r="J73" s="11">
+        <f>C73-C$47</f>
+        <v>2.8885639045337974E-2</v>
+      </c>
+      <c r="K73" s="11">
+        <f>D73-D$47</f>
+        <v>1.7977829679547003E-2</v>
+      </c>
+      <c r="L73" s="11">
+        <f>E73-E$47</f>
+        <v>1.3319795977208976E-2</v>
+      </c>
+      <c r="M73" s="11">
+        <f>F73-F$47</f>
+        <v>3.1297625656755979E-2</v>
+      </c>
+      <c r="N73" s="10">
+        <f t="shared" si="2"/>
+        <v>0.57441512901686409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2052</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74">
+        <v>0.39912485273926002</v>
+      </c>
+      <c r="D74">
+        <v>0.16808867683332401</v>
+      </c>
+      <c r="E74">
+        <v>0.251496674484469</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>0.41958535131779301</v>
+      </c>
+      <c r="I74">
+        <v>2052</v>
+      </c>
+      <c r="J74" s="11">
+        <f>C74-C$47</f>
+        <v>2.9247350291358998E-2</v>
+      </c>
+      <c r="K74" s="11">
+        <f>D74-D$47</f>
+        <v>1.8440687740996026E-2</v>
+      </c>
+      <c r="L74" s="11">
+        <f>E74-E$47</f>
+        <v>1.4003367238525993E-2</v>
+      </c>
+      <c r="M74" s="11">
+        <f>F74-F$47</f>
+        <v>3.2444054979522019E-2</v>
+      </c>
+      <c r="N74" s="10">
+        <f t="shared" si="2"/>
+        <v>0.56838418479550068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2053</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75">
+        <v>0.399388430860109</v>
+      </c>
+      <c r="D75">
+        <v>0.168473735053182</v>
+      </c>
+      <c r="E75">
+        <v>0.25234692170598499</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>0.42082065675916702</v>
+      </c>
+      <c r="I75">
+        <v>2053</v>
+      </c>
+      <c r="J75" s="11">
+        <f>C75-C$47</f>
+        <v>2.9510928412207982E-2</v>
+      </c>
+      <c r="K75" s="11">
+        <f>D75-D$47</f>
+        <v>1.8825745960854012E-2</v>
+      </c>
+      <c r="L75" s="11">
+        <f>E75-E$47</f>
+        <v>1.4853614460041992E-2</v>
+      </c>
+      <c r="M75" s="11">
+        <f>F75-F$47</f>
+        <v>3.3679360420896032E-2</v>
+      </c>
+      <c r="N75" s="10">
+        <f t="shared" si="2"/>
+        <v>0.55896981788210442</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2054</v>
+      </c>
+      <c r="B76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76">
+        <v>0.39972709737531797</v>
+      </c>
+      <c r="D76">
+        <v>0.16888330923888401</v>
+      </c>
+      <c r="E76">
+        <v>0.25328499407462801</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>0.42216830331351202</v>
+      </c>
+      <c r="I76">
+        <v>2054</v>
+      </c>
+      <c r="J76" s="11">
+        <f>C76-C$47</f>
+        <v>2.9849594927416956E-2</v>
+      </c>
+      <c r="K76" s="11">
+        <f>D76-D$47</f>
+        <v>1.9235320146556018E-2</v>
+      </c>
+      <c r="L76" s="11">
+        <f>E76-E$47</f>
+        <v>1.5791686828685009E-2</v>
+      </c>
+      <c r="M76" s="11">
+        <f>F76-F$47</f>
+        <v>3.5027006975241026E-2</v>
+      </c>
+      <c r="N76" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54915683090343903</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2055</v>
+      </c>
+      <c r="B77" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77">
+        <v>0.40040591302891998</v>
+      </c>
+      <c r="D77">
+        <v>0.16944576664299599</v>
+      </c>
+      <c r="E77">
+        <v>0.25432228120988998</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>0.42376804785288597</v>
+      </c>
+      <c r="I77">
+        <v>2055</v>
+      </c>
+      <c r="J77" s="11">
+        <f>C77-C$47</f>
+        <v>3.0528410581018961E-2</v>
+      </c>
+      <c r="K77" s="11">
+        <f>D77-D$47</f>
+        <v>1.9797777550668E-2</v>
+      </c>
+      <c r="L77" s="11">
+        <f>E77-E$47</f>
+        <v>1.6828973963946975E-2</v>
+      </c>
+      <c r="M77" s="11">
+        <f>F77-F$47</f>
+        <v>3.6626751514614975E-2</v>
+      </c>
+      <c r="N77" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54052780364013986</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2056</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78">
+        <v>0.40100142094316299</v>
+      </c>
+      <c r="D78">
+        <v>0.16995214777067599</v>
+      </c>
+      <c r="E78">
+        <v>0.25536138274629</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>0.42531353051696597</v>
+      </c>
+      <c r="I78">
+        <v>2056</v>
+      </c>
+      <c r="J78" s="11">
+        <f>C78-C$47</f>
+        <v>3.1123918495261971E-2</v>
+      </c>
+      <c r="K78" s="11">
+        <f>D78-D$47</f>
+        <v>2.0304158678348005E-2</v>
+      </c>
+      <c r="L78" s="11">
+        <f>E78-E$47</f>
+        <v>1.7868075500346997E-2</v>
+      </c>
+      <c r="M78" s="11">
+        <f>F78-F$47</f>
+        <v>3.8172234178694975E-2</v>
+      </c>
+      <c r="N78" s="10">
+        <f t="shared" si="2"/>
+        <v>0.53190909872601433</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2057</v>
+      </c>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79">
+        <v>0.40127560716344102</v>
+      </c>
+      <c r="D79">
+        <v>0.17026760369117899</v>
+      </c>
+      <c r="E79">
+        <v>0.256308251049852</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>0.42657585474103099</v>
+      </c>
+      <c r="I79">
+        <v>2057</v>
+      </c>
+      <c r="J79" s="11">
+        <f>C79-C$47</f>
+        <v>3.1398104715539998E-2</v>
+      </c>
+      <c r="K79" s="11">
+        <f>D79-D$47</f>
+        <v>2.0619614598851005E-2</v>
+      </c>
+      <c r="L79" s="11">
+        <f>E79-E$47</f>
+        <v>1.8814943803908996E-2</v>
+      </c>
+      <c r="M79" s="11">
+        <f>F79-F$47</f>
+        <v>3.943455840276E-2</v>
+      </c>
+      <c r="N79" s="10">
+        <f t="shared" si="2"/>
+        <v>0.52288184359147916</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2058</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80">
+        <v>0.40179174954010899</v>
+      </c>
+      <c r="D80">
+        <v>0.17065870607035899</v>
+      </c>
+      <c r="E80">
+        <v>0.25728118015602403</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>0.42793988622638301</v>
+      </c>
+      <c r="I80">
+        <v>2058</v>
+      </c>
+      <c r="J80" s="11">
+        <f>C80-C$47</f>
+        <v>3.191424709220797E-2</v>
+      </c>
+      <c r="K80" s="11">
+        <f>D80-D$47</f>
+        <v>2.1010716978031002E-2</v>
+      </c>
+      <c r="L80" s="11">
+        <f>E80-E$47</f>
+        <v>1.9787872910081022E-2</v>
+      </c>
+      <c r="M80" s="11">
+        <f>F80-F$47</f>
+        <v>4.0798589888112025E-2</v>
+      </c>
+      <c r="N80" s="10">
+        <f t="shared" si="2"/>
+        <v>0.51498635211784971</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2059</v>
+      </c>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81">
+        <v>0.40256825412089903</v>
+      </c>
+      <c r="D81">
+        <v>0.17115866414160699</v>
+      </c>
+      <c r="E81">
+        <v>0.25813912860500399</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>0.42929779274661095</v>
+      </c>
+      <c r="I81">
+        <v>2059</v>
+      </c>
+      <c r="J81" s="11">
+        <f>C81-C$47</f>
+        <v>3.2690751672998009E-2</v>
+      </c>
+      <c r="K81" s="11">
+        <f>D81-D$47</f>
+        <v>2.1510675049279004E-2</v>
+      </c>
+      <c r="L81" s="11">
+        <f>E81-E$47</f>
+        <v>2.0645821359060984E-2</v>
+      </c>
+      <c r="M81" s="11">
+        <f>F81-F$47</f>
+        <v>4.2156496408339961E-2</v>
+      </c>
+      <c r="N81" s="10">
+        <f t="shared" si="2"/>
+        <v>0.51025765616099628</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2060</v>
+      </c>
+      <c r="B82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82">
+        <v>0.403555656766931</v>
+      </c>
+      <c r="D82">
+        <v>0.17175271803480099</v>
+      </c>
+      <c r="E82">
+        <v>0.25892778822703899</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>0.43068050626183996</v>
+      </c>
+      <c r="I82">
+        <v>2060</v>
+      </c>
+      <c r="J82" s="11">
+        <f>C82-C$47</f>
+        <v>3.3678154319029985E-2</v>
+      </c>
+      <c r="K82" s="11">
+        <f>D82-D$47</f>
+        <v>2.2104728942473006E-2</v>
+      </c>
+      <c r="L82" s="11">
+        <f>E82-E$47</f>
+        <v>2.1434480981095988E-2</v>
+      </c>
+      <c r="M82" s="11">
+        <f>F82-F$47</f>
+        <v>4.3539209923568967E-2</v>
+      </c>
+      <c r="N82" s="10">
+        <f t="shared" si="2"/>
+        <v>0.5076970615975076</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2061</v>
+      </c>
+      <c r="B83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83">
+        <v>0.40479729516313701</v>
+      </c>
+      <c r="D83">
+        <v>0.17241007107801801</v>
+      </c>
+      <c r="E83">
+        <v>0.25942435926855101</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>0.43183443034656899</v>
+      </c>
+      <c r="I83">
+        <v>2061</v>
+      </c>
+      <c r="J83" s="11">
+        <f>C83-C$47</f>
+        <v>3.4919792715235987E-2</v>
+      </c>
+      <c r="K83" s="11">
+        <f>D83-D$47</f>
+        <v>2.2762081985690019E-2</v>
+      </c>
+      <c r="L83" s="11">
+        <f>E83-E$47</f>
+        <v>2.1931052022608005E-2</v>
+      </c>
+      <c r="M83" s="11">
+        <f>F83-F$47</f>
+        <v>4.4693134008297997E-2</v>
+      </c>
+      <c r="N83" s="10">
+        <f t="shared" si="2"/>
+        <v>0.50929706521507023</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2062</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84">
+        <v>0.40631138952151702</v>
+      </c>
+      <c r="D84">
+        <v>0.17314819317645</v>
+      </c>
+      <c r="E84">
+        <v>0.25964049338314898</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>0.43278868655959901</v>
+      </c>
+      <c r="I84">
+        <v>2062</v>
+      </c>
+      <c r="J84" s="11">
+        <f>C84-C$47</f>
+        <v>3.6433887073616E-2</v>
+      </c>
+      <c r="K84" s="11">
+        <f>D84-D$47</f>
+        <v>2.3500204084122012E-2</v>
+      </c>
+      <c r="L84" s="11">
+        <f>E84-E$47</f>
+        <v>2.2147186137205982E-2</v>
+      </c>
+      <c r="M84" s="11">
+        <f>F84-F$47</f>
+        <v>4.5647390221328021E-2</v>
+      </c>
+      <c r="N84" s="10">
+        <f t="shared" si="2"/>
+        <v>0.51482032094667074</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2063</v>
+      </c>
+      <c r="B85" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85">
+        <v>0.407864818162122</v>
+      </c>
+      <c r="D85">
+        <v>0.173870613847283</v>
+      </c>
+      <c r="E85">
+        <v>0.25968132570463898</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>0.43355193955192195</v>
+      </c>
+      <c r="I85">
+        <v>2063</v>
+      </c>
+      <c r="J85" s="11">
+        <f>C85-C$47</f>
+        <v>3.7987315714220982E-2</v>
+      </c>
+      <c r="K85" s="11">
+        <f>D85-D$47</f>
+        <v>2.4222624754955013E-2</v>
+      </c>
+      <c r="L85" s="11">
+        <f>E85-E$47</f>
+        <v>2.2188018458695974E-2</v>
+      </c>
+      <c r="M85" s="11">
+        <f>F85-F$47</f>
+        <v>4.6410643213650959E-2</v>
+      </c>
+      <c r="N85" s="10">
+        <f t="shared" si="2"/>
+        <v>0.5219196089019148</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2064</v>
+      </c>
+      <c r="B86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86">
+        <v>0.40933397700266599</v>
+      </c>
+      <c r="D86">
+        <v>0.17457401687697799</v>
+      </c>
+      <c r="E86">
+        <v>0.259770577961767</v>
+      </c>
+      <c r="F86">
+        <f t="shared" ref="F86:F93" si="3">D86+E86</f>
+        <v>0.43434459483874499</v>
+      </c>
+      <c r="I86">
+        <v>2064</v>
+      </c>
+      <c r="J86" s="11">
+        <f>C86-C$47</f>
+        <v>3.9456474554764975E-2</v>
+      </c>
+      <c r="K86" s="11">
+        <f>D86-D$47</f>
+        <v>2.4926027784650001E-2</v>
+      </c>
+      <c r="L86" s="11">
+        <f>E86-E$47</f>
+        <v>2.2277270715823999E-2</v>
+      </c>
+      <c r="M86" s="11">
+        <f>F86-F$47</f>
+        <v>4.7203298500474E-2</v>
+      </c>
+      <c r="N86" s="10">
+        <f t="shared" si="2"/>
+        <v>0.52805690654011606</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2065</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87">
+        <v>0.41078155438422798</v>
+      </c>
+      <c r="D87">
+        <v>0.175330222632093</v>
+      </c>
+      <c r="E87">
+        <v>0.26003376669755102</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="3"/>
+        <v>0.43536398932964404</v>
+      </c>
+      <c r="I87">
+        <v>2065</v>
+      </c>
+      <c r="J87" s="11">
+        <f>C87-C$47</f>
+        <v>4.0904051936326957E-2</v>
+      </c>
+      <c r="K87" s="11">
+        <f>D87-D$47</f>
+        <v>2.5682233539765009E-2</v>
+      </c>
+      <c r="L87" s="11">
+        <f>E87-E$47</f>
+        <v>2.2540459451608014E-2</v>
+      </c>
+      <c r="M87" s="11">
+        <f>F87-F$47</f>
+        <v>4.8222692991373051E-2</v>
+      </c>
+      <c r="N87" s="10">
+        <f t="shared" si="2"/>
+        <v>0.53257568059003901</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2066</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88">
+        <v>0.41207429479058999</v>
+      </c>
+      <c r="D88">
+        <v>0.176015599950721</v>
+      </c>
+      <c r="E88">
+        <v>0.26028155076877102</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="3"/>
+        <v>0.43629715071949204</v>
+      </c>
+      <c r="I88">
+        <v>2066</v>
+      </c>
+      <c r="J88" s="11">
+        <f>C88-C$47</f>
+        <v>4.2196792342688971E-2</v>
+      </c>
+      <c r="K88" s="11">
+        <f>D88-D$47</f>
+        <v>2.6367610858393009E-2</v>
+      </c>
+      <c r="L88" s="11">
+        <f>E88-E$47</f>
+        <v>2.2788243522828017E-2</v>
+      </c>
+      <c r="M88" s="11">
+        <f>F88-F$47</f>
+        <v>4.9155854381221054E-2</v>
+      </c>
+      <c r="N88" s="10">
+        <f t="shared" si="2"/>
+        <v>0.53640835237859674</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2067</v>
+      </c>
+      <c r="B89" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89">
+        <v>0.41337534090082201</v>
+      </c>
+      <c r="D89">
+        <v>0.17666323300630199</v>
+      </c>
+      <c r="E89">
+        <v>0.26028983040498599</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="3"/>
+        <v>0.43695306341128798</v>
+      </c>
+      <c r="I89">
+        <v>2067</v>
+      </c>
+      <c r="J89" s="11">
+        <f>C89-C$47</f>
+        <v>4.3497838452920989E-2</v>
+      </c>
+      <c r="K89" s="11">
+        <f>D89-D$47</f>
+        <v>2.7015243913974002E-2</v>
+      </c>
+      <c r="L89" s="11">
+        <f>E89-E$47</f>
+        <v>2.2796523159042986E-2</v>
+      </c>
+      <c r="M89" s="11">
+        <f>F89-F$47</f>
+        <v>4.9811767073016988E-2</v>
+      </c>
+      <c r="N89" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54234662814458046</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2068</v>
+      </c>
+      <c r="B90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90">
+        <v>0.414616050489091</v>
+      </c>
+      <c r="D90">
+        <v>0.17731359490652701</v>
+      </c>
+      <c r="E90">
+        <v>0.260349391332938</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="3"/>
+        <v>0.43766298623946498</v>
+      </c>
+      <c r="I90">
+        <v>2068</v>
+      </c>
+      <c r="J90" s="11">
+        <f>C90-C$47</f>
+        <v>4.4738548041189985E-2</v>
+      </c>
+      <c r="K90" s="11">
+        <f>D90-D$47</f>
+        <v>2.7665605814199024E-2</v>
+      </c>
+      <c r="L90" s="11">
+        <f>E90-E$47</f>
+        <v>2.2856084086994993E-2</v>
+      </c>
+      <c r="M90" s="11">
+        <f>F90-F$47</f>
+        <v>5.0521689901193989E-2</v>
+      </c>
+      <c r="N90" s="10">
+        <f t="shared" si="2"/>
+        <v>0.54759858326799948</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2069</v>
+      </c>
+      <c r="B91" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91">
+        <v>0.41570589813817199</v>
+      </c>
+      <c r="D91">
+        <v>0.177959236265335</v>
+      </c>
+      <c r="E91">
+        <v>0.26061912606210202</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="3"/>
+        <v>0.43857836232743702</v>
+      </c>
+      <c r="I91">
+        <v>2069</v>
+      </c>
+      <c r="J91" s="11">
+        <f>C91-C$47</f>
+        <v>4.5828395690270973E-2</v>
+      </c>
+      <c r="K91" s="11">
+        <f>D91-D$47</f>
+        <v>2.8311247173007009E-2</v>
+      </c>
+      <c r="L91" s="11">
+        <f>E91-E$47</f>
+        <v>2.3125818816159022E-2</v>
+      </c>
+      <c r="M91" s="11">
+        <f>F91-F$47</f>
+        <v>5.1437065989166031E-2</v>
+      </c>
+      <c r="N91" s="10">
+        <f t="shared" si="2"/>
+        <v>0.55040556121474904</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2070</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92">
+        <v>0.41664801672699098</v>
+      </c>
+      <c r="D92">
+        <v>0.17858859583512299</v>
+      </c>
+      <c r="E92">
+        <v>0.26104746970098602</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="3"/>
+        <v>0.43963606553610901</v>
+      </c>
+      <c r="I92">
+        <v>2070</v>
+      </c>
+      <c r="J92" s="11">
+        <f>C92-C$47</f>
+        <v>4.6770514279089959E-2</v>
+      </c>
+      <c r="K92" s="11">
+        <f>D92-D$47</f>
+        <v>2.8940606742795E-2</v>
+      </c>
+      <c r="L92" s="11">
+        <f>E92-E$47</f>
+        <v>2.3554162455043021E-2</v>
+      </c>
+      <c r="M92" s="11">
+        <f>F92-F$47</f>
+        <v>5.249476919783802E-2</v>
+      </c>
+      <c r="N92" s="10">
+        <f t="shared" si="2"/>
+        <v>0.5513045811045667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2071</v>
+      </c>
+      <c r="B93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93">
+        <v>0.41758230982772299</v>
+      </c>
+      <c r="D93">
+        <v>0.179269136366219</v>
+      </c>
+      <c r="E93">
+        <v>0.26159402342173599</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="3"/>
+        <v>0.44086315978795498</v>
+      </c>
+      <c r="I93">
+        <v>2071</v>
+      </c>
+      <c r="J93" s="11">
+        <f>C93-C$47</f>
+        <v>4.7704807379821967E-2</v>
+      </c>
+      <c r="K93" s="11">
+        <f>D93-D$47</f>
+        <v>2.9621147273891008E-2</v>
+      </c>
+      <c r="L93" s="11">
+        <f>E93-E$47</f>
+        <v>2.4100716175792986E-2</v>
+      </c>
+      <c r="M93" s="11">
+        <f>F93-F$47</f>
+        <v>5.3721863449683993E-2</v>
+      </c>
+      <c r="N93" s="10">
+        <f t="shared" si="2"/>
+        <v>0.55137974321449656</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DACA9-2703-46AB-BFA3-8D857973518D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18062,7 +21146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF2612-8D4B-44BE-BDC9-9813CF05C984}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18076,7 +21160,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FACA4F-2572-4547-9E6F-94B897041732}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -18090,7 +21174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4260C632-A036-4233-AFE2-E87A6FB42399}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -18321,7 +21405,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC29E18-6610-4DCD-BEC6-4DABE0E5BE90}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -19073,7 +22157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1C950-9DE9-49F8-A43E-06E9BC4FB097}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -19539,7 +22623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07082F2-11DF-4770-88D1-F0B0116C1352}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -19822,736 +22906,6 @@
       </c>
       <c r="C25">
         <v>1.1218237</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37150C-2201-49DC-A9D9-5A36759A8CC0}">
-  <dimension ref="A1:C65"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>2022</v>
-      </c>
-      <c r="B2">
-        <v>7.3927969999999998</v>
-      </c>
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2023</v>
-      </c>
-      <c r="B3">
-        <v>7.4707619999999997</v>
-      </c>
-      <c r="C3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2024</v>
-      </c>
-      <c r="B4">
-        <v>7.5592930000000003</v>
-      </c>
-      <c r="C4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2025</v>
-      </c>
-      <c r="B5">
-        <v>7.6499189999999997</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2026</v>
-      </c>
-      <c r="B6">
-        <v>7.7602130000000002</v>
-      </c>
-      <c r="C6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2027</v>
-      </c>
-      <c r="B7">
-        <v>7.8614579999999998</v>
-      </c>
-      <c r="C7" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2028</v>
-      </c>
-      <c r="B8">
-        <v>7.9572890000000003</v>
-      </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2029</v>
-      </c>
-      <c r="B9">
-        <v>8.0519449999999999</v>
-      </c>
-      <c r="C9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2030</v>
-      </c>
-      <c r="B10">
-        <v>8.1461159999999992</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2031</v>
-      </c>
-      <c r="B11">
-        <v>8.2402200000000008</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2032</v>
-      </c>
-      <c r="B12">
-        <v>8.3301979999999993</v>
-      </c>
-      <c r="C12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2033</v>
-      </c>
-      <c r="B13">
-        <v>8.4137280000000008</v>
-      </c>
-      <c r="C13" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2034</v>
-      </c>
-      <c r="B14">
-        <v>8.4938699999999994</v>
-      </c>
-      <c r="C14" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2035</v>
-      </c>
-      <c r="B15">
-        <v>8.5747199999999992</v>
-      </c>
-      <c r="C15" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2036</v>
-      </c>
-      <c r="B16">
-        <v>8.6511510000000005</v>
-      </c>
-      <c r="C16" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2037</v>
-      </c>
-      <c r="B17">
-        <v>8.7229770000000002</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2038</v>
-      </c>
-      <c r="B18">
-        <v>8.7916480000000004</v>
-      </c>
-      <c r="C18" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2039</v>
-      </c>
-      <c r="B19">
-        <v>8.8534970000000008</v>
-      </c>
-      <c r="C19" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2040</v>
-      </c>
-      <c r="B20">
-        <v>8.9166889999999999</v>
-      </c>
-      <c r="C20" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2041</v>
-      </c>
-      <c r="B21">
-        <v>8.9748730000000005</v>
-      </c>
-      <c r="C21" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2042</v>
-      </c>
-      <c r="B22">
-        <v>9.0285069999999994</v>
-      </c>
-      <c r="C22" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2043</v>
-      </c>
-      <c r="B23">
-        <v>9.0786359999999995</v>
-      </c>
-      <c r="C23" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2044</v>
-      </c>
-      <c r="B24">
-        <v>9.1209919999999993</v>
-      </c>
-      <c r="C24" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2045</v>
-      </c>
-      <c r="B25">
-        <v>9.1645719999999997</v>
-      </c>
-      <c r="C25" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2046</v>
-      </c>
-      <c r="B26">
-        <v>9.2032559999999997</v>
-      </c>
-      <c r="C26" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2047</v>
-      </c>
-      <c r="B27">
-        <v>9.2398659999999992</v>
-      </c>
-      <c r="C27" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>2048</v>
-      </c>
-      <c r="B28">
-        <v>9.2775470000000002</v>
-      </c>
-      <c r="C28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2049</v>
-      </c>
-      <c r="B29">
-        <v>9.3134490000000003</v>
-      </c>
-      <c r="C29" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2050</v>
-      </c>
-      <c r="B30">
-        <v>9.3576160000000002</v>
-      </c>
-      <c r="C30" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2051</v>
-      </c>
-      <c r="B31">
-        <v>9.3973720000000007</v>
-      </c>
-      <c r="C31" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2052</v>
-      </c>
-      <c r="B32">
-        <v>9.4313420000000008</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2053</v>
-      </c>
-      <c r="B33">
-        <v>9.4634769999999993</v>
-      </c>
-      <c r="C33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2054</v>
-      </c>
-      <c r="B34">
-        <v>9.4942259999999994</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2055</v>
-      </c>
-      <c r="B35">
-        <v>9.5289289999999998</v>
-      </c>
-      <c r="C35" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2056</v>
-      </c>
-      <c r="B36">
-        <v>9.5619750000000003</v>
-      </c>
-      <c r="C36" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2057</v>
-      </c>
-      <c r="B37">
-        <v>9.5962990000000001</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2058</v>
-      </c>
-      <c r="B38">
-        <v>9.6339089999999992</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2059</v>
-      </c>
-      <c r="B39">
-        <v>9.6752439999999993</v>
-      </c>
-      <c r="C39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2060</v>
-      </c>
-      <c r="B40">
-        <v>9.7236860000000007</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2061</v>
-      </c>
-      <c r="B41">
-        <v>9.7740270000000002</v>
-      </c>
-      <c r="C41" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2062</v>
-      </c>
-      <c r="B42">
-        <v>9.8294339999999991</v>
-      </c>
-      <c r="C42" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>1999</v>
-      </c>
-      <c r="B43">
-        <v>5.5089249999999996</v>
-      </c>
-      <c r="C43" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2000</v>
-      </c>
-      <c r="B44">
-        <v>5.6993739999999997</v>
-      </c>
-      <c r="C44" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2001</v>
-      </c>
-      <c r="B45">
-        <v>5.4858669999999998</v>
-      </c>
-      <c r="C45" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2002</v>
-      </c>
-      <c r="B46">
-        <v>5.6428630000000002</v>
-      </c>
-      <c r="C46" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2003</v>
-      </c>
-      <c r="B47">
-        <v>5.6727990000000004</v>
-      </c>
-      <c r="C47" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2004</v>
-      </c>
-      <c r="B48">
-        <v>5.7385590000000004</v>
-      </c>
-      <c r="C48" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2005</v>
-      </c>
-      <c r="B49">
-        <v>5.955756</v>
-      </c>
-      <c r="C49" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2006</v>
-      </c>
-      <c r="B50">
-        <v>5.8993219999999997</v>
-      </c>
-      <c r="C50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2007</v>
-      </c>
-      <c r="B51">
-        <v>5.8391510000000002</v>
-      </c>
-      <c r="C51" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2008</v>
-      </c>
-      <c r="B52">
-        <v>5.9086129999999999</v>
-      </c>
-      <c r="C52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2009</v>
-      </c>
-      <c r="B53">
-        <v>6.3324420000000003</v>
-      </c>
-      <c r="C53" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A54">
-        <v>2010</v>
-      </c>
-      <c r="B54">
-        <v>6.335623</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A55">
-        <v>2011</v>
-      </c>
-      <c r="B55">
-        <v>6.3005100000000001</v>
-      </c>
-      <c r="C55" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A56">
-        <v>2012</v>
-      </c>
-      <c r="B56">
-        <v>6.5884470000000004</v>
-      </c>
-      <c r="C56" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A57">
-        <v>2013</v>
-      </c>
-      <c r="B57">
-        <v>6.5151440000000003</v>
-      </c>
-      <c r="C57" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A58">
-        <v>2014</v>
-      </c>
-      <c r="B58">
-        <v>6.5683069999999999</v>
-      </c>
-      <c r="C58" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A59">
-        <v>2015</v>
-      </c>
-      <c r="B59">
-        <v>6.7168169999999998</v>
-      </c>
-      <c r="C59" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A60">
-        <v>2016</v>
-      </c>
-      <c r="B60">
-        <v>6.828322</v>
-      </c>
-      <c r="C60" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A61">
-        <v>2017</v>
-      </c>
-      <c r="B61">
-        <v>6.8818489999999999</v>
-      </c>
-      <c r="C61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A62">
-        <v>2018</v>
-      </c>
-      <c r="B62">
-        <v>6.9627030000000003</v>
-      </c>
-      <c r="C62" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A63">
-        <v>2019</v>
-      </c>
-      <c r="B63">
-        <v>6.9447910000000004</v>
-      </c>
-      <c r="C63" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A64">
-        <v>2020</v>
-      </c>
-      <c r="B64">
-        <v>7.4859960000000001</v>
-      </c>
-      <c r="C64" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65">
-        <v>2021</v>
-      </c>
-      <c r="B65">
-        <v>7.3427639999999998</v>
-      </c>
-      <c r="C65" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -20577,6 +22931,736 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37150C-2201-49DC-A9D9-5A36759A8CC0}">
+  <dimension ref="A1:C65"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>2022</v>
+      </c>
+      <c r="B2">
+        <v>7.3927969999999998</v>
+      </c>
+      <c r="C2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2023</v>
+      </c>
+      <c r="B3">
+        <v>7.4707619999999997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2024</v>
+      </c>
+      <c r="B4">
+        <v>7.5592930000000003</v>
+      </c>
+      <c r="C4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2025</v>
+      </c>
+      <c r="B5">
+        <v>7.6499189999999997</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2026</v>
+      </c>
+      <c r="B6">
+        <v>7.7602130000000002</v>
+      </c>
+      <c r="C6" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2027</v>
+      </c>
+      <c r="B7">
+        <v>7.8614579999999998</v>
+      </c>
+      <c r="C7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2028</v>
+      </c>
+      <c r="B8">
+        <v>7.9572890000000003</v>
+      </c>
+      <c r="C8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2029</v>
+      </c>
+      <c r="B9">
+        <v>8.0519449999999999</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2030</v>
+      </c>
+      <c r="B10">
+        <v>8.1461159999999992</v>
+      </c>
+      <c r="C10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2031</v>
+      </c>
+      <c r="B11">
+        <v>8.2402200000000008</v>
+      </c>
+      <c r="C11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2032</v>
+      </c>
+      <c r="B12">
+        <v>8.3301979999999993</v>
+      </c>
+      <c r="C12" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2033</v>
+      </c>
+      <c r="B13">
+        <v>8.4137280000000008</v>
+      </c>
+      <c r="C13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2034</v>
+      </c>
+      <c r="B14">
+        <v>8.4938699999999994</v>
+      </c>
+      <c r="C14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2035</v>
+      </c>
+      <c r="B15">
+        <v>8.5747199999999992</v>
+      </c>
+      <c r="C15" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2036</v>
+      </c>
+      <c r="B16">
+        <v>8.6511510000000005</v>
+      </c>
+      <c r="C16" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2037</v>
+      </c>
+      <c r="B17">
+        <v>8.7229770000000002</v>
+      </c>
+      <c r="C17" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2038</v>
+      </c>
+      <c r="B18">
+        <v>8.7916480000000004</v>
+      </c>
+      <c r="C18" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2039</v>
+      </c>
+      <c r="B19">
+        <v>8.8534970000000008</v>
+      </c>
+      <c r="C19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2040</v>
+      </c>
+      <c r="B20">
+        <v>8.9166889999999999</v>
+      </c>
+      <c r="C20" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2041</v>
+      </c>
+      <c r="B21">
+        <v>8.9748730000000005</v>
+      </c>
+      <c r="C21" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2042</v>
+      </c>
+      <c r="B22">
+        <v>9.0285069999999994</v>
+      </c>
+      <c r="C22" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2043</v>
+      </c>
+      <c r="B23">
+        <v>9.0786359999999995</v>
+      </c>
+      <c r="C23" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2044</v>
+      </c>
+      <c r="B24">
+        <v>9.1209919999999993</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2045</v>
+      </c>
+      <c r="B25">
+        <v>9.1645719999999997</v>
+      </c>
+      <c r="C25" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2046</v>
+      </c>
+      <c r="B26">
+        <v>9.2032559999999997</v>
+      </c>
+      <c r="C26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2047</v>
+      </c>
+      <c r="B27">
+        <v>9.2398659999999992</v>
+      </c>
+      <c r="C27" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2048</v>
+      </c>
+      <c r="B28">
+        <v>9.2775470000000002</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2049</v>
+      </c>
+      <c r="B29">
+        <v>9.3134490000000003</v>
+      </c>
+      <c r="C29" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2050</v>
+      </c>
+      <c r="B30">
+        <v>9.3576160000000002</v>
+      </c>
+      <c r="C30" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2051</v>
+      </c>
+      <c r="B31">
+        <v>9.3973720000000007</v>
+      </c>
+      <c r="C31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2052</v>
+      </c>
+      <c r="B32">
+        <v>9.4313420000000008</v>
+      </c>
+      <c r="C32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2053</v>
+      </c>
+      <c r="B33">
+        <v>9.4634769999999993</v>
+      </c>
+      <c r="C33" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2054</v>
+      </c>
+      <c r="B34">
+        <v>9.4942259999999994</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2055</v>
+      </c>
+      <c r="B35">
+        <v>9.5289289999999998</v>
+      </c>
+      <c r="C35" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2056</v>
+      </c>
+      <c r="B36">
+        <v>9.5619750000000003</v>
+      </c>
+      <c r="C36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2057</v>
+      </c>
+      <c r="B37">
+        <v>9.5962990000000001</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2058</v>
+      </c>
+      <c r="B38">
+        <v>9.6339089999999992</v>
+      </c>
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2059</v>
+      </c>
+      <c r="B39">
+        <v>9.6752439999999993</v>
+      </c>
+      <c r="C39" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2060</v>
+      </c>
+      <c r="B40">
+        <v>9.7236860000000007</v>
+      </c>
+      <c r="C40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2061</v>
+      </c>
+      <c r="B41">
+        <v>9.7740270000000002</v>
+      </c>
+      <c r="C41" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2062</v>
+      </c>
+      <c r="B42">
+        <v>9.8294339999999991</v>
+      </c>
+      <c r="C42" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>1999</v>
+      </c>
+      <c r="B43">
+        <v>5.5089249999999996</v>
+      </c>
+      <c r="C43" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2000</v>
+      </c>
+      <c r="B44">
+        <v>5.6993739999999997</v>
+      </c>
+      <c r="C44" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2001</v>
+      </c>
+      <c r="B45">
+        <v>5.4858669999999998</v>
+      </c>
+      <c r="C45" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2002</v>
+      </c>
+      <c r="B46">
+        <v>5.6428630000000002</v>
+      </c>
+      <c r="C46" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2003</v>
+      </c>
+      <c r="B47">
+        <v>5.6727990000000004</v>
+      </c>
+      <c r="C47" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2004</v>
+      </c>
+      <c r="B48">
+        <v>5.7385590000000004</v>
+      </c>
+      <c r="C48" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2005</v>
+      </c>
+      <c r="B49">
+        <v>5.955756</v>
+      </c>
+      <c r="C49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2006</v>
+      </c>
+      <c r="B50">
+        <v>5.8993219999999997</v>
+      </c>
+      <c r="C50" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2007</v>
+      </c>
+      <c r="B51">
+        <v>5.8391510000000002</v>
+      </c>
+      <c r="C51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2008</v>
+      </c>
+      <c r="B52">
+        <v>5.9086129999999999</v>
+      </c>
+      <c r="C52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2009</v>
+      </c>
+      <c r="B53">
+        <v>6.3324420000000003</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2010</v>
+      </c>
+      <c r="B54">
+        <v>6.335623</v>
+      </c>
+      <c r="C54" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2011</v>
+      </c>
+      <c r="B55">
+        <v>6.3005100000000001</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2012</v>
+      </c>
+      <c r="B56">
+        <v>6.5884470000000004</v>
+      </c>
+      <c r="C56" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2013</v>
+      </c>
+      <c r="B57">
+        <v>6.5151440000000003</v>
+      </c>
+      <c r="C57" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2014</v>
+      </c>
+      <c r="B58">
+        <v>6.5683069999999999</v>
+      </c>
+      <c r="C58" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2015</v>
+      </c>
+      <c r="B59">
+        <v>6.7168169999999998</v>
+      </c>
+      <c r="C59" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2016</v>
+      </c>
+      <c r="B60">
+        <v>6.828322</v>
+      </c>
+      <c r="C60" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2017</v>
+      </c>
+      <c r="B61">
+        <v>6.8818489999999999</v>
+      </c>
+      <c r="C61" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2018</v>
+      </c>
+      <c r="B62">
+        <v>6.9627030000000003</v>
+      </c>
+      <c r="C62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2019</v>
+      </c>
+      <c r="B63">
+        <v>6.9447910000000004</v>
+      </c>
+      <c r="C63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2020</v>
+      </c>
+      <c r="B64">
+        <v>7.4859960000000001</v>
+      </c>
+      <c r="C64" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2021</v>
+      </c>
+      <c r="B65">
+        <v>7.3427639999999998</v>
+      </c>
+      <c r="C65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5FBEC3-B9FD-48B5-95CF-86757768825B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -20810,7 +23894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277955A-823F-4756-95EE-51E18498EE7B}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
@@ -23162,7 +26246,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597962C1-292D-4A6C-AC0B-02B04F1224CA}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -23717,7 +26801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF1DB0-E2DB-4F33-A326-4E0DA02E7E6C}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -24073,7 +27157,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF9EC2D-5ADB-4D44-9626-BFF474F5B6F1}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -24466,7 +27550,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84465C54-AD9F-4641-9695-AEC223DDDF1F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -24657,7 +27741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90598800-F848-4412-BABE-842603155D25}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -24740,7 +27824,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA57E6-6ABC-4E91-B0F1-32EF8797A167}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -24754,7 +27838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DDE1F0-C723-4546-8A50-AB43D1612454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -24768,7 +27852,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0.35515360000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.3480782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.35675380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.3528773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.34660099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.34731909999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.34742139999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.34380470000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.34268700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.34115810000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.36635269999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.37641550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.36339320000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.36536360000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.36243120000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.36532789999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0.37059310000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.3739229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.36755280000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.36848120000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0.36879010000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>0.42051450000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0.44151180000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0.39441470000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>0.36843959999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>0.38262170000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>0.34871269999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.34295350000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.35105120000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.3467421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.34098780000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.34098650000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.33942739999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.33300920000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.32994990000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.32696039999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.3487498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.35190539999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.34243249999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.34761700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.35081319999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>0.35189920000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.3582224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.3609771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0.35345100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0.35015380000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>0.34788089999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0.39849909999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.41878650000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.37178359999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>0.34488210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.35905140000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3538B4-37BE-47F7-A81E-403AB88EB97A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -24999,605 +28681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0.3728552</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.36608859999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0.37410890000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0.3705349</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.36385020000000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.36326540000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0.3632668</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.35934509999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.35800070000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.3559136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.38196269999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0.39243220000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0.37859799999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.38062940000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0.37881150000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>0.3818742</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.38782840000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.39169579999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>0.38535380000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>0.3860557</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>0.38604260000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>0.43808209999999997</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>0.45861489999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0.41017300000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>0.38371820000000001</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>0.39886569999999999</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>0.34871269999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>0.34295350000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>0.35105120000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>0.3467421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>0.34098780000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>0.34098650000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2005</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>0.33942739999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>0.33300920000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2007</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>0.32994990000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2008</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>0.32696039999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2009</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>0.3487498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2010</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>0.35190539999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2011</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>0.34243249999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>0.34761700000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>0.35081319999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>0.35189920000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2015</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>0.3582224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2016</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>0.3609771</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2017</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
-        <v>0.35345100000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47">
-        <v>0.35015380000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2019</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>0.34788089999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2020</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>0.39849909999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>0.41878650000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>0.37178359999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2023</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>0.34488210000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>0.35905140000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FD6F1-D440-42BC-AE35-D05933713E4C}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -26354,7 +29438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405343B9-E24C-4687-982E-E9D66258B033}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -26952,7 +30036,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964574C-56FE-4D20-B094-0B67DD33C552}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -27242,7 +30326,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8E219-7415-4FD9-9F5D-16982DCB2BC5}">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -27983,7 +31067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2198443-384E-4402-94D6-85936292F7C6}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -28729,7 +31813,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458ED67A-6602-4019-B886-3D2E34EB9F4B}">
   <dimension ref="A1:F217"/>
   <sheetViews>
@@ -33084,7 +36168,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35A4B-F81B-4CBD-A832-685B702067D7}">
   <dimension ref="A1:F125"/>
   <sheetViews>
@@ -35599,7 +38683,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC607D-307F-431A-863B-985430F65DB4}">
   <dimension ref="A1:G18"/>
   <sheetViews>

--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\OEM\Documents\GitHub\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5924DDA5-3333-4544-A6BC-BC0DFC76875B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B82F3F07-BDD3-4BE5-9D25-B7278B8B566F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="1" activeTab="4" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" firstSheet="20" activeTab="32" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
   </bookViews>
   <sheets>
     <sheet name="Interest_plot" sheetId="57" r:id="rId1"/>
@@ -45,32 +45,33 @@
     <sheet name="Figure_24" sheetId="26" r:id="rId30"/>
     <sheet name="Figure_25" sheetId="27" r:id="rId31"/>
     <sheet name="Figure_26" sheetId="58" r:id="rId32"/>
-    <sheet name="Figure_26a" sheetId="28" r:id="rId33"/>
-    <sheet name="Figure_26b" sheetId="29" r:id="rId34"/>
-    <sheet name="Figure_27" sheetId="30" r:id="rId35"/>
-    <sheet name="Figure29_a" sheetId="41" r:id="rId36"/>
-    <sheet name="Figure29_b" sheetId="42" r:id="rId37"/>
-    <sheet name="Figure30_a" sheetId="43" r:id="rId38"/>
-    <sheet name="Figure30_b" sheetId="44" r:id="rId39"/>
-    <sheet name="Figure_31" sheetId="45" r:id="rId40"/>
-    <sheet name="Figure_32" sheetId="46" r:id="rId41"/>
-    <sheet name="Figure_33" sheetId="47" r:id="rId42"/>
-    <sheet name="Figure_34" sheetId="48" r:id="rId43"/>
-    <sheet name="Figure_35" sheetId="49" r:id="rId44"/>
-    <sheet name="Figure_36" sheetId="50" r:id="rId45"/>
-    <sheet name="Figure_37_a" sheetId="31" r:id="rId46"/>
-    <sheet name="Figure_37_b" sheetId="32" r:id="rId47"/>
-    <sheet name="Figure_38" sheetId="55" r:id="rId48"/>
-    <sheet name="Figure_39a" sheetId="56" r:id="rId49"/>
-    <sheet name="Figure43_a" sheetId="33" r:id="rId50"/>
-    <sheet name="Figure43_b" sheetId="34" r:id="rId51"/>
-    <sheet name="Figure44_a" sheetId="35" r:id="rId52"/>
-    <sheet name="Figure44_b" sheetId="36" r:id="rId53"/>
-    <sheet name="Figure45" sheetId="37" r:id="rId54"/>
-    <sheet name="Figure46_a" sheetId="38" r:id="rId55"/>
-    <sheet name="Figur46_b" sheetId="39" r:id="rId56"/>
-    <sheet name="Figure47" sheetId="40" r:id="rId57"/>
-    <sheet name="Release schedule" sheetId="54" r:id="rId58"/>
+    <sheet name="Figure_26 (debt)" sheetId="59" r:id="rId33"/>
+    <sheet name="Figure_26a" sheetId="28" r:id="rId34"/>
+    <sheet name="Figure_26b" sheetId="29" r:id="rId35"/>
+    <sheet name="Figure_27" sheetId="30" r:id="rId36"/>
+    <sheet name="Figure29_a" sheetId="41" r:id="rId37"/>
+    <sheet name="Figure29_b" sheetId="42" r:id="rId38"/>
+    <sheet name="Figure30_a" sheetId="43" r:id="rId39"/>
+    <sheet name="Figure30_b" sheetId="44" r:id="rId40"/>
+    <sheet name="Figure_31" sheetId="45" r:id="rId41"/>
+    <sheet name="Figure_32" sheetId="46" r:id="rId42"/>
+    <sheet name="Figure_33" sheetId="47" r:id="rId43"/>
+    <sheet name="Figure_34" sheetId="48" r:id="rId44"/>
+    <sheet name="Figure_35" sheetId="49" r:id="rId45"/>
+    <sheet name="Figure_36" sheetId="50" r:id="rId46"/>
+    <sheet name="Figure_37_a" sheetId="31" r:id="rId47"/>
+    <sheet name="Figure_37_b" sheetId="32" r:id="rId48"/>
+    <sheet name="Figure_38" sheetId="55" r:id="rId49"/>
+    <sheet name="Figure_39a" sheetId="56" r:id="rId50"/>
+    <sheet name="Figure43_a" sheetId="33" r:id="rId51"/>
+    <sheet name="Figure43_b" sheetId="34" r:id="rId52"/>
+    <sheet name="Figure44_a" sheetId="35" r:id="rId53"/>
+    <sheet name="Figure44_b" sheetId="36" r:id="rId54"/>
+    <sheet name="Figure45" sheetId="37" r:id="rId55"/>
+    <sheet name="Figure46_a" sheetId="38" r:id="rId56"/>
+    <sheet name="Figur46_b" sheetId="39" r:id="rId57"/>
+    <sheet name="Figure47" sheetId="40" r:id="rId58"/>
+    <sheet name="Release schedule" sheetId="54" r:id="rId59"/>
   </sheets>
   <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
@@ -93,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3272" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3421" uniqueCount="330">
   <si>
     <t>State</t>
   </si>
@@ -1057,16 +1058,44 @@
   <si>
     <t>Consolidate</t>
   </si>
+  <si>
+    <t>Expenditure</t>
+  </si>
+  <si>
+    <t>Debt</t>
+  </si>
+  <si>
+    <t>Expenditure_GDP</t>
+  </si>
+  <si>
+    <t>GDP</t>
+  </si>
+  <si>
+    <t>Actual_Expenditure</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Tax increase</t>
+  </si>
+  <si>
+    <t>GDP increase</t>
+  </si>
+  <si>
+    <t>Data sources are too different, so not sure this makes sense. Instead apply the expenditure projections to the OECD data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1105,6 +1134,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1127,7 +1163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1141,7 +1177,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18090,8 +18132,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F09A25-5A7F-46B5-878B-A5D4C9D9CFAA}">
   <dimension ref="A1:N93"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L48" sqref="L48"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -19127,19 +19169,19 @@
         <v>2026</v>
       </c>
       <c r="J48" s="11">
-        <f>C48-C$47</f>
+        <f t="shared" ref="J48:J93" si="2">C48-C$47</f>
         <v>2.3301652980939891E-3</v>
       </c>
       <c r="K48" s="11">
-        <f>D48-D$47</f>
+        <f t="shared" ref="K48:K93" si="3">D48-D$47</f>
         <v>1.1740262754320052E-3</v>
       </c>
       <c r="L48" s="11">
-        <f>E48-E$47</f>
+        <f t="shared" ref="L48:L93" si="4">E48-E$47</f>
         <v>1.4650058891889917E-3</v>
       </c>
       <c r="M48" s="11">
-        <f>F48-F$47</f>
+        <f t="shared" ref="M48:M93" si="5">F48-F$47</f>
         <v>2.6390321646210246E-3</v>
       </c>
       <c r="N48" s="10">
@@ -19171,23 +19213,23 @@
         <v>2027</v>
       </c>
       <c r="J49" s="11">
-        <f>C49-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.4092755703979969E-3</v>
       </c>
       <c r="K49" s="11">
-        <f>D49-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.290853731599013E-3</v>
       </c>
       <c r="L49" s="11">
-        <f>E49-E$47</f>
+        <f t="shared" si="4"/>
         <v>3.4628889939979923E-3</v>
       </c>
       <c r="M49" s="11">
-        <f>F49-F$47</f>
+        <f t="shared" si="5"/>
         <v>5.753742725597033E-3</v>
       </c>
       <c r="N49" s="10">
-        <f t="shared" ref="N49:N93" si="2">K49/M49</f>
+        <f t="shared" ref="N49:N93" si="6">K49/M49</f>
         <v>0.398150185166874</v>
       </c>
     </row>
@@ -19215,23 +19257,23 @@
         <v>2028</v>
       </c>
       <c r="J50" s="11">
-        <f>C50-C$47</f>
+        <f t="shared" si="2"/>
         <v>6.0164028359899757E-3</v>
       </c>
       <c r="K50" s="11">
-        <f>D50-D$47</f>
+        <f t="shared" si="3"/>
         <v>3.1219773765060188E-3</v>
       </c>
       <c r="L50" s="11">
-        <f>E50-E$47</f>
+        <f t="shared" si="4"/>
         <v>5.3939715077729877E-3</v>
       </c>
       <c r="M50" s="11">
-        <f>F50-F$47</f>
+        <f t="shared" si="5"/>
         <v>8.5159488842789788E-3</v>
       </c>
       <c r="N50" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.36660358333871657</v>
       </c>
     </row>
@@ -19259,23 +19301,23 @@
         <v>2029</v>
       </c>
       <c r="J51" s="11">
-        <f>C51-C$47</f>
+        <f t="shared" si="2"/>
         <v>7.2454851430479583E-3</v>
       </c>
       <c r="K51" s="11">
-        <f>D51-D$47</f>
+        <f t="shared" si="3"/>
         <v>3.7453637158530173E-3</v>
       </c>
       <c r="L51" s="11">
-        <f>E51-E$47</f>
+        <f t="shared" si="4"/>
         <v>7.0516377787470108E-3</v>
       </c>
       <c r="M51" s="11">
-        <f>F51-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.0797001494600056E-2</v>
       </c>
       <c r="N51" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.34688924677154115</v>
       </c>
     </row>
@@ -19303,23 +19345,23 @@
         <v>2030</v>
       </c>
       <c r="J52" s="11">
-        <f>C52-C$47</f>
+        <f t="shared" si="2"/>
         <v>8.1540374058710063E-3</v>
       </c>
       <c r="K52" s="11">
-        <f>D52-D$47</f>
+        <f t="shared" si="3"/>
         <v>4.1833144640620046E-3</v>
       </c>
       <c r="L52" s="11">
-        <f>E52-E$47</f>
+        <f t="shared" si="4"/>
         <v>8.3441431318420078E-3</v>
       </c>
       <c r="M52" s="11">
-        <f>F52-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.2527457595904012E-2</v>
       </c>
       <c r="N52" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33393164032179878</v>
       </c>
     </row>
@@ -19347,23 +19389,23 @@
         <v>2031</v>
       </c>
       <c r="J53" s="11">
-        <f>C53-C$47</f>
+        <f t="shared" si="2"/>
         <v>9.0807426680259984E-3</v>
       </c>
       <c r="K53" s="11">
-        <f>D53-D$47</f>
+        <f t="shared" si="3"/>
         <v>4.5264046231140165E-3</v>
       </c>
       <c r="L53" s="11">
-        <f>E53-E$47</f>
+        <f t="shared" si="4"/>
         <v>9.6011094855449897E-3</v>
       </c>
       <c r="M53" s="11">
-        <f>F53-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.4127514108658978E-2</v>
       </c>
       <c r="N53" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.32039639729255065</v>
       </c>
     </row>
@@ -19391,23 +19433,23 @@
         <v>2032</v>
       </c>
       <c r="J54" s="11">
-        <f>C54-C$47</f>
+        <f t="shared" si="2"/>
         <v>9.9182526946690053E-3</v>
       </c>
       <c r="K54" s="11">
-        <f>D54-D$47</f>
+        <f t="shared" si="3"/>
         <v>4.9018328084940166E-3</v>
       </c>
       <c r="L54" s="11">
-        <f>E54-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.0704686517723994E-2</v>
       </c>
       <c r="M54" s="11">
-        <f>F54-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.5606519326218038E-2</v>
       </c>
       <c r="N54" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31408879238429704</v>
       </c>
     </row>
@@ -19435,23 +19477,23 @@
         <v>2033</v>
       </c>
       <c r="J55" s="11">
-        <f>C55-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.075444349742799E-2</v>
       </c>
       <c r="K55" s="11">
-        <f>D55-D$47</f>
+        <f t="shared" si="3"/>
         <v>5.3362926301000202E-3</v>
       </c>
       <c r="L55" s="11">
-        <f>E55-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.1808695761181986E-2</v>
       </c>
       <c r="M55" s="11">
-        <f>F55-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.7144988391281979E-2</v>
       </c>
       <c r="N55" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31124504189302693</v>
       </c>
     </row>
@@ -19479,23 +19521,23 @@
         <v>2034</v>
       </c>
       <c r="J56" s="11">
-        <f>C56-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.1663588261950963E-2</v>
       </c>
       <c r="K56" s="11">
-        <f>D56-D$47</f>
+        <f t="shared" si="3"/>
         <v>5.8759843547060153E-3</v>
       </c>
       <c r="L56" s="11">
-        <f>E56-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.2972261019994019E-2</v>
       </c>
       <c r="M56" s="11">
-        <f>F56-F$47</f>
+        <f t="shared" si="5"/>
         <v>1.8848245374700034E-2</v>
       </c>
       <c r="N56" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31175232696160349</v>
       </c>
     </row>
@@ -19523,23 +19565,23 @@
         <v>2035</v>
       </c>
       <c r="J57" s="11">
-        <f>C57-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.2427548253784004E-2</v>
       </c>
       <c r="K57" s="11">
-        <f>D57-D$47</f>
+        <f t="shared" si="3"/>
         <v>6.4375818086250258E-3</v>
       </c>
       <c r="L57" s="11">
-        <f>E57-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.3818643585539997E-2</v>
       </c>
       <c r="M57" s="11">
-        <f>F57-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.0256225394165051E-2</v>
       </c>
       <c r="N57" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.31780757191215975</v>
       </c>
     </row>
@@ -19567,23 +19609,23 @@
         <v>2036</v>
       </c>
       <c r="J58" s="11">
-        <f>C58-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.3614508296177996E-2</v>
       </c>
       <c r="K58" s="11">
-        <f>D58-D$47</f>
+        <f t="shared" si="3"/>
         <v>7.2738517405070147E-3</v>
       </c>
       <c r="L58" s="11">
-        <f>E58-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.4981941751991995E-2</v>
       </c>
       <c r="M58" s="11">
-        <f>F58-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.225579349249901E-2</v>
       </c>
       <c r="N58" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.32682958452856603</v>
       </c>
     </row>
@@ -19611,23 +19653,23 @@
         <v>2037</v>
       </c>
       <c r="J59" s="11">
-        <f>C59-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.5253031530255978E-2</v>
       </c>
       <c r="K59" s="11">
-        <f>D59-D$47</f>
+        <f t="shared" si="3"/>
         <v>8.1702406490100077E-3</v>
       </c>
       <c r="L59" s="11">
-        <f>E59-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.600463470044497E-2</v>
       </c>
       <c r="M59" s="11">
-        <f>F59-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.417487534945495E-2</v>
       </c>
       <c r="N59" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.33796412725636721</v>
       </c>
     </row>
@@ -19655,23 +19697,23 @@
         <v>2038</v>
       </c>
       <c r="J60" s="11">
-        <f>C60-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.7000440208510992E-2</v>
       </c>
       <c r="K60" s="11">
-        <f>D60-D$47</f>
+        <f t="shared" si="3"/>
         <v>9.1307063756290163E-3</v>
       </c>
       <c r="L60" s="11">
-        <f>E60-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.6241514321595013E-2</v>
       </c>
       <c r="M60" s="11">
-        <f>F60-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.5372220697224002E-2</v>
       </c>
       <c r="N60" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.3598702094148194</v>
       </c>
     </row>
@@ -19699,23 +19741,23 @@
         <v>2039</v>
       </c>
       <c r="J61" s="11">
-        <f>C61-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.8454399463568971E-2</v>
       </c>
       <c r="K61" s="11">
-        <f>D61-D$47</f>
+        <f t="shared" si="3"/>
         <v>9.9758230219450239E-3</v>
       </c>
       <c r="L61" s="11">
-        <f>E61-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.6299280498425023E-2</v>
       </c>
       <c r="M61" s="11">
-        <f>F61-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6275103520370047E-2</v>
       </c>
       <c r="N61" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.37966826711876372</v>
       </c>
     </row>
@@ -19743,23 +19785,23 @@
         <v>2040</v>
       </c>
       <c r="J62" s="11">
-        <f>C62-C$47</f>
+        <f t="shared" si="2"/>
         <v>1.9798980148830969E-2</v>
       </c>
       <c r="K62" s="11">
-        <f>D62-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.0744130151053022E-2</v>
       </c>
       <c r="L62" s="11">
-        <f>E62-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.5976657505961972E-2</v>
       </c>
       <c r="M62" s="11">
-        <f>F62-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6720787657015022E-2</v>
       </c>
       <c r="N62" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.40208882645839072</v>
       </c>
     </row>
@@ -19787,23 +19829,23 @@
         <v>2041</v>
       </c>
       <c r="J63" s="11">
-        <f>C63-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.097622051381498E-2</v>
       </c>
       <c r="K63" s="11">
-        <f>D63-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.1429443375265025E-2</v>
       </c>
       <c r="L63" s="11">
-        <f>E63-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.5347521657517987E-2</v>
       </c>
       <c r="M63" s="11">
-        <f>F63-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.677696503278304E-2</v>
       </c>
       <c r="N63" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.42683864139464484</v>
       </c>
     </row>
@@ -19831,23 +19873,23 @@
         <v>2042</v>
       </c>
       <c r="J64" s="11">
-        <f>C64-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.1865259222832001E-2</v>
       </c>
       <c r="K64" s="11">
-        <f>D64-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.1996960938512019E-2</v>
       </c>
       <c r="L64" s="11">
-        <f>E64-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.4518575114602E-2</v>
       </c>
       <c r="M64" s="11">
-        <f>F64-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6515536053114019E-2</v>
       </c>
       <c r="N64" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.45245025084465829</v>
       </c>
     </row>
@@ -19875,23 +19917,23 @@
         <v>2043</v>
       </c>
       <c r="J65" s="11">
-        <f>C65-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.269963894356497E-2</v>
       </c>
       <c r="K65" s="11">
-        <f>D65-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.2547728200510005E-2</v>
       </c>
       <c r="L65" s="11">
-        <f>E65-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.3631157542657008E-2</v>
       </c>
       <c r="M65" s="11">
-        <f>F65-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6178885743167013E-2</v>
       </c>
       <c r="N65" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.47930719143709566</v>
       </c>
     </row>
@@ -19919,23 +19961,23 @@
         <v>2044</v>
       </c>
       <c r="J66" s="11">
-        <f>C66-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.3602238045764001E-2</v>
       </c>
       <c r="K66" s="11">
-        <f>D66-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.3165531465856001E-2</v>
       </c>
       <c r="L66" s="11">
-        <f>E66-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.2872424274756017E-2</v>
       </c>
       <c r="M66" s="11">
-        <f>F66-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6037955740612018E-2</v>
       </c>
       <c r="N66" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50562846012221341</v>
       </c>
     </row>
@@ -19963,23 +20005,23 @@
         <v>2045</v>
       </c>
       <c r="J67" s="11">
-        <f>C67-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.4588567040613962E-2</v>
       </c>
       <c r="K67" s="11">
-        <f>D67-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.3853802423115014E-2</v>
       </c>
       <c r="L67" s="11">
-        <f>E67-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.2164031092796984E-2</v>
       </c>
       <c r="M67" s="11">
-        <f>F67-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6017833515912026E-2</v>
       </c>
       <c r="N67" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53247332890504828</v>
       </c>
     </row>
@@ -20007,23 +20049,23 @@
         <v>2046</v>
       </c>
       <c r="J68" s="11">
-        <f>C68-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.5576346491150981E-2</v>
       </c>
       <c r="K68" s="11">
-        <f>D68-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.4618068015836011E-2</v>
       </c>
       <c r="L68" s="11">
-        <f>E68-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.1868565539293996E-2</v>
       </c>
       <c r="M68" s="11">
-        <f>F68-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.6486633555130035E-2</v>
       </c>
       <c r="N68" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55190358508224713</v>
       </c>
     </row>
@@ -20051,23 +20093,23 @@
         <v>2047</v>
       </c>
       <c r="J69" s="11">
-        <f>C69-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.6317195676550997E-2</v>
       </c>
       <c r="K69" s="11">
-        <f>D69-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.5309024265760002E-2</v>
       </c>
       <c r="L69" s="11">
-        <f>E69-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.1829897557249003E-2</v>
       </c>
       <c r="M69" s="11">
-        <f>F69-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.7138921823009032E-2</v>
       </c>
       <c r="N69" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.56409846955602494</v>
       </c>
     </row>
@@ -20095,23 +20137,23 @@
         <v>2048</v>
       </c>
       <c r="J70" s="11">
-        <f>C70-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.698986223268296E-2</v>
       </c>
       <c r="K70" s="11">
-        <f>D70-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.6018281287412006E-2</v>
       </c>
       <c r="L70" s="11">
-        <f>E70-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.2069799736249998E-2</v>
       </c>
       <c r="M70" s="11">
-        <f>F70-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.8088081023662004E-2</v>
       </c>
       <c r="N70" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57028749218993857</v>
       </c>
     </row>
@@ -20139,23 +20181,23 @@
         <v>2049</v>
       </c>
       <c r="J71" s="11">
-        <f>C71-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.7688975420960993E-2</v>
       </c>
       <c r="K71" s="11">
-        <f>D71-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.6714732914159008E-2</v>
       </c>
       <c r="L71" s="11">
-        <f>E71-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.2367115896729008E-2</v>
       </c>
       <c r="M71" s="11">
-        <f>F71-F$47</f>
+        <f t="shared" si="5"/>
         <v>2.9081848810888045E-2</v>
       </c>
       <c r="N71" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57474794752048664</v>
       </c>
     </row>
@@ -20183,23 +20225,23 @@
         <v>2050</v>
       </c>
       <c r="J72" s="11">
-        <f>C72-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.8437195861473974E-2</v>
       </c>
       <c r="K72" s="11">
-        <f>D72-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.7420838107855025E-2</v>
       </c>
       <c r="L72" s="11">
-        <f>E72-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.277716323889902E-2</v>
       </c>
       <c r="M72" s="11">
-        <f>F72-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.0198001346754044E-2</v>
       </c>
       <c r="N72" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57688712268792497</v>
       </c>
     </row>
@@ -20227,23 +20269,23 @@
         <v>2051</v>
       </c>
       <c r="J73" s="11">
-        <f>C73-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.8885639045337974E-2</v>
       </c>
       <c r="K73" s="11">
-        <f>D73-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.7977829679547003E-2</v>
       </c>
       <c r="L73" s="11">
-        <f>E73-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.3319795977208976E-2</v>
       </c>
       <c r="M73" s="11">
-        <f>F73-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.1297625656755979E-2</v>
       </c>
       <c r="N73" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.57441512901686409</v>
       </c>
     </row>
@@ -20271,23 +20313,23 @@
         <v>2052</v>
       </c>
       <c r="J74" s="11">
-        <f>C74-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.9247350291358998E-2</v>
       </c>
       <c r="K74" s="11">
-        <f>D74-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.8440687740996026E-2</v>
       </c>
       <c r="L74" s="11">
-        <f>E74-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.4003367238525993E-2</v>
       </c>
       <c r="M74" s="11">
-        <f>F74-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.2444054979522019E-2</v>
       </c>
       <c r="N74" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.56838418479550068</v>
       </c>
     </row>
@@ -20315,23 +20357,23 @@
         <v>2053</v>
       </c>
       <c r="J75" s="11">
-        <f>C75-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.9510928412207982E-2</v>
       </c>
       <c r="K75" s="11">
-        <f>D75-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.8825745960854012E-2</v>
       </c>
       <c r="L75" s="11">
-        <f>E75-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.4853614460041992E-2</v>
       </c>
       <c r="M75" s="11">
-        <f>F75-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.3679360420896032E-2</v>
       </c>
       <c r="N75" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55896981788210442</v>
       </c>
     </row>
@@ -20359,23 +20401,23 @@
         <v>2054</v>
       </c>
       <c r="J76" s="11">
-        <f>C76-C$47</f>
+        <f t="shared" si="2"/>
         <v>2.9849594927416956E-2</v>
       </c>
       <c r="K76" s="11">
-        <f>D76-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.9235320146556018E-2</v>
       </c>
       <c r="L76" s="11">
-        <f>E76-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.5791686828685009E-2</v>
       </c>
       <c r="M76" s="11">
-        <f>F76-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.5027006975241026E-2</v>
       </c>
       <c r="N76" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.54915683090343903</v>
       </c>
     </row>
@@ -20403,23 +20445,23 @@
         <v>2055</v>
       </c>
       <c r="J77" s="11">
-        <f>C77-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.0528410581018961E-2</v>
       </c>
       <c r="K77" s="11">
-        <f>D77-D$47</f>
+        <f t="shared" si="3"/>
         <v>1.9797777550668E-2</v>
       </c>
       <c r="L77" s="11">
-        <f>E77-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.6828973963946975E-2</v>
       </c>
       <c r="M77" s="11">
-        <f>F77-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.6626751514614975E-2</v>
       </c>
       <c r="N77" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.54052780364013986</v>
       </c>
     </row>
@@ -20447,23 +20489,23 @@
         <v>2056</v>
       </c>
       <c r="J78" s="11">
-        <f>C78-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.1123918495261971E-2</v>
       </c>
       <c r="K78" s="11">
-        <f>D78-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.0304158678348005E-2</v>
       </c>
       <c r="L78" s="11">
-        <f>E78-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.7868075500346997E-2</v>
       </c>
       <c r="M78" s="11">
-        <f>F78-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.8172234178694975E-2</v>
       </c>
       <c r="N78" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53190909872601433</v>
       </c>
     </row>
@@ -20491,23 +20533,23 @@
         <v>2057</v>
       </c>
       <c r="J79" s="11">
-        <f>C79-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.1398104715539998E-2</v>
       </c>
       <c r="K79" s="11">
-        <f>D79-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.0619614598851005E-2</v>
       </c>
       <c r="L79" s="11">
-        <f>E79-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.8814943803908996E-2</v>
       </c>
       <c r="M79" s="11">
-        <f>F79-F$47</f>
+        <f t="shared" si="5"/>
         <v>3.943455840276E-2</v>
       </c>
       <c r="N79" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.52288184359147916</v>
       </c>
     </row>
@@ -20535,23 +20577,23 @@
         <v>2058</v>
       </c>
       <c r="J80" s="11">
-        <f>C80-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.191424709220797E-2</v>
       </c>
       <c r="K80" s="11">
-        <f>D80-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.1010716978031002E-2</v>
       </c>
       <c r="L80" s="11">
-        <f>E80-E$47</f>
+        <f t="shared" si="4"/>
         <v>1.9787872910081022E-2</v>
       </c>
       <c r="M80" s="11">
-        <f>F80-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.0798589888112025E-2</v>
       </c>
       <c r="N80" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51498635211784971</v>
       </c>
     </row>
@@ -20579,23 +20621,23 @@
         <v>2059</v>
       </c>
       <c r="J81" s="11">
-        <f>C81-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.2690751672998009E-2</v>
       </c>
       <c r="K81" s="11">
-        <f>D81-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.1510675049279004E-2</v>
       </c>
       <c r="L81" s="11">
-        <f>E81-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.0645821359060984E-2</v>
       </c>
       <c r="M81" s="11">
-        <f>F81-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.2156496408339961E-2</v>
       </c>
       <c r="N81" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51025765616099628</v>
       </c>
     </row>
@@ -20623,23 +20665,23 @@
         <v>2060</v>
       </c>
       <c r="J82" s="11">
-        <f>C82-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.3678154319029985E-2</v>
       </c>
       <c r="K82" s="11">
-        <f>D82-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.2104728942473006E-2</v>
       </c>
       <c r="L82" s="11">
-        <f>E82-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.1434480981095988E-2</v>
       </c>
       <c r="M82" s="11">
-        <f>F82-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.3539209923568967E-2</v>
       </c>
       <c r="N82" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5076970615975076</v>
       </c>
     </row>
@@ -20667,23 +20709,23 @@
         <v>2061</v>
       </c>
       <c r="J83" s="11">
-        <f>C83-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.4919792715235987E-2</v>
       </c>
       <c r="K83" s="11">
-        <f>D83-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.2762081985690019E-2</v>
       </c>
       <c r="L83" s="11">
-        <f>E83-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.1931052022608005E-2</v>
       </c>
       <c r="M83" s="11">
-        <f>F83-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.4693134008297997E-2</v>
       </c>
       <c r="N83" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.50929706521507023</v>
       </c>
     </row>
@@ -20711,23 +20753,23 @@
         <v>2062</v>
       </c>
       <c r="J84" s="11">
-        <f>C84-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.6433887073616E-2</v>
       </c>
       <c r="K84" s="11">
-        <f>D84-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.3500204084122012E-2</v>
       </c>
       <c r="L84" s="11">
-        <f>E84-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2147186137205982E-2</v>
       </c>
       <c r="M84" s="11">
-        <f>F84-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.5647390221328021E-2</v>
       </c>
       <c r="N84" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.51482032094667074</v>
       </c>
     </row>
@@ -20755,23 +20797,23 @@
         <v>2063</v>
       </c>
       <c r="J85" s="11">
-        <f>C85-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.7987315714220982E-2</v>
       </c>
       <c r="K85" s="11">
-        <f>D85-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.4222624754955013E-2</v>
       </c>
       <c r="L85" s="11">
-        <f>E85-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2188018458695974E-2</v>
       </c>
       <c r="M85" s="11">
-        <f>F85-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.6410643213650959E-2</v>
       </c>
       <c r="N85" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5219196089019148</v>
       </c>
     </row>
@@ -20792,30 +20834,30 @@
         <v>0.259770577961767</v>
       </c>
       <c r="F86">
-        <f t="shared" ref="F86:F93" si="3">D86+E86</f>
+        <f t="shared" ref="F86:F93" si="7">D86+E86</f>
         <v>0.43434459483874499</v>
       </c>
       <c r="I86">
         <v>2064</v>
       </c>
       <c r="J86" s="11">
-        <f>C86-C$47</f>
+        <f t="shared" si="2"/>
         <v>3.9456474554764975E-2</v>
       </c>
       <c r="K86" s="11">
-        <f>D86-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.4926027784650001E-2</v>
       </c>
       <c r="L86" s="11">
-        <f>E86-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2277270715823999E-2</v>
       </c>
       <c r="M86" s="11">
-        <f>F86-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.7203298500474E-2</v>
       </c>
       <c r="N86" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.52805690654011606</v>
       </c>
     </row>
@@ -20836,30 +20878,30 @@
         <v>0.26003376669755102</v>
       </c>
       <c r="F87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43536398932964404</v>
       </c>
       <c r="I87">
         <v>2065</v>
       </c>
       <c r="J87" s="11">
-        <f>C87-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.0904051936326957E-2</v>
       </c>
       <c r="K87" s="11">
-        <f>D87-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.5682233539765009E-2</v>
       </c>
       <c r="L87" s="11">
-        <f>E87-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2540459451608014E-2</v>
       </c>
       <c r="M87" s="11">
-        <f>F87-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.8222692991373051E-2</v>
       </c>
       <c r="N87" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53257568059003901</v>
       </c>
     </row>
@@ -20880,30 +20922,30 @@
         <v>0.26028155076877102</v>
       </c>
       <c r="F88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43629715071949204</v>
       </c>
       <c r="I88">
         <v>2066</v>
       </c>
       <c r="J88" s="11">
-        <f>C88-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.2196792342688971E-2</v>
       </c>
       <c r="K88" s="11">
-        <f>D88-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.6367610858393009E-2</v>
       </c>
       <c r="L88" s="11">
-        <f>E88-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2788243522828017E-2</v>
       </c>
       <c r="M88" s="11">
-        <f>F88-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.9155854381221054E-2</v>
       </c>
       <c r="N88" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.53640835237859674</v>
       </c>
     </row>
@@ -20924,30 +20966,30 @@
         <v>0.26028983040498599</v>
       </c>
       <c r="F89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43695306341128798</v>
       </c>
       <c r="I89">
         <v>2067</v>
       </c>
       <c r="J89" s="11">
-        <f>C89-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.3497838452920989E-2</v>
       </c>
       <c r="K89" s="11">
-        <f>D89-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.7015243913974002E-2</v>
       </c>
       <c r="L89" s="11">
-        <f>E89-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2796523159042986E-2</v>
       </c>
       <c r="M89" s="11">
-        <f>F89-F$47</f>
+        <f t="shared" si="5"/>
         <v>4.9811767073016988E-2</v>
       </c>
       <c r="N89" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.54234662814458046</v>
       </c>
     </row>
@@ -20968,30 +21010,30 @@
         <v>0.260349391332938</v>
       </c>
       <c r="F90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43766298623946498</v>
       </c>
       <c r="I90">
         <v>2068</v>
       </c>
       <c r="J90" s="11">
-        <f>C90-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.4738548041189985E-2</v>
       </c>
       <c r="K90" s="11">
-        <f>D90-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.7665605814199024E-2</v>
       </c>
       <c r="L90" s="11">
-        <f>E90-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.2856084086994993E-2</v>
       </c>
       <c r="M90" s="11">
-        <f>F90-F$47</f>
+        <f t="shared" si="5"/>
         <v>5.0521689901193989E-2</v>
       </c>
       <c r="N90" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.54759858326799948</v>
       </c>
     </row>
@@ -21012,30 +21054,30 @@
         <v>0.26061912606210202</v>
       </c>
       <c r="F91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43857836232743702</v>
       </c>
       <c r="I91">
         <v>2069</v>
       </c>
       <c r="J91" s="11">
-        <f>C91-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.5828395690270973E-2</v>
       </c>
       <c r="K91" s="11">
-        <f>D91-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.8311247173007009E-2</v>
       </c>
       <c r="L91" s="11">
-        <f>E91-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.3125818816159022E-2</v>
       </c>
       <c r="M91" s="11">
-        <f>F91-F$47</f>
+        <f t="shared" si="5"/>
         <v>5.1437065989166031E-2</v>
       </c>
       <c r="N91" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55040556121474904</v>
       </c>
     </row>
@@ -21056,30 +21098,30 @@
         <v>0.26104746970098602</v>
       </c>
       <c r="F92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.43963606553610901</v>
       </c>
       <c r="I92">
         <v>2070</v>
       </c>
       <c r="J92" s="11">
-        <f>C92-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.6770514279089959E-2</v>
       </c>
       <c r="K92" s="11">
-        <f>D92-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.8940606742795E-2</v>
       </c>
       <c r="L92" s="11">
-        <f>E92-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.3554162455043021E-2</v>
       </c>
       <c r="M92" s="11">
-        <f>F92-F$47</f>
+        <f t="shared" si="5"/>
         <v>5.249476919783802E-2</v>
       </c>
       <c r="N92" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.5513045811045667</v>
       </c>
     </row>
@@ -21100,30 +21142,30 @@
         <v>0.26159402342173599</v>
       </c>
       <c r="F93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
         <v>0.44086315978795498</v>
       </c>
       <c r="I93">
         <v>2071</v>
       </c>
       <c r="J93" s="11">
-        <f>C93-C$47</f>
+        <f t="shared" si="2"/>
         <v>4.7704807379821967E-2</v>
       </c>
       <c r="K93" s="11">
-        <f>D93-D$47</f>
+        <f t="shared" si="3"/>
         <v>2.9621147273891008E-2</v>
       </c>
       <c r="L93" s="11">
-        <f>E93-E$47</f>
+        <f t="shared" si="4"/>
         <v>2.4100716175792986E-2</v>
       </c>
       <c r="M93" s="11">
-        <f>F93-F$47</f>
+        <f t="shared" si="5"/>
         <v>5.3721863449683993E-2</v>
       </c>
       <c r="N93" s="10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0.55137974321449656</v>
       </c>
     </row>
@@ -21133,6 +21175,3872 @@
 </file>
 
 <file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574DB6E-CE67-48F6-951B-22327034725B}">
+  <dimension ref="A1:Q93"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>323</v>
+      </c>
+      <c r="D1" t="s">
+        <v>324</v>
+      </c>
+      <c r="E1" t="s">
+        <v>321</v>
+      </c>
+      <c r="F1" t="s">
+        <v>325</v>
+      </c>
+      <c r="G1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" t="s">
+        <v>322</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1980</v>
+      </c>
+      <c r="B2" t="s">
+        <v>314</v>
+      </c>
+      <c r="C2" s="11">
+        <v>0.33358106902907397</v>
+      </c>
+      <c r="D2">
+        <v>134614</v>
+      </c>
+      <c r="E2" s="12">
+        <f>D2*C2</f>
+        <v>44904.682026279763</v>
+      </c>
+      <c r="F2" t="s">
+        <v>326</v>
+      </c>
+      <c r="G2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1981</v>
+      </c>
+      <c r="B3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C3" s="11">
+        <v>0.34234996327772499</v>
+      </c>
+      <c r="D3">
+        <v>152360</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E66" si="0">D3*C3</f>
+        <v>52160.44040499418</v>
+      </c>
+      <c r="F3" t="s">
+        <v>326</v>
+      </c>
+      <c r="G3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1982</v>
+      </c>
+      <c r="B4" t="s">
+        <v>314</v>
+      </c>
+      <c r="C4" s="11">
+        <v>0.34243956831667399</v>
+      </c>
+      <c r="D4">
+        <v>175860</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>60221.422484170289</v>
+      </c>
+      <c r="F4" t="s">
+        <v>326</v>
+      </c>
+      <c r="G4" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1983</v>
+      </c>
+      <c r="B5" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="11">
+        <v>0.36969617117710601</v>
+      </c>
+      <c r="D5">
+        <v>189415</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>70026.000263511538</v>
+      </c>
+      <c r="F5" t="s">
+        <v>326</v>
+      </c>
+      <c r="G5" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1984</v>
+      </c>
+      <c r="B6" t="s">
+        <v>314</v>
+      </c>
+      <c r="C6" s="11">
+        <v>0.37465388213283402</v>
+      </c>
+      <c r="D6">
+        <v>213694</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>80061.286688493827</v>
+      </c>
+      <c r="F6" t="s">
+        <v>326</v>
+      </c>
+      <c r="G6" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>1985</v>
+      </c>
+      <c r="B7" t="s">
+        <v>314</v>
+      </c>
+      <c r="C7" s="11">
+        <v>0.38535363186614902</v>
+      </c>
+      <c r="D7">
+        <v>235504</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>90752.321719005558</v>
+      </c>
+      <c r="F7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G7" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>1986</v>
+      </c>
+      <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="C8" s="11">
+        <v>0.38723092726603697</v>
+      </c>
+      <c r="D8">
+        <v>260876</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>101019.25538145466</v>
+      </c>
+      <c r="F8" t="s">
+        <v>326</v>
+      </c>
+      <c r="G8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1987</v>
+      </c>
+      <c r="B9" t="s">
+        <v>314</v>
+      </c>
+      <c r="C9" s="11">
+        <v>0.387584900913995</v>
+      </c>
+      <c r="D9">
+        <v>286367</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>110991.52532003801</v>
+      </c>
+      <c r="F9" t="s">
+        <v>326</v>
+      </c>
+      <c r="G9" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>1988</v>
+      </c>
+      <c r="B10" t="s">
+        <v>314</v>
+      </c>
+      <c r="C10" s="11">
+        <v>0.36184958279045298</v>
+      </c>
+      <c r="D10">
+        <v>324582</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>117449.86128129081</v>
+      </c>
+      <c r="F10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G10" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>1989</v>
+      </c>
+      <c r="B11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C11" s="11">
+        <v>0.34642664227335501</v>
+      </c>
+      <c r="D11">
+        <v>368281</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>127582.35024307345</v>
+      </c>
+      <c r="F11" t="s">
+        <v>326</v>
+      </c>
+      <c r="G11" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>1990</v>
+      </c>
+      <c r="B12" t="s">
+        <v>314</v>
+      </c>
+      <c r="C12" s="11">
+        <v>0.34313739991322501</v>
+      </c>
+      <c r="D12">
+        <v>404704</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>138869.07829448182</v>
+      </c>
+      <c r="F12" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1991</v>
+      </c>
+      <c r="B13" t="s">
+        <v>314</v>
+      </c>
+      <c r="C13" s="11">
+        <v>0.35779644247365799</v>
+      </c>
+      <c r="D13">
+        <v>415332</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="0"/>
+        <v>148604.31204546933</v>
+      </c>
+      <c r="F13" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>1992</v>
+      </c>
+      <c r="B14" t="s">
+        <v>314</v>
+      </c>
+      <c r="C14" s="11">
+        <v>0.373779001662636</v>
+      </c>
+      <c r="D14">
+        <v>423281</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="0"/>
+        <v>158213.54960276224</v>
+      </c>
+      <c r="F14" t="s">
+        <v>326</v>
+      </c>
+      <c r="G14" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>1993</v>
+      </c>
+      <c r="B15" t="s">
+        <v>314</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0.37268094378441202</v>
+      </c>
+      <c r="D15">
+        <v>444230</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="0"/>
+        <v>165556.05565734935</v>
+      </c>
+      <c r="F15" t="s">
+        <v>326</v>
+      </c>
+      <c r="G15" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>1994</v>
+      </c>
+      <c r="B16" t="s">
+        <v>314</v>
+      </c>
+      <c r="C16" s="11">
+        <v>0.37098807517655702</v>
+      </c>
+      <c r="D16">
+        <v>466618</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="0"/>
+        <v>173109.71366273469</v>
+      </c>
+      <c r="F16" t="s">
+        <v>326</v>
+      </c>
+      <c r="G16" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>1995</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17" s="11">
+        <v>0.37117244908856101</v>
+      </c>
+      <c r="D17">
+        <v>495847</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="0"/>
+        <v>184044.74536321571</v>
+      </c>
+      <c r="F17" t="s">
+        <v>326</v>
+      </c>
+      <c r="G17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>1996</v>
+      </c>
+      <c r="B18" t="s">
+        <v>314</v>
+      </c>
+      <c r="C18" s="11">
+        <v>0.36582092824579798</v>
+      </c>
+      <c r="D18">
+        <v>528970</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="0"/>
+        <v>193508.29641417976</v>
+      </c>
+      <c r="F18" t="s">
+        <v>326</v>
+      </c>
+      <c r="G18" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>1997</v>
+      </c>
+      <c r="B19" t="s">
+        <v>314</v>
+      </c>
+      <c r="C19" s="11">
+        <v>0.356710575079068</v>
+      </c>
+      <c r="D19">
+        <v>556666</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="0"/>
+        <v>198568.64898696446</v>
+      </c>
+      <c r="F19" t="s">
+        <v>326</v>
+      </c>
+      <c r="G19" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>1998</v>
+      </c>
+      <c r="B20" t="s">
+        <v>314</v>
+      </c>
+      <c r="C20" s="11">
+        <v>0.34288859899267699</v>
+      </c>
+      <c r="D20">
+        <v>589241</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="0"/>
+        <v>202044.02095904399</v>
+      </c>
+      <c r="F20" t="s">
+        <v>326</v>
+      </c>
+      <c r="G20" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21" t="s">
+        <v>314</v>
+      </c>
+      <c r="C21" s="11">
+        <v>0.34602571046080499</v>
+      </c>
+      <c r="D21">
+        <v>621808</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="0"/>
+        <v>215161.55497021222</v>
+      </c>
+      <c r="F21" t="s">
+        <v>326</v>
+      </c>
+      <c r="G21" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="s">
+        <v>314</v>
+      </c>
+      <c r="C22" s="11">
+        <v>0.345364892411548</v>
+      </c>
+      <c r="D22">
+        <v>662676</v>
+      </c>
+      <c r="E22" s="12">
+        <f t="shared" si="0"/>
+        <v>228865.02544371499</v>
+      </c>
+      <c r="F22" t="s">
+        <v>326</v>
+      </c>
+      <c r="G22" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>314</v>
+      </c>
+      <c r="C23" s="11">
+        <v>0.35134383007817499</v>
+      </c>
+      <c r="D23">
+        <v>707404</v>
+      </c>
+      <c r="E23" s="12">
+        <f t="shared" si="0"/>
+        <v>248542.03077262131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>326</v>
+      </c>
+      <c r="G23" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>314</v>
+      </c>
+      <c r="C24" s="11">
+        <v>0.34590256258394803</v>
+      </c>
+      <c r="D24">
+        <v>756448</v>
+      </c>
+      <c r="E24" s="12">
+        <f t="shared" si="0"/>
+        <v>261657.30166150231</v>
+      </c>
+      <c r="F24" t="s">
+        <v>326</v>
+      </c>
+      <c r="G24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>314</v>
+      </c>
+      <c r="C25" s="11">
+        <v>0.33945942449408101</v>
+      </c>
+      <c r="D25">
+        <v>803110</v>
+      </c>
+      <c r="E25" s="12">
+        <f t="shared" si="0"/>
+        <v>272623.25840544142</v>
+      </c>
+      <c r="F25">
+        <v>268.8</v>
+      </c>
+      <c r="G25">
+        <v>280.39999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>314</v>
+      </c>
+      <c r="C26" s="11">
+        <v>0.33830352760310101</v>
+      </c>
+      <c r="D26">
+        <v>864091</v>
+      </c>
+      <c r="E26" s="12">
+        <f t="shared" si="0"/>
+        <v>292325.03347009118</v>
+      </c>
+      <c r="F26">
+        <v>289.3</v>
+      </c>
+      <c r="G26">
+        <v>304.3</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" ref="K26:K39" si="1">G26/G25-1</f>
+        <v>8.5235378031383924E-2</v>
+      </c>
+      <c r="L26" s="10">
+        <f>G26*1000/D26</f>
+        <v>0.3521619829392969</v>
+      </c>
+      <c r="M26" s="10">
+        <f>F26*1000/D26</f>
+        <v>0.33480270017856917</v>
+      </c>
+      <c r="N26" s="10"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>314</v>
+      </c>
+      <c r="C27" s="11">
+        <v>0.33742978362875198</v>
+      </c>
+      <c r="D27">
+        <v>925444</v>
+      </c>
+      <c r="E27" s="12">
+        <f t="shared" si="0"/>
+        <v>312272.36868052674</v>
+      </c>
+      <c r="F27">
+        <v>308.10000000000002</v>
+      </c>
+      <c r="G27">
+        <v>328.9</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0841275057508932E-2</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" ref="L27:L90" si="2">G27*1000/D27</f>
+        <v>0.35539697701859863</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" ref="M27:M90" si="3">F27*1000/D27</f>
+        <v>0.33292127886722483</v>
+      </c>
+      <c r="N27" s="10"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>2006</v>
+      </c>
+      <c r="B28" t="s">
+        <v>314</v>
+      </c>
+      <c r="C28" s="11">
+        <v>0.33451384417256902</v>
+      </c>
+      <c r="D28">
+        <v>999587</v>
+      </c>
+      <c r="E28" s="12">
+        <f t="shared" si="0"/>
+        <v>334375.68995492574</v>
+      </c>
+      <c r="F28">
+        <v>327</v>
+      </c>
+      <c r="G28">
+        <v>355.9</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="1"/>
+        <v>8.2091821222256112E-2</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35604704743058885</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="3"/>
+        <v>0.32713510679910801</v>
+      </c>
+      <c r="N28" s="10"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2007</v>
+      </c>
+      <c r="B29" t="s">
+        <v>314</v>
+      </c>
+      <c r="C29" s="11">
+        <v>0.33025060049066801</v>
+      </c>
+      <c r="D29">
+        <v>1089025</v>
+      </c>
+      <c r="E29" s="12">
+        <f t="shared" si="0"/>
+        <v>359651.16019934975</v>
+      </c>
+      <c r="F29">
+        <v>352.5</v>
+      </c>
+      <c r="G29">
+        <v>380.9</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="1"/>
+        <v>7.0244450688395688E-2</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34976240214871102</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="3"/>
+        <v>0.32368402929225681</v>
+      </c>
+      <c r="N29" s="10"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2008</v>
+      </c>
+      <c r="B30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C30" s="11">
+        <v>0.32995604609861401</v>
+      </c>
+      <c r="D30">
+        <v>1179633</v>
+      </c>
+      <c r="E30" s="12">
+        <f t="shared" si="0"/>
+        <v>389227.04052744631</v>
+      </c>
+      <c r="F30">
+        <v>379.3</v>
+      </c>
+      <c r="G30">
+        <v>411.4</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0073510107639745E-2</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34875253574628717</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="3"/>
+        <v>0.32154068256822249</v>
+      </c>
+      <c r="N30" s="10"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2009</v>
+      </c>
+      <c r="B31" t="s">
+        <v>314</v>
+      </c>
+      <c r="C31" s="11">
+        <v>0.35162931765015498</v>
+      </c>
+      <c r="D31">
+        <v>1261444</v>
+      </c>
+      <c r="E31" s="12">
+        <f t="shared" si="0"/>
+        <v>443560.69297388208</v>
+      </c>
+      <c r="F31">
+        <v>431.2</v>
+      </c>
+      <c r="G31">
+        <v>409.8</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="1"/>
+        <v>-3.8891589693728079E-3</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32486578873100985</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34183047364766095</v>
+      </c>
+      <c r="N31" s="10"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2010</v>
+      </c>
+      <c r="B32" t="s">
+        <v>314</v>
+      </c>
+      <c r="C32" s="11">
+        <v>0.35752057553956801</v>
+      </c>
+      <c r="D32">
+        <v>1304323</v>
+      </c>
+      <c r="E32" s="12">
+        <f t="shared" si="0"/>
+        <v>466322.30964949599</v>
+      </c>
+      <c r="F32">
+        <v>451.6</v>
+      </c>
+      <c r="G32">
+        <v>409.7</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="1"/>
+        <v>-2.4402147388979945E-4</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31410931188056945</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34623325663965138</v>
+      </c>
+      <c r="N32" s="10"/>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2011</v>
+      </c>
+      <c r="B33" t="s">
+        <v>314</v>
+      </c>
+      <c r="C33" s="11">
+        <v>0.34822504121705</v>
+      </c>
+      <c r="D33">
+        <v>1418560</v>
+      </c>
+      <c r="E33" s="12">
+        <f t="shared" si="0"/>
+        <v>493978.11446885846</v>
+      </c>
+      <c r="F33">
+        <v>476.4</v>
+      </c>
+      <c r="G33">
+        <v>437</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="1"/>
+        <v>6.6634122528679507E-2</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="2"/>
+        <v>0.30805887660726372</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3358335213173923</v>
+      </c>
+      <c r="N33" s="10"/>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2012</v>
+      </c>
+      <c r="B34" t="s">
+        <v>314</v>
+      </c>
+      <c r="C34" s="11">
+        <v>0.35105410144746801</v>
+      </c>
+      <c r="D34">
+        <v>1500738</v>
+      </c>
+      <c r="E34" s="12">
+        <f t="shared" si="0"/>
+        <v>526840.23009807023</v>
+      </c>
+      <c r="F34">
+        <v>511.4</v>
+      </c>
+      <c r="G34">
+        <v>472.2</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="1"/>
+        <v>8.0549199084668066E-2</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="2"/>
+        <v>0.31464519456427437</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34076567662043605</v>
+      </c>
+      <c r="N34" s="10"/>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2013</v>
+      </c>
+      <c r="B35" t="s">
+        <v>314</v>
+      </c>
+      <c r="C35" s="11">
+        <v>0.34588674935744701</v>
+      </c>
+      <c r="D35">
+        <v>1537270</v>
+      </c>
+      <c r="E35" s="12">
+        <f t="shared" si="0"/>
+        <v>531721.32318472257</v>
+      </c>
+      <c r="F35">
+        <v>528</v>
+      </c>
+      <c r="G35">
+        <v>504</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="1"/>
+        <v>6.7344345616264345E-2</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3278539228632576</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34346601442817465</v>
+      </c>
+      <c r="N35" s="10"/>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2014</v>
+      </c>
+      <c r="B36" t="s">
+        <v>314</v>
+      </c>
+      <c r="C36" s="11">
+        <v>0.347643589009624</v>
+      </c>
+      <c r="D36">
+        <v>1599336</v>
+      </c>
+      <c r="E36" s="12">
+        <f t="shared" si="0"/>
+        <v>555998.90707229602</v>
+      </c>
+      <c r="F36">
+        <v>551.29999999999995</v>
+      </c>
+      <c r="G36">
+        <v>524.4</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="1"/>
+        <v>4.0476190476190332E-2</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32788607272017889</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34470555280441384</v>
+      </c>
+      <c r="N36" s="10"/>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2015</v>
+      </c>
+      <c r="B37" t="s">
+        <v>314</v>
+      </c>
+      <c r="C37" s="11">
+        <v>0.35031740028654101</v>
+      </c>
+      <c r="D37">
+        <v>1624167</v>
+      </c>
+      <c r="E37" s="12">
+        <f t="shared" si="0"/>
+        <v>568973.96107119042</v>
+      </c>
+      <c r="F37">
+        <v>569.1</v>
+      </c>
+      <c r="G37">
+        <v>540.70000000000005</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="1"/>
+        <v>3.1083142639206862E-2</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3329091158729367</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35039500248435046</v>
+      </c>
+      <c r="N37" s="10"/>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2016</v>
+      </c>
+      <c r="B38" t="s">
+        <v>314</v>
+      </c>
+      <c r="C38" s="11">
+        <v>0.356054985106391</v>
+      </c>
+      <c r="D38">
+        <v>1657916</v>
+      </c>
+      <c r="E38" s="12">
+        <f t="shared" si="0"/>
+        <v>590309.25668764731</v>
+      </c>
+      <c r="F38">
+        <v>585.5</v>
+      </c>
+      <c r="G38">
+        <v>561.5</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="1"/>
+        <v>3.8468651747734395E-2</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33867819600027987</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35315420081596416</v>
+      </c>
+      <c r="N38" s="10"/>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2017</v>
+      </c>
+      <c r="B39" t="s">
+        <v>314</v>
+      </c>
+      <c r="C39" s="11">
+        <v>0.35146401126451499</v>
+      </c>
+      <c r="D39">
+        <v>1757656</v>
+      </c>
+      <c r="E39" s="12">
+        <f t="shared" si="0"/>
+        <v>617752.82818314235</v>
+      </c>
+      <c r="F39">
+        <v>607.70000000000005</v>
+      </c>
+      <c r="G39">
+        <v>593.29999999999995</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="1"/>
+        <v>5.6634016028495049E-2</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33755183039229519</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34574455980009738</v>
+      </c>
+      <c r="N39" s="10"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2018</v>
+      </c>
+      <c r="B40" t="s">
+        <v>314</v>
+      </c>
+      <c r="C40" s="11">
+        <v>0.35128239092999702</v>
+      </c>
+      <c r="D40">
+        <v>1842048</v>
+      </c>
+      <c r="E40" s="12">
+        <f t="shared" si="0"/>
+        <v>647079.02564781916</v>
+      </c>
+      <c r="F40">
+        <v>631.79999999999995</v>
+      </c>
+      <c r="G40">
+        <v>640.79999999999995</v>
+      </c>
+      <c r="K40" s="10">
+        <f>G40/G39-1</f>
+        <v>8.0060677566155425E-2</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34787367104440275</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34298780487804881</v>
+      </c>
+      <c r="N40" s="10"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2019</v>
+      </c>
+      <c r="B41" t="s">
+        <v>314</v>
+      </c>
+      <c r="C41" s="11">
+        <v>0.35037060286341998</v>
+      </c>
+      <c r="D41">
+        <v>1947322</v>
+      </c>
+      <c r="E41" s="12">
+        <f t="shared" si="0"/>
+        <v>682284.38310920075</v>
+      </c>
+      <c r="F41">
+        <v>664.6</v>
+      </c>
+      <c r="G41">
+        <v>680.6</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" ref="K41:K93" si="4">G41/G40-1</f>
+        <v>6.2109862671660521E-2</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34950562875579899</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34128921667808404</v>
+      </c>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2020</v>
+      </c>
+      <c r="B42" t="s">
+        <v>314</v>
+      </c>
+      <c r="C42" s="11">
+        <v>0.39912534970861802</v>
+      </c>
+      <c r="D42">
+        <v>1981664</v>
+      </c>
+      <c r="E42" s="12">
+        <f t="shared" si="0"/>
+        <v>790932.33700497879</v>
+      </c>
+      <c r="F42">
+        <v>777.4</v>
+      </c>
+      <c r="G42">
+        <v>670.6</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="4"/>
+        <v>-1.4692918013517464E-2</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33840247388053674</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3922965749995963</v>
+      </c>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2021</v>
+      </c>
+      <c r="B43" t="s">
+        <v>314</v>
+      </c>
+      <c r="C43" s="11">
+        <v>0.42110218470466898</v>
+      </c>
+      <c r="D43">
+        <v>2085822</v>
+      </c>
+      <c r="E43" s="12">
+        <f t="shared" si="0"/>
+        <v>878344.20110506203</v>
+      </c>
+      <c r="F43">
+        <v>865.8</v>
+      </c>
+      <c r="G43">
+        <v>719</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="4"/>
+        <v>7.2174172382940549E-2</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34470822534233508</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="3"/>
+        <v>0.41508815229679236</v>
+      </c>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2022</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" s="11">
+        <v>0.37954043112125502</v>
+      </c>
+      <c r="D44">
+        <v>2330329</v>
+      </c>
+      <c r="E44" s="12">
+        <f t="shared" si="0"/>
+        <v>884454.07331436314</v>
+      </c>
+      <c r="F44">
+        <v>857.9</v>
+      </c>
+      <c r="G44">
+        <v>824</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="4"/>
+        <v>0.14603616133518771</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35359814000512374</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36814544212426659</v>
+      </c>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2023</v>
+      </c>
+      <c r="B45" t="s">
+        <v>314</v>
+      </c>
+      <c r="C45" s="11">
+        <v>0.35903576431439599</v>
+      </c>
+      <c r="D45">
+        <v>2567512</v>
+      </c>
+      <c r="E45" s="12">
+        <f t="shared" si="0"/>
+        <v>921828.6333063835</v>
+      </c>
+      <c r="F45">
+        <v>890.8</v>
+      </c>
+      <c r="G45">
+        <v>906.8</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="4"/>
+        <v>0.10048543689320377</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="2"/>
+        <v>0.35318238045236011</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34695066663758534</v>
+      </c>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>314</v>
+      </c>
+      <c r="C46" s="11">
+        <v>0.37337145704237501</v>
+      </c>
+      <c r="D46">
+        <v>2673672</v>
+      </c>
+      <c r="E46" s="12">
+        <f t="shared" si="0"/>
+        <v>998272.81029340089</v>
+      </c>
+      <c r="F46">
+        <v>935.8</v>
+      </c>
+      <c r="G46">
+        <v>932.9</v>
+      </c>
+      <c r="H46" s="13">
+        <f>49.8/100*D46</f>
+        <v>1331488.656</v>
+      </c>
+      <c r="I46" s="10">
+        <f>H46/D46</f>
+        <v>0.498</v>
+      </c>
+      <c r="J46" s="12">
+        <f>G46-F46</f>
+        <v>-2.8999999999999773</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="4"/>
+        <v>2.8782531980591219E-2</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34892088483553707</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35000553545835089</v>
+      </c>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10">
+        <f>(G46/G26)^(1/20)-1</f>
+        <v>5.7612699459864247E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2025</v>
+      </c>
+      <c r="B47" t="s">
+        <v>315</v>
+      </c>
+      <c r="C47" s="11">
+        <v>0.36987750244790102</v>
+      </c>
+      <c r="D47">
+        <v>2787609</v>
+      </c>
+      <c r="E47" s="12">
+        <f t="shared" si="0"/>
+        <v>1031073.8547212909</v>
+      </c>
+      <c r="F47">
+        <v>957.1</v>
+      </c>
+      <c r="G47">
+        <v>934.5</v>
+      </c>
+      <c r="H47" s="12">
+        <f>H46+F47*1000-G47*1000</f>
+        <v>1354088.656</v>
+      </c>
+      <c r="I47" s="10">
+        <f>H47/D47</f>
+        <v>0.48575272070078696</v>
+      </c>
+      <c r="J47" s="12">
+        <f t="shared" ref="J47:J93" si="5">G47-F47</f>
+        <v>-22.600000000000023</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="4"/>
+        <v>1.7150820023583702E-3</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33523352808804963</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34334083438531016</v>
+      </c>
+      <c r="N47" s="10"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2026</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48" s="11">
+        <v>0.37220766774599501</v>
+      </c>
+      <c r="D48">
+        <v>2879792</v>
+      </c>
+      <c r="E48" s="12">
+        <f t="shared" si="0"/>
+        <v>1071880.6639135745</v>
+      </c>
+      <c r="F48">
+        <v>985.6</v>
+      </c>
+      <c r="G48">
+        <v>975.7</v>
+      </c>
+      <c r="H48" s="12">
+        <f>H47+F48*1000-G48*1000</f>
+        <v>1363988.656</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" ref="I48:I93" si="6">H48/D48</f>
+        <v>0.47364137965519731</v>
+      </c>
+      <c r="J48" s="12">
+        <f t="shared" si="5"/>
+        <v>-9.8999999999999773</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4087747458533944E-2</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33880919177496155</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34224694005678186</v>
+      </c>
+      <c r="N48" s="10"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2027</v>
+      </c>
+      <c r="B49" t="s">
+        <v>315</v>
+      </c>
+      <c r="C49" s="11">
+        <v>0.37428677801829902</v>
+      </c>
+      <c r="D49">
+        <v>2992714</v>
+      </c>
+      <c r="E49" s="12">
+        <f t="shared" si="0"/>
+        <v>1120133.2805902557</v>
+      </c>
+      <c r="F49">
+        <v>1021.2</v>
+      </c>
+      <c r="G49">
+        <v>1018.7</v>
+      </c>
+      <c r="H49" s="12">
+        <f t="shared" ref="H49:H93" si="7">H48+F49*1000-G49*1000</f>
+        <v>1366488.656</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="6"/>
+        <v>0.45660516039955706</v>
+      </c>
+      <c r="J49" s="12">
+        <f t="shared" si="5"/>
+        <v>-2.5</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="4"/>
+        <v>4.4070923439581744E-2</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="2"/>
+        <v>0.34039336869477005</v>
+      </c>
+      <c r="M49" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34122873084431055</v>
+      </c>
+      <c r="N49" s="10"/>
+      <c r="O49" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2028</v>
+      </c>
+      <c r="B50" t="s">
+        <v>315</v>
+      </c>
+      <c r="C50" s="11">
+        <v>0.37589390528389099</v>
+      </c>
+      <c r="D50">
+        <v>3148870</v>
+      </c>
+      <c r="E50" s="12">
+        <f t="shared" si="0"/>
+        <v>1183641.0415312857</v>
+      </c>
+      <c r="F50" s="14">
+        <f>$F$49*E50/E$49</f>
+        <v>1079.0985792108638</v>
+      </c>
+      <c r="G50" s="15">
+        <f>G49*(1+$O$50)-15</f>
+        <v>1051.5789</v>
+      </c>
+      <c r="H50" s="12">
+        <f>H49+F50*1000-G50*1000</f>
+        <v>1394008.335210864</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4427011388881929</v>
+      </c>
+      <c r="J50" s="12">
+        <f t="shared" si="5"/>
+        <v>-27.519679210863842</v>
+      </c>
+      <c r="K50" s="10">
+        <f>G50/G49-1</f>
+        <v>3.227535093746936E-2</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" si="2"/>
+        <v>0.33395437093306485</v>
+      </c>
+      <c r="M50" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34269391216876655</v>
+      </c>
+      <c r="N50" s="10"/>
+      <c r="O50" s="10">
+        <v>4.7E-2</v>
+      </c>
+      <c r="Q50" s="10">
+        <v>4.7E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2029</v>
+      </c>
+      <c r="B51" t="s">
+        <v>315</v>
+      </c>
+      <c r="C51" s="11">
+        <v>0.37712298759094898</v>
+      </c>
+      <c r="D51">
+        <v>3320000</v>
+      </c>
+      <c r="E51" s="12">
+        <f t="shared" si="0"/>
+        <v>1252048.3188019507</v>
+      </c>
+      <c r="F51" s="14">
+        <f t="shared" ref="F51:F93" si="8">$F$49*E51/E$49</f>
+        <v>1141.4639358691284</v>
+      </c>
+      <c r="G51" s="15">
+        <f>G50*(1+$O$50)-15</f>
+        <v>1086.0031082999999</v>
+      </c>
+      <c r="H51" s="12">
+        <f t="shared" si="7"/>
+        <v>1449469.1627799924</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4365870972228893</v>
+      </c>
+      <c r="J51" s="12">
+        <f t="shared" si="5"/>
+        <v>-55.460827569128469</v>
+      </c>
+      <c r="K51" s="10">
+        <f>G51/G50-1</f>
+        <v>3.2735735093201157E-2</v>
+      </c>
+      <c r="L51" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M51" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3438144385147977</v>
+      </c>
+      <c r="N51" s="10"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2030</v>
+      </c>
+      <c r="B52" t="s">
+        <v>315</v>
+      </c>
+      <c r="C52" s="11">
+        <v>0.37803153985377203</v>
+      </c>
+      <c r="D52" s="15">
+        <f>D51*(1+$Q$50)</f>
+        <v>3476040</v>
+      </c>
+      <c r="E52" s="12">
+        <f t="shared" si="0"/>
+        <v>1314052.7537933057</v>
+      </c>
+      <c r="F52" s="14">
+        <f t="shared" si="8"/>
+        <v>1197.9919670511015</v>
+      </c>
+      <c r="G52" s="15">
+        <f>G51*(1+$O$50)</f>
+        <v>1137.0452543900999</v>
+      </c>
+      <c r="H52" s="12">
+        <f t="shared" si="7"/>
+        <v>1510415.875440994</v>
+      </c>
+      <c r="I52" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43452200649042994</v>
+      </c>
+      <c r="J52" s="12">
+        <f t="shared" si="5"/>
+        <v>-60.946712661001584</v>
+      </c>
+      <c r="K52" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L52" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M52" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34464274491982294</v>
+      </c>
+      <c r="N52" s="10"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2031</v>
+      </c>
+      <c r="B53" t="s">
+        <v>315</v>
+      </c>
+      <c r="C53" s="11">
+        <v>0.37895824511592702</v>
+      </c>
+      <c r="D53" s="15">
+        <f t="shared" ref="D53:D93" si="9">D52*(1+$Q$50)</f>
+        <v>3639413.88</v>
+      </c>
+      <c r="E53" s="12">
+        <f t="shared" si="0"/>
+        <v>1379185.897215347</v>
+      </c>
+      <c r="F53" s="14">
+        <f t="shared" si="8"/>
+        <v>1257.3723704505423</v>
+      </c>
+      <c r="G53" s="15">
+        <f>G52*(1+$O$50)</f>
+        <v>1190.4863813464344</v>
+      </c>
+      <c r="H53" s="12">
+        <f t="shared" si="7"/>
+        <v>1577301.8645451022</v>
+      </c>
+      <c r="I53" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43339447409732423</v>
+      </c>
+      <c r="J53" s="12">
+        <f t="shared" si="5"/>
+        <v>-66.885989104107921</v>
+      </c>
+      <c r="K53" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L53" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M53" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34548760100089038</v>
+      </c>
+      <c r="N53" s="10"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>2032</v>
+      </c>
+      <c r="B54" t="s">
+        <v>315</v>
+      </c>
+      <c r="C54" s="11">
+        <v>0.37979575514257002</v>
+      </c>
+      <c r="D54" s="15">
+        <f t="shared" si="9"/>
+        <v>3810466.3323599994</v>
+      </c>
+      <c r="E54" s="12">
+        <f t="shared" si="0"/>
+        <v>1447198.9381440051</v>
+      </c>
+      <c r="F54" s="14">
+        <f t="shared" si="8"/>
+        <v>1319.3783108148411</v>
+      </c>
+      <c r="G54" s="15">
+        <f>G53*(1+$O$50)</f>
+        <v>1246.4392412697168</v>
+      </c>
+      <c r="H54" s="12">
+        <f t="shared" si="7"/>
+        <v>1650240.9340902267</v>
+      </c>
+      <c r="I54" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43308109563276354</v>
+      </c>
+      <c r="J54" s="12">
+        <f t="shared" si="5"/>
+        <v>-72.939069545124312</v>
+      </c>
+      <c r="K54" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L54" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M54" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34625113981723299</v>
+      </c>
+      <c r="N54" s="10"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>2033</v>
+      </c>
+      <c r="B55" t="s">
+        <v>315</v>
+      </c>
+      <c r="C55" s="11">
+        <v>0.38063194594532901</v>
+      </c>
+      <c r="D55" s="15">
+        <f t="shared" si="9"/>
+        <v>3989558.2499809191</v>
+      </c>
+      <c r="E55" s="12">
+        <f t="shared" si="0"/>
+        <v>1518553.3201524785</v>
+      </c>
+      <c r="F55" s="14">
+        <f t="shared" si="8"/>
+        <v>1384.4304757399434</v>
+      </c>
+      <c r="G55" s="15">
+        <f>G54*(1+$O$50)</f>
+        <v>1305.0218856093934</v>
+      </c>
+      <c r="H55" s="12">
+        <f t="shared" si="7"/>
+        <v>1729649.5242207763</v>
+      </c>
+      <c r="I55" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43354412088833361</v>
+      </c>
+      <c r="J55" s="12">
+        <f t="shared" si="5"/>
+        <v>-79.40859013055001</v>
+      </c>
+      <c r="K55" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L55" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M55" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34701347592720688</v>
+      </c>
+      <c r="N55" s="10"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>2034</v>
+      </c>
+      <c r="B56" t="s">
+        <v>315</v>
+      </c>
+      <c r="C56" s="11">
+        <v>0.38154109070985198</v>
+      </c>
+      <c r="D56" s="15">
+        <f t="shared" si="9"/>
+        <v>4177067.4877300221</v>
+      </c>
+      <c r="E56" s="12">
+        <f t="shared" si="0"/>
+        <v>1593722.8852371739</v>
+      </c>
+      <c r="F56" s="14">
+        <f t="shared" si="8"/>
+        <v>1452.9608561818495</v>
+      </c>
+      <c r="G56" s="15">
+        <f>G55*(1+$O$50)</f>
+        <v>1366.3579142330348</v>
+      </c>
+      <c r="H56" s="12">
+        <f t="shared" si="7"/>
+        <v>1816252.4661695908</v>
+      </c>
+      <c r="I56" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43481520744033075</v>
+      </c>
+      <c r="J56" s="12">
+        <f t="shared" si="5"/>
+        <v>-86.60294194881476</v>
+      </c>
+      <c r="K56" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L56" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M56" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34784232250253727</v>
+      </c>
+      <c r="N56" s="10"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>2035</v>
+      </c>
+      <c r="B57" t="s">
+        <v>315</v>
+      </c>
+      <c r="C57" s="11">
+        <v>0.38230505070168502</v>
+      </c>
+      <c r="D57" s="15">
+        <f t="shared" si="9"/>
+        <v>4373389.659653333</v>
+      </c>
+      <c r="E57" s="12">
+        <f t="shared" si="0"/>
+        <v>1671968.9555719926</v>
+      </c>
+      <c r="F57" s="14">
+        <f t="shared" si="8"/>
+        <v>1524.2960163904731</v>
+      </c>
+      <c r="G57" s="15">
+        <f>G56*(1+$O$50)</f>
+        <v>1430.5767362019874</v>
+      </c>
+      <c r="H57" s="12">
+        <f t="shared" si="7"/>
+        <v>1909971.7463580763</v>
+      </c>
+      <c r="I57" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43672571963539025</v>
+      </c>
+      <c r="J57" s="12">
+        <f t="shared" si="5"/>
+        <v>-93.719280188485754</v>
+      </c>
+      <c r="K57" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L57" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M57" s="10">
+        <f t="shared" si="3"/>
+        <v>0.34853880742730342</v>
+      </c>
+      <c r="N57" s="10"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>2036</v>
+      </c>
+      <c r="B58" t="s">
+        <v>315</v>
+      </c>
+      <c r="C58" s="11">
+        <v>0.38349201074407901</v>
+      </c>
+      <c r="D58" s="15">
+        <f t="shared" si="9"/>
+        <v>4578938.973657039</v>
+      </c>
+      <c r="E58" s="12">
+        <f t="shared" si="0"/>
+        <v>1755986.5140821673</v>
+      </c>
+      <c r="F58" s="14">
+        <f t="shared" si="8"/>
+        <v>1600.8929109183982</v>
+      </c>
+      <c r="G58" s="15">
+        <f>G57*(1+$O$50)</f>
+        <v>1497.8138428034806</v>
+      </c>
+      <c r="H58" s="12">
+        <f t="shared" si="7"/>
+        <v>2013050.8144729943</v>
+      </c>
+      <c r="I58" s="10">
+        <f t="shared" si="6"/>
+        <v>0.43963259306451091</v>
+      </c>
+      <c r="J58" s="12">
+        <f t="shared" si="5"/>
+        <v>-103.07906811491762</v>
+      </c>
+      <c r="K58" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L58" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M58" s="10">
+        <f t="shared" si="3"/>
+        <v>0.349620931864008</v>
+      </c>
+      <c r="N58" s="10"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>2037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>315</v>
+      </c>
+      <c r="C59" s="11">
+        <v>0.385130533978157</v>
+      </c>
+      <c r="D59" s="15">
+        <f t="shared" si="9"/>
+        <v>4794149.1054189196</v>
+      </c>
+      <c r="E59" s="12">
+        <f t="shared" si="0"/>
+        <v>1846373.2049408923</v>
+      </c>
+      <c r="F59" s="14">
+        <f t="shared" si="8"/>
+        <v>1683.2963983465108</v>
+      </c>
+      <c r="G59" s="15">
+        <f>G58*(1+$O$50)</f>
+        <v>1568.211093415244</v>
+      </c>
+      <c r="H59" s="12">
+        <f t="shared" si="7"/>
+        <v>2128136.1194042615</v>
+      </c>
+      <c r="I59" s="10">
+        <f t="shared" si="6"/>
+        <v>0.44390278078727002</v>
+      </c>
+      <c r="J59" s="12">
+        <f t="shared" si="5"/>
+        <v>-115.08530493126682</v>
+      </c>
+      <c r="K59" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L59" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M59" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35111473617786487</v>
+      </c>
+      <c r="N59" s="10"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>2038</v>
+      </c>
+      <c r="B60" t="s">
+        <v>315</v>
+      </c>
+      <c r="C60" s="11">
+        <v>0.38687794265641201</v>
+      </c>
+      <c r="D60" s="15">
+        <f t="shared" si="9"/>
+        <v>5019474.1133736083</v>
+      </c>
+      <c r="E60" s="12">
+        <f t="shared" si="0"/>
+        <v>1941923.8181990993</v>
+      </c>
+      <c r="F60" s="14">
+        <f t="shared" si="8"/>
+        <v>1770.4077162138483</v>
+      </c>
+      <c r="G60" s="15">
+        <f>G59*(1+$O$50)</f>
+        <v>1641.9170148057603</v>
+      </c>
+      <c r="H60" s="12">
+        <f t="shared" si="7"/>
+        <v>2256626.8208123492</v>
+      </c>
+      <c r="I60" s="10">
+        <f t="shared" si="6"/>
+        <v>0.44957435178317146</v>
+      </c>
+      <c r="J60" s="12">
+        <f t="shared" si="5"/>
+        <v>-128.49070140808794</v>
+      </c>
+      <c r="K60" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L60" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M60" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3527078088712266</v>
+      </c>
+      <c r="N60" s="10"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>2039</v>
+      </c>
+      <c r="B61" t="s">
+        <v>315</v>
+      </c>
+      <c r="C61" s="11">
+        <v>0.38833190191146999</v>
+      </c>
+      <c r="D61" s="15">
+        <f t="shared" si="9"/>
+        <v>5255389.3967021676</v>
+      </c>
+      <c r="E61" s="12">
+        <f t="shared" si="0"/>
+        <v>2040835.3597067257</v>
+      </c>
+      <c r="F61" s="14">
+        <f t="shared" si="8"/>
+        <v>1860.5831158184037</v>
+      </c>
+      <c r="G61" s="15">
+        <f>G60*(1+$O$50)</f>
+        <v>1719.087114501631</v>
+      </c>
+      <c r="H61" s="12">
+        <f t="shared" si="7"/>
+        <v>2398122.822129122</v>
+      </c>
+      <c r="I61" s="10">
+        <f t="shared" si="6"/>
+        <v>0.4563168665739552</v>
+      </c>
+      <c r="J61" s="12">
+        <f t="shared" si="5"/>
+        <v>-141.49600131677266</v>
+      </c>
+      <c r="K61" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L61" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M61" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35403335040900041</v>
+      </c>
+      <c r="N61" s="10"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>2040</v>
+      </c>
+      <c r="B62" t="s">
+        <v>315</v>
+      </c>
+      <c r="C62" s="11">
+        <v>0.38967648259673199</v>
+      </c>
+      <c r="D62" s="15">
+        <f t="shared" si="9"/>
+        <v>5502392.698347169</v>
+      </c>
+      <c r="E62" s="12">
+        <f t="shared" si="0"/>
+        <v>2144153.0325578656</v>
+      </c>
+      <c r="F62" s="14">
+        <f t="shared" si="8"/>
+        <v>1954.775485015743</v>
+      </c>
+      <c r="G62" s="15">
+        <f>G61*(1+$O$50)</f>
+        <v>1799.8842088832075</v>
+      </c>
+      <c r="H62" s="12">
+        <f t="shared" si="7"/>
+        <v>2553014.0982616581</v>
+      </c>
+      <c r="I62" s="10">
+        <f t="shared" si="6"/>
+        <v>0.46398253236788112</v>
+      </c>
+      <c r="J62" s="12">
+        <f t="shared" si="5"/>
+        <v>-154.89127613253549</v>
+      </c>
+      <c r="K62" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L62" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M62" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35525917399587387</v>
+      </c>
+      <c r="N62" s="10"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>2041</v>
+      </c>
+      <c r="B63" t="s">
+        <v>315</v>
+      </c>
+      <c r="C63" s="11">
+        <v>0.390853722961716</v>
+      </c>
+      <c r="D63" s="15">
+        <f t="shared" si="9"/>
+        <v>5761005.1551694851</v>
+      </c>
+      <c r="E63" s="12">
+        <f t="shared" si="0"/>
+        <v>2251710.3128996314</v>
+      </c>
+      <c r="F63" s="14">
+        <f t="shared" si="8"/>
+        <v>2052.8330078018998</v>
+      </c>
+      <c r="G63" s="15">
+        <f>G62*(1+$O$50)</f>
+        <v>1884.4787667007181</v>
+      </c>
+      <c r="H63" s="12">
+        <f t="shared" si="7"/>
+        <v>2721368.3393628397</v>
+      </c>
+      <c r="I63" s="10">
+        <f t="shared" si="6"/>
+        <v>0.47237734840783679</v>
+      </c>
+      <c r="J63" s="12">
+        <f t="shared" si="5"/>
+        <v>-168.35424110118174</v>
+      </c>
+      <c r="K63" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L63" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M63" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35633243722405711</v>
+      </c>
+      <c r="N63" s="10"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>2042</v>
+      </c>
+      <c r="B64" t="s">
+        <v>315</v>
+      </c>
+      <c r="C64" s="11">
+        <v>0.39174276167073302</v>
+      </c>
+      <c r="D64" s="15">
+        <f t="shared" si="9"/>
+        <v>6031772.3974624509</v>
+      </c>
+      <c r="E64" s="12">
+        <f t="shared" si="0"/>
+        <v>2362903.1767512388</v>
+      </c>
+      <c r="F64" s="14">
+        <f t="shared" si="8"/>
+        <v>2154.2050092707123</v>
+      </c>
+      <c r="G64" s="15">
+        <f>G63*(1+$O$50)</f>
+        <v>1973.0492687356518</v>
+      </c>
+      <c r="H64" s="12">
+        <f t="shared" si="7"/>
+        <v>2902524.0798979001</v>
+      </c>
+      <c r="I64" s="10">
+        <f t="shared" si="6"/>
+        <v>0.48120583613516044</v>
+      </c>
+      <c r="J64" s="12">
+        <f t="shared" si="5"/>
+        <v>-181.15574053506043</v>
+      </c>
+      <c r="K64" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L64" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M64" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35714295356651388</v>
+      </c>
+      <c r="N64" s="10"/>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>2043</v>
+      </c>
+      <c r="B65" t="s">
+        <v>315</v>
+      </c>
+      <c r="C65" s="11">
+        <v>0.39257714139146599</v>
+      </c>
+      <c r="D65" s="15">
+        <f t="shared" si="9"/>
+        <v>6315265.7001431854</v>
+      </c>
+      <c r="E65" s="12">
+        <f t="shared" si="0"/>
+        <v>2479228.9556897869</v>
+      </c>
+      <c r="F65" s="14">
+        <f t="shared" si="8"/>
+        <v>2260.2565725181216</v>
+      </c>
+      <c r="G65" s="15">
+        <f>G64*(1+$O$50)</f>
+        <v>2065.7825843662272</v>
+      </c>
+      <c r="H65" s="12">
+        <f t="shared" si="7"/>
+        <v>3096998.0680497941</v>
+      </c>
+      <c r="I65" s="10">
+        <f t="shared" si="6"/>
+        <v>0.49039869660267438</v>
+      </c>
+      <c r="J65" s="12">
+        <f t="shared" si="5"/>
+        <v>-194.47398815189445</v>
+      </c>
+      <c r="K65" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L65" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M65" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3579036385542535</v>
+      </c>
+      <c r="N65" s="10"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>2044</v>
+      </c>
+      <c r="B66" t="s">
+        <v>315</v>
+      </c>
+      <c r="C66" s="11">
+        <v>0.39347974049366502</v>
+      </c>
+      <c r="D66" s="15">
+        <f t="shared" si="9"/>
+        <v>6612083.1880499143</v>
+      </c>
+      <c r="E66" s="12">
+        <f t="shared" si="0"/>
+        <v>2601720.7769564055</v>
+      </c>
+      <c r="F66" s="14">
+        <f t="shared" si="8"/>
+        <v>2371.9295761195813</v>
+      </c>
+      <c r="G66" s="15">
+        <f>G65*(1+$O$50)</f>
+        <v>2162.8743658314397</v>
+      </c>
+      <c r="H66" s="12">
+        <f t="shared" si="7"/>
+        <v>3306053.2783379355</v>
+      </c>
+      <c r="I66" s="10">
+        <f t="shared" si="6"/>
+        <v>0.50000176711524125</v>
+      </c>
+      <c r="J66" s="12">
+        <f t="shared" si="5"/>
+        <v>-209.05521028814155</v>
+      </c>
+      <c r="K66" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L66" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M66" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35872651759832574</v>
+      </c>
+      <c r="N66" s="10"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>2045</v>
+      </c>
+      <c r="B67" t="s">
+        <v>315</v>
+      </c>
+      <c r="C67" s="11">
+        <v>0.39446606948851498</v>
+      </c>
+      <c r="D67" s="15">
+        <f t="shared" si="9"/>
+        <v>6922851.0978882601</v>
+      </c>
+      <c r="E67" s="12">
+        <f t="shared" ref="E67:E93" si="10">D67*C67</f>
+        <v>2730829.8622382325</v>
+      </c>
+      <c r="F67" s="14">
+        <f t="shared" si="8"/>
+        <v>2489.6353886103284</v>
+      </c>
+      <c r="G67" s="15">
+        <f>G66*(1+$O$50)</f>
+        <v>2264.5294610255173</v>
+      </c>
+      <c r="H67" s="12">
+        <f t="shared" si="7"/>
+        <v>3531159.205922747</v>
+      </c>
+      <c r="I67" s="10">
+        <f t="shared" si="6"/>
+        <v>0.51007296791344947</v>
+      </c>
+      <c r="J67" s="12">
+        <f t="shared" si="5"/>
+        <v>-225.10592758481107</v>
+      </c>
+      <c r="K67" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L67" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M67" s="10">
+        <f t="shared" si="3"/>
+        <v>0.35962573127851394</v>
+      </c>
+      <c r="N67" s="10"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>2046</v>
+      </c>
+      <c r="B68" t="s">
+        <v>315</v>
+      </c>
+      <c r="C68" s="11">
+        <v>0.395453848939052</v>
+      </c>
+      <c r="D68" s="15">
+        <f t="shared" si="9"/>
+        <v>7248225.0994890081</v>
+      </c>
+      <c r="E68" s="12">
+        <f t="shared" si="10"/>
+        <v>2866338.5135695715</v>
+      </c>
+      <c r="F68" s="14">
+        <f t="shared" si="8"/>
+        <v>2613.1755397132783</v>
+      </c>
+      <c r="G68" s="15">
+        <f>G67*(1+$O$50)</f>
+        <v>2370.9623456937165</v>
+      </c>
+      <c r="H68" s="12">
+        <f t="shared" si="7"/>
+        <v>3773372.3999423091</v>
+      </c>
+      <c r="I68" s="10">
+        <f t="shared" si="6"/>
+        <v>0.52059260690018139</v>
+      </c>
+      <c r="J68" s="12">
+        <f t="shared" si="5"/>
+        <v>-242.2131940195618</v>
+      </c>
+      <c r="K68" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L68" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987944</v>
+      </c>
+      <c r="M68" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3605262673061167</v>
+      </c>
+      <c r="N68" s="10"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>2047</v>
+      </c>
+      <c r="B69" t="s">
+        <v>315</v>
+      </c>
+      <c r="C69" s="11">
+        <v>0.39619469812445202</v>
+      </c>
+      <c r="D69" s="15">
+        <f t="shared" si="9"/>
+        <v>7588891.6791649908</v>
+      </c>
+      <c r="E69" s="12">
+        <f t="shared" si="10"/>
+        <v>3006678.6479259394</v>
+      </c>
+      <c r="F69" s="14">
+        <f t="shared" si="8"/>
+        <v>2741.1204438493314</v>
+      </c>
+      <c r="G69" s="15">
+        <f>G68*(1+$O$50)</f>
+        <v>2482.3975759413211</v>
+      </c>
+      <c r="H69" s="12">
+        <f t="shared" si="7"/>
+        <v>4032095.2678503194</v>
+      </c>
+      <c r="I69" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5313154329136468</v>
+      </c>
+      <c r="J69" s="12">
+        <f t="shared" si="5"/>
+        <v>-258.72286790801036</v>
+      </c>
+      <c r="K69" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L69" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M69" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3612016826350245</v>
+      </c>
+      <c r="N69" s="10"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>2048</v>
+      </c>
+      <c r="B70" t="s">
+        <v>315</v>
+      </c>
+      <c r="C70" s="11">
+        <v>0.39686736468058398</v>
+      </c>
+      <c r="D70" s="15">
+        <f t="shared" si="9"/>
+        <v>7945569.5880857445</v>
+      </c>
+      <c r="E70" s="12">
+        <f t="shared" si="10"/>
+        <v>3153337.2633097824</v>
+      </c>
+      <c r="F70" s="14">
+        <f t="shared" si="8"/>
+        <v>2874.8257632297714</v>
+      </c>
+      <c r="G70" s="15">
+        <f>G69*(1+$O$50)</f>
+        <v>2599.0702620105631</v>
+      </c>
+      <c r="H70" s="12">
+        <f t="shared" si="7"/>
+        <v>4307850.7690695282</v>
+      </c>
+      <c r="I70" s="10">
+        <f t="shared" si="6"/>
+        <v>0.54217016430503384</v>
+      </c>
+      <c r="J70" s="12">
+        <f t="shared" si="5"/>
+        <v>-275.75550121920833</v>
+      </c>
+      <c r="K70" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L70" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M70" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36181493741374149</v>
+      </c>
+      <c r="N70" s="10"/>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>2049</v>
+      </c>
+      <c r="B71" t="s">
+        <v>315</v>
+      </c>
+      <c r="C71" s="11">
+        <v>0.39756647786886201</v>
+      </c>
+      <c r="D71" s="15">
+        <f t="shared" si="9"/>
+        <v>8319011.3587257741</v>
+      </c>
+      <c r="E71" s="12">
+        <f t="shared" si="10"/>
+        <v>3307360.0452396623</v>
+      </c>
+      <c r="F71" s="14">
+        <f t="shared" si="8"/>
+        <v>3015.244825525564</v>
+      </c>
+      <c r="G71" s="15">
+        <f>G70*(1+$O$50)</f>
+        <v>2721.2265643250594</v>
+      </c>
+      <c r="H71" s="12">
+        <f t="shared" si="7"/>
+        <v>4601869.0302700326</v>
+      </c>
+      <c r="I71" s="10">
+        <f t="shared" si="6"/>
+        <v>0.55317499061269493</v>
+      </c>
+      <c r="J71" s="12">
+        <f t="shared" si="5"/>
+        <v>-294.01826120050464</v>
+      </c>
+      <c r="K71" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L71" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M71" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36245230298464337</v>
+      </c>
+      <c r="N71" s="10"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>2050</v>
+      </c>
+      <c r="B72" t="s">
+        <v>315</v>
+      </c>
+      <c r="C72" s="11">
+        <v>0.39831469830937499</v>
+      </c>
+      <c r="D72" s="15">
+        <f t="shared" si="9"/>
+        <v>8710004.8925858848</v>
+      </c>
+      <c r="E72" s="12">
+        <f t="shared" si="10"/>
+        <v>3469322.9710635268</v>
+      </c>
+      <c r="F72" s="14">
+        <f t="shared" si="8"/>
+        <v>3162.9027361664962</v>
+      </c>
+      <c r="G72" s="15">
+        <f>G71*(1+$O$50)</f>
+        <v>2849.1242128483368</v>
+      </c>
+      <c r="H72" s="12">
+        <f t="shared" si="7"/>
+        <v>4915647.553588191</v>
+      </c>
+      <c r="I72" s="10">
+        <f t="shared" si="6"/>
+        <v>0.56436794401487422</v>
+      </c>
+      <c r="J72" s="12">
+        <f t="shared" si="5"/>
+        <v>-313.77852331815939</v>
+      </c>
+      <c r="K72" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L72" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M72" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36313443851895155</v>
+      </c>
+      <c r="N72" s="10"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>2051</v>
+      </c>
+      <c r="B73" t="s">
+        <v>315</v>
+      </c>
+      <c r="C73" s="11">
+        <v>0.39876314149323899</v>
+      </c>
+      <c r="D73" s="15">
+        <f t="shared" si="9"/>
+        <v>9119375.1225374211</v>
+      </c>
+      <c r="E73" s="12">
+        <f t="shared" si="10"/>
+        <v>3636470.6723183133</v>
+      </c>
+      <c r="F73" s="14">
+        <f t="shared" si="8"/>
+        <v>3315.2874884804728</v>
+      </c>
+      <c r="G73" s="15">
+        <f>G72*(1+$O$50)</f>
+        <v>2983.0330508522084</v>
+      </c>
+      <c r="H73" s="12">
+        <f t="shared" si="7"/>
+        <v>5247901.9912164556</v>
+      </c>
+      <c r="I73" s="10">
+        <f t="shared" si="6"/>
+        <v>0.57546727935852837</v>
+      </c>
+      <c r="J73" s="12">
+        <f t="shared" si="5"/>
+        <v>-332.25443762826444</v>
+      </c>
+      <c r="K73" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L73" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M73" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36354327395603508</v>
+      </c>
+      <c r="N73" s="10"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>2052</v>
+      </c>
+      <c r="B74" t="s">
+        <v>315</v>
+      </c>
+      <c r="C74" s="11">
+        <v>0.39912485273926002</v>
+      </c>
+      <c r="D74" s="15">
+        <f t="shared" si="9"/>
+        <v>9547985.7532966789</v>
+      </c>
+      <c r="E74" s="12">
+        <f t="shared" si="10"/>
+        <v>3810838.4077410894</v>
+      </c>
+      <c r="F74" s="14">
+        <f t="shared" si="8"/>
+        <v>3474.2545815034632</v>
+      </c>
+      <c r="G74" s="15">
+        <f>G73*(1+$O$50)</f>
+        <v>3123.2356042422621</v>
+      </c>
+      <c r="H74" s="12">
+        <f t="shared" si="7"/>
+        <v>5598920.9684776571</v>
+      </c>
+      <c r="I74" s="10">
+        <f t="shared" si="6"/>
+        <v>0.5863981276411615</v>
+      </c>
+      <c r="J74" s="12">
+        <f t="shared" si="5"/>
+        <v>-351.01897726120114</v>
+      </c>
+      <c r="K74" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L74" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M74" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36387303786077507</v>
+      </c>
+      <c r="N74" s="10"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>2053</v>
+      </c>
+      <c r="B75" t="s">
+        <v>315</v>
+      </c>
+      <c r="C75" s="11">
+        <v>0.399388430860109</v>
+      </c>
+      <c r="D75" s="15">
+        <f t="shared" si="9"/>
+        <v>9996741.0837016217</v>
+      </c>
+      <c r="E75" s="12">
+        <f t="shared" si="10"/>
+        <v>3992582.7351343762</v>
+      </c>
+      <c r="F75" s="14">
+        <f t="shared" si="8"/>
+        <v>3639.9467454183</v>
+      </c>
+      <c r="G75" s="15">
+        <f>G74*(1+$O$50)</f>
+        <v>3270.0276776416481</v>
+      </c>
+      <c r="H75" s="12">
+        <f t="shared" si="7"/>
+        <v>5968840.03625431</v>
+      </c>
+      <c r="I75" s="10">
+        <f t="shared" si="6"/>
+        <v>0.59707858653913948</v>
+      </c>
+      <c r="J75" s="12">
+        <f t="shared" si="5"/>
+        <v>-369.9190677766519</v>
+      </c>
+      <c r="K75" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L75" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M75" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36411333603035462</v>
+      </c>
+      <c r="N75" s="10"/>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>2054</v>
+      </c>
+      <c r="B76" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="11">
+        <v>0.39972709737531797</v>
+      </c>
+      <c r="D76" s="15">
+        <f t="shared" si="9"/>
+        <v>10466587.914635597</v>
+      </c>
+      <c r="E76" s="12">
+        <f t="shared" si="10"/>
+        <v>4183778.8065408696</v>
+      </c>
+      <c r="F76" s="14">
+        <f t="shared" si="8"/>
+        <v>3814.2558490790934</v>
+      </c>
+      <c r="G76" s="15">
+        <f>G75*(1+$O$50)</f>
+        <v>3423.7189784908055</v>
+      </c>
+      <c r="H76" s="12">
+        <f t="shared" si="7"/>
+        <v>6359376.9068425987</v>
+      </c>
+      <c r="I76" s="10">
+        <f t="shared" si="6"/>
+        <v>0.60758835245153586</v>
+      </c>
+      <c r="J76" s="12">
+        <f t="shared" si="5"/>
+        <v>-390.53687058828791</v>
+      </c>
+      <c r="K76" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L76" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M76" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36442209057887515</v>
+      </c>
+      <c r="N76" s="10"/>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>2055</v>
+      </c>
+      <c r="B77" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="11">
+        <v>0.40040591302891998</v>
+      </c>
+      <c r="D77" s="15">
+        <f t="shared" si="9"/>
+        <v>10958517.546623468</v>
+      </c>
+      <c r="E77" s="12">
+        <f t="shared" si="10"/>
+        <v>4387855.2236992102</v>
+      </c>
+      <c r="F77" s="14">
+        <f t="shared" si="8"/>
+        <v>4000.3076706018669</v>
+      </c>
+      <c r="G77" s="15">
+        <f>G76*(1+$O$50)</f>
+        <v>3584.633770479873</v>
+      </c>
+      <c r="H77" s="12">
+        <f t="shared" si="7"/>
+        <v>6775050.806964593</v>
+      </c>
+      <c r="I77" s="10">
+        <f t="shared" si="6"/>
+        <v>0.61824519403649791</v>
+      </c>
+      <c r="J77" s="12">
+        <f t="shared" si="5"/>
+        <v>-415.67390012199394</v>
+      </c>
+      <c r="K77" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L77" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M77" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36504095134970505</v>
+      </c>
+      <c r="N77" s="10"/>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>2056</v>
+      </c>
+      <c r="B78" t="s">
+        <v>315</v>
+      </c>
+      <c r="C78" s="11">
+        <v>0.40100142094316299</v>
+      </c>
+      <c r="D78" s="15">
+        <f t="shared" si="9"/>
+        <v>11473567.871314771</v>
+      </c>
+      <c r="E78" s="12">
+        <f t="shared" si="10"/>
+        <v>4600917.0196850449</v>
+      </c>
+      <c r="F78" s="14">
+        <f t="shared" si="8"/>
+        <v>4194.5512573526157</v>
+      </c>
+      <c r="G78" s="15">
+        <f>G77*(1+$O$50)</f>
+        <v>3753.1115576924267</v>
+      </c>
+      <c r="H78" s="12">
+        <f t="shared" si="7"/>
+        <v>7216490.5066247806</v>
+      </c>
+      <c r="I78" s="10">
+        <f t="shared" si="6"/>
+        <v>0.62896655927462897</v>
+      </c>
+      <c r="J78" s="12">
+        <f t="shared" si="5"/>
+        <v>-441.43969966018904</v>
+      </c>
+      <c r="K78" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L78" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M78" s="10">
+        <f t="shared" si="3"/>
+        <v>0.3655838623519605</v>
+      </c>
+      <c r="N78" s="10"/>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>2057</v>
+      </c>
+      <c r="B79" t="s">
+        <v>315</v>
+      </c>
+      <c r="C79" s="11">
+        <v>0.40127560716344102</v>
+      </c>
+      <c r="D79" s="15">
+        <f t="shared" si="9"/>
+        <v>12012825.561266566</v>
+      </c>
+      <c r="E79" s="12">
+        <f t="shared" si="10"/>
+        <v>4820453.8708457453</v>
+      </c>
+      <c r="F79" s="14">
+        <f t="shared" si="8"/>
+        <v>4394.6980044318298</v>
+      </c>
+      <c r="G79" s="15">
+        <f>G78*(1+$O$50)</f>
+        <v>3929.5078009039703</v>
+      </c>
+      <c r="H79" s="12">
+        <f t="shared" si="7"/>
+        <v>7681680.7101526391</v>
+      </c>
+      <c r="I79" s="10">
+        <f t="shared" si="6"/>
+        <v>0.63945661001862786</v>
+      </c>
+      <c r="J79" s="12">
+        <f t="shared" si="5"/>
+        <v>-465.19020352785947</v>
+      </c>
+      <c r="K79" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L79" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M79" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36583383168418182</v>
+      </c>
+      <c r="N79" s="10"/>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>2058</v>
+      </c>
+      <c r="B80" t="s">
+        <v>315</v>
+      </c>
+      <c r="C80" s="11">
+        <v>0.40179174954010899</v>
+      </c>
+      <c r="D80" s="15">
+        <f t="shared" si="9"/>
+        <v>12577428.362646094</v>
+      </c>
+      <c r="E80" s="12">
+        <f t="shared" si="10"/>
+        <v>5053506.9465429625</v>
+      </c>
+      <c r="F80" s="14">
+        <f t="shared" si="8"/>
+        <v>4607.1671855783679</v>
+      </c>
+      <c r="G80" s="15">
+        <f>G79*(1+$O$50)</f>
+        <v>4114.1946675464569</v>
+      </c>
+      <c r="H80" s="12">
+        <f t="shared" si="7"/>
+        <v>8174653.2281845491</v>
+      </c>
+      <c r="I80" s="10">
+        <f t="shared" si="6"/>
+        <v>0.64994631593073371</v>
+      </c>
+      <c r="J80" s="12">
+        <f t="shared" si="5"/>
+        <v>-492.97251803191102</v>
+      </c>
+      <c r="K80" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L80" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M80" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36630438693344242</v>
+      </c>
+      <c r="N80" s="10"/>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>2059</v>
+      </c>
+      <c r="B81" t="s">
+        <v>315</v>
+      </c>
+      <c r="C81" s="11">
+        <v>0.40256825412089903</v>
+      </c>
+      <c r="D81" s="15">
+        <f t="shared" si="9"/>
+        <v>13168567.495690459</v>
+      </c>
+      <c r="E81" s="12">
+        <f t="shared" si="10"/>
+        <v>5301247.2260133279</v>
+      </c>
+      <c r="F81" s="14">
+        <f t="shared" si="8"/>
+        <v>4833.0263558922998</v>
+      </c>
+      <c r="G81" s="15">
+        <f>G80*(1+$O$50)</f>
+        <v>4307.5618169211402</v>
+      </c>
+      <c r="H81" s="12">
+        <f t="shared" si="7"/>
+        <v>8700117.7671557069</v>
+      </c>
+      <c r="I81" s="10">
+        <f t="shared" si="6"/>
+        <v>0.66067305878205085</v>
+      </c>
+      <c r="J81" s="12">
+        <f t="shared" si="5"/>
+        <v>-525.46453897115953</v>
+      </c>
+      <c r="K81" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L81" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987949</v>
+      </c>
+      <c r="M81" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36701230847424782</v>
+      </c>
+      <c r="N81" s="10"/>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>2060</v>
+      </c>
+      <c r="B82" t="s">
+        <v>315</v>
+      </c>
+      <c r="C82" s="11">
+        <v>0.403555656766931</v>
+      </c>
+      <c r="D82" s="15">
+        <f t="shared" si="9"/>
+        <v>13787490.167987909</v>
+      </c>
+      <c r="E82" s="12">
+        <f t="shared" si="10"/>
+        <v>5564019.6499099648</v>
+      </c>
+      <c r="F82" s="14">
+        <f t="shared" si="8"/>
+        <v>5072.5899899107817</v>
+      </c>
+      <c r="G82" s="15">
+        <f>G81*(1+$O$50)</f>
+        <v>4510.0172223164336</v>
+      </c>
+      <c r="H82" s="12">
+        <f t="shared" si="7"/>
+        <v>9262690.5347500555</v>
+      </c>
+      <c r="I82" s="10">
+        <f t="shared" si="6"/>
+        <v>0.67181846890860308</v>
+      </c>
+      <c r="J82" s="12">
+        <f t="shared" si="5"/>
+        <v>-562.57276759434808</v>
+      </c>
+      <c r="K82" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L82" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M82" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36791250097776534</v>
+      </c>
+      <c r="N82" s="10"/>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>2061</v>
+      </c>
+      <c r="B83" t="s">
+        <v>315</v>
+      </c>
+      <c r="C83" s="11">
+        <v>0.40479729516313701</v>
+      </c>
+      <c r="D83" s="15">
+        <f t="shared" si="9"/>
+        <v>14435502.205883339</v>
+      </c>
+      <c r="E83" s="12">
+        <f t="shared" si="10"/>
+        <v>5843452.247263073</v>
+      </c>
+      <c r="F83" s="14">
+        <f t="shared" si="8"/>
+        <v>5327.3423246210095</v>
+      </c>
+      <c r="G83" s="15">
+        <f>G82*(1+$O$50)</f>
+        <v>4721.988031765306</v>
+      </c>
+      <c r="H83" s="12">
+        <f t="shared" si="7"/>
+        <v>9868044.8276057597</v>
+      </c>
+      <c r="I83" s="10">
+        <f t="shared" si="6"/>
+        <v>0.6835955332114414</v>
+      </c>
+      <c r="J83" s="12">
+        <f t="shared" si="5"/>
+        <v>-605.35429285570353</v>
+      </c>
+      <c r="K83" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L83" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3271093699698796</v>
+      </c>
+      <c r="M83" s="10">
+        <f t="shared" si="3"/>
+        <v>0.36904447442429789</v>
+      </c>
+      <c r="N83" s="10"/>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>2062</v>
+      </c>
+      <c r="B84" t="s">
+        <v>315</v>
+      </c>
+      <c r="C84" s="11">
+        <v>0.40631138952151702</v>
+      </c>
+      <c r="D84" s="15">
+        <f t="shared" si="9"/>
+        <v>15113970.809559856</v>
+      </c>
+      <c r="E84" s="12">
+        <f t="shared" si="10"/>
+        <v>6140978.4808199126</v>
+      </c>
+      <c r="F84" s="14">
+        <f t="shared" si="8"/>
+        <v>5598.5902153614206</v>
+      </c>
+      <c r="G84" s="15">
+        <f>G83*(1+$O$50)</f>
+        <v>4943.9214692582755</v>
+      </c>
+      <c r="H84" s="12">
+        <f t="shared" si="7"/>
+        <v>10522713.573708907</v>
+      </c>
+      <c r="I84" s="10">
+        <f t="shared" si="6"/>
+        <v>0.69622428852734741</v>
+      </c>
+      <c r="J84" s="12">
+        <f t="shared" si="5"/>
+        <v>-654.66874610314517</v>
+      </c>
+      <c r="K84" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L84" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3271093699698796</v>
+      </c>
+      <c r="M84" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37042483976614621</v>
+      </c>
+      <c r="N84" s="10"/>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>2063</v>
+      </c>
+      <c r="B85" t="s">
+        <v>315</v>
+      </c>
+      <c r="C85" s="11">
+        <v>0.407864818162122</v>
+      </c>
+      <c r="D85" s="15">
+        <f t="shared" si="9"/>
+        <v>15824327.437609168</v>
+      </c>
+      <c r="E85" s="12">
+        <f t="shared" si="10"/>
+        <v>6454186.4328783415</v>
+      </c>
+      <c r="F85" s="14">
+        <f t="shared" si="8"/>
+        <v>5884.1347716962919</v>
+      </c>
+      <c r="G85" s="15">
+        <f>G84*(1+$O$50)</f>
+        <v>5176.2857783134141</v>
+      </c>
+      <c r="H85" s="12">
+        <f t="shared" si="7"/>
+        <v>11230562.567091785</v>
+      </c>
+      <c r="I85" s="10">
+        <f t="shared" si="6"/>
+        <v>0.70970236247769181</v>
+      </c>
+      <c r="J85" s="12">
+        <f t="shared" si="5"/>
+        <v>-707.84899338287778</v>
+      </c>
+      <c r="K85" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L85" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3271093699698796</v>
+      </c>
+      <c r="M85" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37184106527722999</v>
+      </c>
+      <c r="N85" s="10"/>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>2064</v>
+      </c>
+      <c r="B86" t="s">
+        <v>315</v>
+      </c>
+      <c r="C86" s="11">
+        <v>0.40933397700266599</v>
+      </c>
+      <c r="D86" s="15">
+        <f t="shared" si="9"/>
+        <v>16568070.827176798</v>
+      </c>
+      <c r="E86" s="12">
+        <f t="shared" si="10"/>
+        <v>6781874.3229501285</v>
+      </c>
+      <c r="F86" s="14">
+        <f t="shared" si="8"/>
+        <v>6182.8803577259932</v>
+      </c>
+      <c r="G86" s="15">
+        <f>G85*(1+$O$50)</f>
+        <v>5419.571209894144</v>
+      </c>
+      <c r="H86" s="12">
+        <f t="shared" si="7"/>
+        <v>11993871.714923635</v>
+      </c>
+      <c r="I86" s="10">
+        <f t="shared" si="6"/>
+        <v>0.7239148021536671</v>
+      </c>
+      <c r="J86" s="12">
+        <f t="shared" si="5"/>
+        <v>-763.30914783184926</v>
+      </c>
+      <c r="K86" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L86" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M86" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37318046393090876</v>
+      </c>
+      <c r="N86" s="10"/>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>2065</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="11">
+        <v>0.41078155438422798</v>
+      </c>
+      <c r="D87" s="15">
+        <f t="shared" si="9"/>
+        <v>17346770.156054106</v>
+      </c>
+      <c r="E87" s="12">
+        <f t="shared" si="10"/>
+        <v>7125733.2082498427</v>
+      </c>
+      <c r="F87" s="14">
+        <f t="shared" si="8"/>
+        <v>6496.3686717978962</v>
+      </c>
+      <c r="G87" s="15">
+        <f>G86*(1+$O$50)</f>
+        <v>5674.291056759168</v>
+      </c>
+      <c r="H87" s="12">
+        <f t="shared" si="7"/>
+        <v>12815949.329962362</v>
+      </c>
+      <c r="I87" s="10">
+        <f t="shared" si="6"/>
+        <v>0.73880896643399252</v>
+      </c>
+      <c r="J87" s="12">
+        <f t="shared" si="5"/>
+        <v>-822.07761503872825</v>
+      </c>
+      <c r="K87" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L87" s="10">
+        <f t="shared" si="2"/>
+        <v>0.3271093699698796</v>
+      </c>
+      <c r="M87" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37450018725996853</v>
+      </c>
+      <c r="N87" s="10"/>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>2066</v>
+      </c>
+      <c r="B88" t="s">
+        <v>315</v>
+      </c>
+      <c r="C88" s="11">
+        <v>0.41207429479058999</v>
+      </c>
+      <c r="D88" s="15">
+        <f t="shared" si="9"/>
+        <v>18162068.353388648</v>
+      </c>
+      <c r="E88" s="12">
+        <f t="shared" si="10"/>
+        <v>7484121.5086611193</v>
+      </c>
+      <c r="F88" s="14">
+        <f t="shared" si="8"/>
+        <v>6823.103122708183</v>
+      </c>
+      <c r="G88" s="15">
+        <f>G87*(1+$O$50)</f>
+        <v>5940.9827364268485</v>
+      </c>
+      <c r="H88" s="12">
+        <f t="shared" si="7"/>
+        <v>13698069.716243695</v>
+      </c>
+      <c r="I88" s="10">
+        <f t="shared" si="6"/>
+        <v>0.75421309124673197</v>
+      </c>
+      <c r="J88" s="12">
+        <f t="shared" si="5"/>
+        <v>-882.1203862813345</v>
+      </c>
+      <c r="K88" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L88" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M88" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37567874924527195</v>
+      </c>
+      <c r="N88" s="10"/>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>2067</v>
+      </c>
+      <c r="B89" t="s">
+        <v>315</v>
+      </c>
+      <c r="C89" s="11">
+        <v>0.41337534090082201</v>
+      </c>
+      <c r="D89" s="15">
+        <f t="shared" si="9"/>
+        <v>19015685.565997913</v>
+      </c>
+      <c r="E89" s="12">
+        <f t="shared" si="10"/>
+        <v>7860615.503307228</v>
+      </c>
+      <c r="F89" s="14">
+        <f t="shared" si="8"/>
+        <v>7166.3441226809773</v>
+      </c>
+      <c r="G89" s="15">
+        <f>G88*(1+$O$50)</f>
+        <v>6220.2089250389099</v>
+      </c>
+      <c r="H89" s="12">
+        <f t="shared" si="7"/>
+        <v>14644204.913885763</v>
+      </c>
+      <c r="I89" s="10">
+        <f t="shared" si="6"/>
+        <v>0.770111856501833</v>
+      </c>
+      <c r="J89" s="12">
+        <f t="shared" si="5"/>
+        <v>-946.1351976420674</v>
+      </c>
+      <c r="K89" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L89" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M89" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37686488335162471</v>
+      </c>
+      <c r="N89" s="10"/>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>2068</v>
+      </c>
+      <c r="B90" t="s">
+        <v>315</v>
+      </c>
+      <c r="C90" s="11">
+        <v>0.414616050489091</v>
+      </c>
+      <c r="D90" s="15">
+        <f t="shared" si="9"/>
+        <v>19909422.787599813</v>
+      </c>
+      <c r="E90" s="12">
+        <f t="shared" si="10"/>
+        <v>8254766.243712143</v>
+      </c>
+      <c r="F90" s="14">
+        <f t="shared" si="8"/>
+        <v>7525.682375615841</v>
+      </c>
+      <c r="G90" s="15">
+        <f>G89*(1+$O$50)</f>
+        <v>6512.558744515738</v>
+      </c>
+      <c r="H90" s="12">
+        <f t="shared" si="7"/>
+        <v>15657328.544985864</v>
+      </c>
+      <c r="I90" s="10">
+        <f t="shared" si="6"/>
+        <v>0.78642805027666196</v>
+      </c>
+      <c r="J90" s="12">
+        <f t="shared" si="5"/>
+        <v>-1013.123631100103</v>
+      </c>
+      <c r="K90" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L90" s="10">
+        <f t="shared" si="2"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M90" s="10">
+        <f t="shared" si="3"/>
+        <v>0.37799601002511546</v>
+      </c>
+      <c r="N90" s="10"/>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>2069</v>
+      </c>
+      <c r="B91" t="s">
+        <v>315</v>
+      </c>
+      <c r="C91" s="11">
+        <v>0.41570589813817199</v>
+      </c>
+      <c r="D91" s="15">
+        <f t="shared" si="9"/>
+        <v>20845165.658617005</v>
+      </c>
+      <c r="E91" s="12">
+        <f t="shared" si="10"/>
+        <v>8665458.3119543623</v>
+      </c>
+      <c r="F91" s="14">
+        <f t="shared" si="8"/>
+        <v>7900.100980398257</v>
+      </c>
+      <c r="G91" s="15">
+        <f>G90*(1+$O$50)</f>
+        <v>6818.6490055079776</v>
+      </c>
+      <c r="H91" s="12">
+        <f t="shared" si="7"/>
+        <v>16738780.519876143</v>
+      </c>
+      <c r="I91" s="10">
+        <f t="shared" si="6"/>
+        <v>0.80300539674323201</v>
+      </c>
+      <c r="J91" s="12">
+        <f t="shared" si="5"/>
+        <v>-1081.4519748902794</v>
+      </c>
+      <c r="K91" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L91" s="10">
+        <f t="shared" ref="L91:L93" si="11">G91*1000/D91</f>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M91" s="10">
+        <f t="shared" ref="M91:M93" si="12">F91*1000/D91</f>
+        <v>0.37898959930464748</v>
+      </c>
+      <c r="N91" s="10"/>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A92">
+        <v>2070</v>
+      </c>
+      <c r="B92" t="s">
+        <v>315</v>
+      </c>
+      <c r="C92" s="11">
+        <v>0.41664801672699098</v>
+      </c>
+      <c r="D92" s="15">
+        <f t="shared" si="9"/>
+        <v>21824888.444572002</v>
+      </c>
+      <c r="E92" s="12">
+        <f t="shared" si="10"/>
+        <v>9093296.4857187476</v>
+      </c>
+      <c r="F92" s="14">
+        <f t="shared" si="8"/>
+        <v>8290.1512990692299</v>
+      </c>
+      <c r="G92" s="15">
+        <f>G91*(1+$O$50)</f>
+        <v>7139.1255087668524</v>
+      </c>
+      <c r="H92" s="12">
+        <f t="shared" si="7"/>
+        <v>17889806.310178518</v>
+      </c>
+      <c r="I92" s="10">
+        <f t="shared" si="6"/>
+        <v>0.81969749149521243</v>
+      </c>
+      <c r="J92" s="12">
+        <f t="shared" si="5"/>
+        <v>-1151.0257903023776</v>
+      </c>
+      <c r="K92" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L92" s="10">
+        <f t="shared" si="11"/>
+        <v>0.32710936996987955</v>
+      </c>
+      <c r="M92" s="10">
+        <f t="shared" si="12"/>
+        <v>0.37984850736458386</v>
+      </c>
+      <c r="N92" s="10"/>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="A93">
+        <v>2071</v>
+      </c>
+      <c r="B93" t="s">
+        <v>315</v>
+      </c>
+      <c r="C93" s="11">
+        <v>0.41758230982772299</v>
+      </c>
+      <c r="D93" s="15">
+        <f t="shared" si="9"/>
+        <v>22850658.201466884</v>
+      </c>
+      <c r="E93" s="12">
+        <f t="shared" si="10"/>
+        <v>9542030.6328523438</v>
+      </c>
+      <c r="F93" s="14">
+        <f t="shared" si="8"/>
+        <v>8699.2520007387247</v>
+      </c>
+      <c r="G93" s="15">
+        <f>G92*(1+$O$50)</f>
+        <v>7474.6644076788943</v>
+      </c>
+      <c r="H93" s="12">
+        <f t="shared" si="7"/>
+        <v>19114393.903238349</v>
+      </c>
+      <c r="I93" s="10">
+        <f t="shared" si="6"/>
+        <v>0.83649204914418229</v>
+      </c>
+      <c r="J93" s="12">
+        <f t="shared" si="5"/>
+        <v>-1224.5875930598304</v>
+      </c>
+      <c r="K93" s="10">
+        <f t="shared" si="4"/>
+        <v>4.6999999999999931E-2</v>
+      </c>
+      <c r="L93" s="10">
+        <f t="shared" si="11"/>
+        <v>0.3271093699698796</v>
+      </c>
+      <c r="M93" s="10">
+        <f t="shared" si="12"/>
+        <v>0.38070028110526294</v>
+      </c>
+      <c r="N93" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DACA9-2703-46AB-BFA3-8D857973518D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21146,7 +25054,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF2612-8D4B-44BE-BDC9-9813CF05C984}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21160,7 +25068,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FACA4F-2572-4547-9E6F-94B897041732}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -21174,7 +25082,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4260C632-A036-4233-AFE2-E87A6FB42399}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -21405,7 +25313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC29E18-6610-4DCD-BEC6-4DABE0E5BE90}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -22157,7 +26065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1C950-9DE9-49F8-A43E-06E9BC4FB097}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -22616,296 +26524,6 @@
       </c>
       <c r="C41" t="s">
         <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07082F2-11DF-4770-88D1-F0B0116C1352}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P23" sqref="P23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C1" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>0.96081499999999997</v>
-      </c>
-      <c r="C3">
-        <v>0.9688061</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>0.98761540000000003</v>
-      </c>
-      <c r="C4">
-        <v>1.0072920000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>0.99203540000000001</v>
-      </c>
-      <c r="C5">
-        <v>1.0271357000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>0.99602329999999994</v>
-      </c>
-      <c r="C6">
-        <v>1.0346373</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>1.0456584</v>
-      </c>
-      <c r="C7">
-        <v>1.0046596000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>1.0377649</v>
-      </c>
-      <c r="C8">
-        <v>1.0344814</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>1.0285975999999999</v>
-      </c>
-      <c r="C9">
-        <v>1.0172851999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>1.0430691999999999</v>
-      </c>
-      <c r="C10">
-        <v>0.99731860000000006</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>1.0744102</v>
-      </c>
-      <c r="C11">
-        <v>1.0353441999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>1.1235657999999999</v>
-      </c>
-      <c r="C12">
-        <v>1.1109456</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>1.1174297</v>
-      </c>
-      <c r="C13">
-        <v>1.0962045</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>1.1752571000000001</v>
-      </c>
-      <c r="C14">
-        <v>1.0741571999999999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>1.1641523</v>
-      </c>
-      <c r="C15">
-        <v>1.0773918</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>1.1543002</v>
-      </c>
-      <c r="C16">
-        <v>1.0715574999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>1.1740653999999999</v>
-      </c>
-      <c r="C17">
-        <v>1.0735125999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>1.2237556000000001</v>
-      </c>
-      <c r="C18">
-        <v>1.0829039</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>1.2534729</v>
-      </c>
-      <c r="C19">
-        <v>1.0905286999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>1.2346163000000001</v>
-      </c>
-      <c r="C20">
-        <v>1.0614066</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>1.2205043</v>
-      </c>
-      <c r="C21">
-        <v>1.072211</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>1.2875517999999999</v>
-      </c>
-      <c r="C22">
-        <v>1.0880019999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23">
-        <v>1.3407515000000001</v>
-      </c>
-      <c r="C23">
-        <v>1.2464980000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24">
-        <v>1.3335592999999999</v>
-      </c>
-      <c r="C24">
-        <v>1.2326395000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25">
-        <v>1.2304759000000001</v>
-      </c>
-      <c r="C25">
-        <v>1.1218237</v>
       </c>
     </row>
   </sheetData>
@@ -22931,6 +26549,296 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07082F2-11DF-4770-88D1-F0B0116C1352}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P23" sqref="P23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>0.96081499999999997</v>
+      </c>
+      <c r="C3">
+        <v>0.9688061</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>0.98761540000000003</v>
+      </c>
+      <c r="C4">
+        <v>1.0072920000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>0.99203540000000001</v>
+      </c>
+      <c r="C5">
+        <v>1.0271357000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>0.99602329999999994</v>
+      </c>
+      <c r="C6">
+        <v>1.0346373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>1.0456584</v>
+      </c>
+      <c r="C7">
+        <v>1.0046596000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>1.0377649</v>
+      </c>
+      <c r="C8">
+        <v>1.0344814</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>1.0285975999999999</v>
+      </c>
+      <c r="C9">
+        <v>1.0172851999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>1.0430691999999999</v>
+      </c>
+      <c r="C10">
+        <v>0.99731860000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1.0744102</v>
+      </c>
+      <c r="C11">
+        <v>1.0353441999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>1.1235657999999999</v>
+      </c>
+      <c r="C12">
+        <v>1.1109456</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>1.1174297</v>
+      </c>
+      <c r="C13">
+        <v>1.0962045</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>1.1752571000000001</v>
+      </c>
+      <c r="C14">
+        <v>1.0741571999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>1.1641523</v>
+      </c>
+      <c r="C15">
+        <v>1.0773918</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>1.1543002</v>
+      </c>
+      <c r="C16">
+        <v>1.0715574999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>1.1740653999999999</v>
+      </c>
+      <c r="C17">
+        <v>1.0735125999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>1.2237556000000001</v>
+      </c>
+      <c r="C18">
+        <v>1.0829039</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>1.2534729</v>
+      </c>
+      <c r="C19">
+        <v>1.0905286999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>1.2346163000000001</v>
+      </c>
+      <c r="C20">
+        <v>1.0614066</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>1.2205043</v>
+      </c>
+      <c r="C21">
+        <v>1.072211</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>1.2875517999999999</v>
+      </c>
+      <c r="C22">
+        <v>1.0880019999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <v>1.3407515000000001</v>
+      </c>
+      <c r="C23">
+        <v>1.2464980000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>1.3335592999999999</v>
+      </c>
+      <c r="C24">
+        <v>1.2326395000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>1.2304759000000001</v>
+      </c>
+      <c r="C25">
+        <v>1.1218237</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37150C-2201-49DC-A9D9-5A36759A8CC0}">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -23660,7 +27568,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5FBEC3-B9FD-48B5-95CF-86757768825B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -23894,7 +27802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277955A-823F-4756-95EE-51E18498EE7B}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
@@ -26246,7 +30154,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597962C1-292D-4A6C-AC0B-02B04F1224CA}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -26801,7 +30709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF1DB0-E2DB-4F33-A326-4E0DA02E7E6C}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -27157,7 +31065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF9EC2D-5ADB-4D44-9626-BFF474F5B6F1}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -27550,7 +31458,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84465C54-AD9F-4641-9695-AEC223DDDF1F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -27741,7 +31649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90598800-F848-4412-BABE-842603155D25}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -27824,7 +31732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA57E6-6ABC-4E91-B0F1-32EF8797A167}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27838,7 +31746,605 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
+  <dimension ref="A1:C53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0.35515360000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.3480782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.35675380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.3528773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.34660099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.34731909999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.34742139999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.34380470000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.34268700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.34115810000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.36635269999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.37641550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.36339320000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.36536360000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.36243120000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.36532789999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0.37059310000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.3739229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.36755280000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.36848120000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0.36879010000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>0.42051450000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0.44151180000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0.39441470000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>0.36843959999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>0.38262170000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>1999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>0.34871269999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.34295350000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.35105120000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.3467421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.34098780000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.34098650000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.33942739999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.33300920000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.32994990000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.32696039999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.3487498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.35190539999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.34243249999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.34761700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.35081319999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>0.35189920000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.3582224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.3609771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0.35345100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0.35015380000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>0.34788089999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0.39849909999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.41878650000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.37178359999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>0.34488210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.35905140000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DDE1F0-C723-4546-8A50-AB43D1612454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27852,605 +32358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0.35515360000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.3480782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0.35675380000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0.3528773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.34660099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.34731909999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0.34742139999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.34380470000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.34268700000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.34115810000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.36635269999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0.37641550000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0.36339320000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.36536360000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0.36243120000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>0.36532789999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.37059310000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.3739229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>0.36755280000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>0.36848120000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>0.36879010000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>0.42051450000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>0.44151180000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0.39441470000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>0.36843959999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>0.38262170000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A28">
-        <v>1999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>0.34871269999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A29">
-        <v>2000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>0.34295350000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A30">
-        <v>2001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>0.35105120000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A31">
-        <v>2002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>0.3467421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A32">
-        <v>2003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>0.34098780000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>0.34098650000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A34">
-        <v>2005</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>0.33942739999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>0.33300920000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A36">
-        <v>2007</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>0.32994990000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A37">
-        <v>2008</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>0.32696039999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A38">
-        <v>2009</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>0.3487498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A39">
-        <v>2010</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>0.35190539999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A40">
-        <v>2011</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>0.34243249999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A41">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>0.34761700000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A42">
-        <v>2013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>0.35081319999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>0.35189920000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A44">
-        <v>2015</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>0.3582224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A45">
-        <v>2016</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>0.3609771</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A46">
-        <v>2017</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
-        <v>0.35345100000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47">
-        <v>0.35015380000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A48">
-        <v>2019</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>0.34788089999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A49">
-        <v>2020</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>0.39849909999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>0.41878650000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>0.37178359999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A52">
-        <v>2023</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>0.34488210000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>0.35905140000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3538B4-37BE-47F7-A81E-403AB88EB97A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -28681,7 +32589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FD6F1-D440-42BC-AE35-D05933713E4C}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -29438,7 +33346,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405343B9-E24C-4687-982E-E9D66258B033}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -30036,7 +33944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964574C-56FE-4D20-B094-0B67DD33C552}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -30326,7 +34234,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8E219-7415-4FD9-9F5D-16982DCB2BC5}">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -31067,7 +34975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2198443-384E-4402-94D6-85936292F7C6}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -31813,7 +35721,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458ED67A-6602-4019-B886-3D2E34EB9F4B}">
   <dimension ref="A1:F217"/>
   <sheetViews>
@@ -36168,7 +40076,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35A4B-F81B-4CBD-A832-685B702067D7}">
   <dimension ref="A1:F125"/>
   <sheetViews>
@@ -38683,7 +42591,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC607D-307F-431A-863B-985430F65DB4}">
   <dimension ref="A1:G18"/>
   <sheetViews>

--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
@@ -1,81 +1,83 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9A358DE-07DF-4D3A-A3B6-05685703DC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44BBC69-0405-4CD5-8FA7-4C52E2767C38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="6" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Interest_plot" sheetId="57" r:id="rId1"/>
-    <sheet name="Short Report" sheetId="52" r:id="rId2"/>
-    <sheet name="SFigure_1" sheetId="53" r:id="rId3"/>
-    <sheet name="Long Report" sheetId="51" r:id="rId4"/>
-    <sheet name="Figure_1" sheetId="5" r:id="rId5"/>
-    <sheet name="Figure_2" sheetId="10" r:id="rId6"/>
-    <sheet name="Figure_2 (Feb version)" sheetId="61" r:id="rId7"/>
-    <sheet name="Figure_3" sheetId="1" r:id="rId8"/>
-    <sheet name="Figure_3 (Feb version)" sheetId="60" r:id="rId9"/>
-    <sheet name="Figure_4" sheetId="6" r:id="rId10"/>
-    <sheet name="Figure_5a" sheetId="7" r:id="rId11"/>
-    <sheet name="Figure_5b" sheetId="8" r:id="rId12"/>
-    <sheet name="Figure_6" sheetId="2" r:id="rId13"/>
-    <sheet name="Figure_7" sheetId="9" r:id="rId14"/>
-    <sheet name="Figure_8a" sheetId="11" r:id="rId15"/>
-    <sheet name="Figure_8b" sheetId="12" r:id="rId16"/>
-    <sheet name="Figure_9" sheetId="3" r:id="rId17"/>
-    <sheet name="Figure_10" sheetId="4" r:id="rId18"/>
-    <sheet name="Figure_11" sheetId="13" r:id="rId19"/>
-    <sheet name="Figure_12" sheetId="14" r:id="rId20"/>
-    <sheet name="Figure_13" sheetId="15" r:id="rId21"/>
-    <sheet name="Figure_14" sheetId="16" r:id="rId22"/>
-    <sheet name="Figure_15" sheetId="17" r:id="rId23"/>
-    <sheet name="Figure_16" sheetId="18" r:id="rId24"/>
-    <sheet name="Figure_17" sheetId="19" r:id="rId25"/>
-    <sheet name="Figure_18" sheetId="20" r:id="rId26"/>
-    <sheet name="Figure_19" sheetId="21" r:id="rId27"/>
-    <sheet name="Figure_20" sheetId="22" r:id="rId28"/>
-    <sheet name="Figure_21" sheetId="23" r:id="rId29"/>
-    <sheet name="Figure_22" sheetId="24" r:id="rId30"/>
-    <sheet name="Figure_23" sheetId="25" r:id="rId31"/>
-    <sheet name="Figure_24" sheetId="26" r:id="rId32"/>
-    <sheet name="Figure_25" sheetId="27" r:id="rId33"/>
-    <sheet name="Figure_26" sheetId="58" r:id="rId34"/>
-    <sheet name="Figure_26 (debt)" sheetId="59" r:id="rId35"/>
-    <sheet name="Figure_26a" sheetId="28" r:id="rId36"/>
-    <sheet name="Figure_26b" sheetId="29" r:id="rId37"/>
-    <sheet name="Figure_27" sheetId="30" r:id="rId38"/>
-    <sheet name="Figure29_a" sheetId="41" r:id="rId39"/>
-    <sheet name="Figure29_b" sheetId="42" r:id="rId40"/>
-    <sheet name="Figure30_a" sheetId="43" r:id="rId41"/>
-    <sheet name="Figure30_b" sheetId="44" r:id="rId42"/>
-    <sheet name="Figure_31" sheetId="45" r:id="rId43"/>
-    <sheet name="Figure_32" sheetId="46" r:id="rId44"/>
-    <sheet name="Figure_33" sheetId="47" r:id="rId45"/>
-    <sheet name="Figure_34" sheetId="48" r:id="rId46"/>
-    <sheet name="Figure_35" sheetId="49" r:id="rId47"/>
-    <sheet name="Figure_36" sheetId="50" r:id="rId48"/>
-    <sheet name="Figure_37_a" sheetId="31" r:id="rId49"/>
-    <sheet name="Figure_37_b" sheetId="32" r:id="rId50"/>
-    <sheet name="Figure_38" sheetId="55" r:id="rId51"/>
-    <sheet name="Figure_39a" sheetId="56" r:id="rId52"/>
-    <sheet name="Figure43_a" sheetId="33" r:id="rId53"/>
-    <sheet name="Figure43_b" sheetId="34" r:id="rId54"/>
-    <sheet name="Figure44_a" sheetId="35" r:id="rId55"/>
-    <sheet name="Figure44_b" sheetId="36" r:id="rId56"/>
-    <sheet name="Figure45" sheetId="37" r:id="rId57"/>
-    <sheet name="Figure46_a" sheetId="38" r:id="rId58"/>
-    <sheet name="Figur46_b" sheetId="39" r:id="rId59"/>
-    <sheet name="Figure47" sheetId="40" r:id="rId60"/>
-    <sheet name="Release schedule" sheetId="54" r:id="rId61"/>
+    <sheet name="Slide deck" sheetId="63" r:id="rId1"/>
+    <sheet name="3 Interest_plot (Feb version)" sheetId="62" r:id="rId2"/>
+    <sheet name="Interest_plot" sheetId="57" r:id="rId3"/>
+    <sheet name="Short Report" sheetId="52" r:id="rId4"/>
+    <sheet name="SFigure_1" sheetId="53" r:id="rId5"/>
+    <sheet name="Long Report" sheetId="51" r:id="rId6"/>
+    <sheet name="Figure_1" sheetId="5" r:id="rId7"/>
+    <sheet name="Figure_2" sheetId="10" r:id="rId8"/>
+    <sheet name="Figure_2 (Feb version)" sheetId="61" r:id="rId9"/>
+    <sheet name="Figure_3" sheetId="1" r:id="rId10"/>
+    <sheet name="Figure_3 (Feb version)" sheetId="60" r:id="rId11"/>
+    <sheet name="Figure_4" sheetId="6" r:id="rId12"/>
+    <sheet name="Figure_5a" sheetId="7" r:id="rId13"/>
+    <sheet name="Figure_5b" sheetId="8" r:id="rId14"/>
+    <sheet name="Figure_6" sheetId="2" r:id="rId15"/>
+    <sheet name="Figure_7" sheetId="9" r:id="rId16"/>
+    <sheet name="Figure_8a" sheetId="11" r:id="rId17"/>
+    <sheet name="Figure_8b" sheetId="12" r:id="rId18"/>
+    <sheet name="Figure_9" sheetId="3" r:id="rId19"/>
+    <sheet name="Figure_10" sheetId="4" r:id="rId20"/>
+    <sheet name="Figure_11" sheetId="13" r:id="rId21"/>
+    <sheet name="Figure_12" sheetId="14" r:id="rId22"/>
+    <sheet name="Figure_13" sheetId="15" r:id="rId23"/>
+    <sheet name="Figure_14" sheetId="16" r:id="rId24"/>
+    <sheet name="Figure_15" sheetId="17" r:id="rId25"/>
+    <sheet name="Figure_16" sheetId="18" r:id="rId26"/>
+    <sheet name="Figure_17" sheetId="19" r:id="rId27"/>
+    <sheet name="Figure_18" sheetId="20" r:id="rId28"/>
+    <sheet name="Figure_19" sheetId="21" r:id="rId29"/>
+    <sheet name="Figure_20" sheetId="22" r:id="rId30"/>
+    <sheet name="Figure_21" sheetId="23" r:id="rId31"/>
+    <sheet name="Figure_22" sheetId="24" r:id="rId32"/>
+    <sheet name="Figure_23" sheetId="25" r:id="rId33"/>
+    <sheet name="Figure_24" sheetId="26" r:id="rId34"/>
+    <sheet name="Figure_25" sheetId="27" r:id="rId35"/>
+    <sheet name="Figure_26" sheetId="58" r:id="rId36"/>
+    <sheet name="Figure_26 (debt)" sheetId="59" r:id="rId37"/>
+    <sheet name="Figure_26a" sheetId="28" r:id="rId38"/>
+    <sheet name="Figure_26b" sheetId="29" r:id="rId39"/>
+    <sheet name="Figure_27" sheetId="30" r:id="rId40"/>
+    <sheet name="Figure29_a" sheetId="41" r:id="rId41"/>
+    <sheet name="Figure29_b" sheetId="42" r:id="rId42"/>
+    <sheet name="Figure30_a" sheetId="43" r:id="rId43"/>
+    <sheet name="Figure30_b" sheetId="44" r:id="rId44"/>
+    <sheet name="Figure_31" sheetId="45" r:id="rId45"/>
+    <sheet name="Figure_32" sheetId="46" r:id="rId46"/>
+    <sheet name="Figure_33" sheetId="47" r:id="rId47"/>
+    <sheet name="Figure_34" sheetId="48" r:id="rId48"/>
+    <sheet name="Figure_35" sheetId="49" r:id="rId49"/>
+    <sheet name="Figure_36" sheetId="50" r:id="rId50"/>
+    <sheet name="Figure_37_a" sheetId="31" r:id="rId51"/>
+    <sheet name="Figure_37_b" sheetId="32" r:id="rId52"/>
+    <sheet name="Figure_38" sheetId="55" r:id="rId53"/>
+    <sheet name="Figure_39a" sheetId="56" r:id="rId54"/>
+    <sheet name="Figure43_a" sheetId="33" r:id="rId55"/>
+    <sheet name="Figure43_b" sheetId="34" r:id="rId56"/>
+    <sheet name="Figure44_a" sheetId="35" r:id="rId57"/>
+    <sheet name="Figure44_b" sheetId="36" r:id="rId58"/>
+    <sheet name="Figure45" sheetId="37" r:id="rId59"/>
+    <sheet name="Figure46_a" sheetId="38" r:id="rId60"/>
+    <sheet name="Figur46_b" sheetId="39" r:id="rId61"/>
+    <sheet name="Figure47" sheetId="40" r:id="rId62"/>
+    <sheet name="Release schedule" sheetId="54" r:id="rId63"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -96,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3509" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3513" uniqueCount="330">
   <si>
     <t>State</t>
   </si>
@@ -1526,28 +1528,44 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7292037B-9D23-4885-87BF-08F5F9890E52}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB453D9B-5EC3-406A-A36E-7B04EB6AFC98}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A60D39-76D9-4B67-AB58-B56A7AA5E81B}">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
       <c r="B1" t="s">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>309</v>
+        <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>310</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1555,13 +1573,13 @@
         <v>2003</v>
       </c>
       <c r="B2">
-        <v>0.9</v>
+        <v>-0.9</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3.5</v>
       </c>
       <c r="D2">
-        <v>0.6</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1569,13 +1587,13 @@
         <v>2004</v>
       </c>
       <c r="B3">
-        <v>0.7</v>
+        <v>-1.6</v>
       </c>
       <c r="C3">
+        <v>2.4</v>
+      </c>
+      <c r="D3">
         <v>0.4</v>
-      </c>
-      <c r="D3">
-        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1583,13 +1601,13 @@
         <v>2005</v>
       </c>
       <c r="B4">
-        <v>0.6</v>
+        <v>-2.2999999999999998</v>
       </c>
       <c r="C4">
-        <v>0.3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0.4</v>
+        <v>-1.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -1597,13 +1615,13 @@
         <v>2006</v>
       </c>
       <c r="B5">
-        <v>0.7</v>
+        <v>-3</v>
       </c>
       <c r="C5">
-        <v>0.2</v>
+        <v>-1.1000000000000001</v>
       </c>
       <c r="D5">
-        <v>0.5</v>
+        <v>-4.5999999999999996</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1611,13 +1629,13 @@
         <v>2007</v>
       </c>
       <c r="B6">
-        <v>0.5</v>
+        <v>-2.4</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>-3.6</v>
       </c>
       <c r="D6">
-        <v>0.4</v>
+        <v>-6.5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1625,13 +1643,13 @@
         <v>2008</v>
       </c>
       <c r="B7">
-        <v>0.5</v>
+        <v>-1.7</v>
       </c>
       <c r="C7">
-        <v>-0.1</v>
+        <v>-4.4000000000000004</v>
       </c>
       <c r="D7">
-        <v>0.3</v>
+        <v>-6.6</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1639,13 +1657,13 @@
         <v>2009</v>
       </c>
       <c r="B8">
-        <v>0.5</v>
+        <v>-0.9</v>
       </c>
       <c r="C8">
-        <v>-0.1</v>
+        <v>-1.7</v>
       </c>
       <c r="D8">
-        <v>0.3</v>
+        <v>-3.1</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1653,13 +1671,13 @@
         <v>2010</v>
       </c>
       <c r="B9">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="C9">
-        <v>0.2</v>
+        <v>3.2</v>
       </c>
       <c r="D9">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1667,13 +1685,13 @@
         <v>2011</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="C10">
-        <v>0.3</v>
+        <v>5.9</v>
       </c>
       <c r="D10">
-        <v>0.7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -1681,13 +1699,13 @@
         <v>2012</v>
       </c>
       <c r="B11">
-        <v>1.1000000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="C11">
-        <v>0.4</v>
+        <v>9.9</v>
       </c>
       <c r="D11">
-        <v>0.7</v>
+        <v>11.1</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1695,13 +1713,13 @@
         <v>2013</v>
       </c>
       <c r="B12">
-        <v>1.2</v>
+        <v>2.8</v>
       </c>
       <c r="C12">
-        <v>0.5</v>
+        <v>10</v>
       </c>
       <c r="D12">
-        <v>0.8</v>
+        <v>12.3</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1709,13 +1727,13 @@
         <v>2014</v>
       </c>
       <c r="B13">
-        <v>1.3</v>
+        <v>2.9</v>
       </c>
       <c r="C13">
-        <v>0.7</v>
+        <v>12.7</v>
       </c>
       <c r="D13">
-        <v>0.9</v>
+        <v>15.1</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1723,13 +1741,13 @@
         <v>2015</v>
       </c>
       <c r="B14">
-        <v>1.3</v>
+        <v>2.8</v>
       </c>
       <c r="C14">
-        <v>0.7</v>
+        <v>14.9</v>
       </c>
       <c r="D14">
-        <v>0.9</v>
+        <v>17.100000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1737,13 +1755,13 @@
         <v>2016</v>
       </c>
       <c r="B15">
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="C15">
-        <v>0.7</v>
+        <v>18.100000000000001</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>19.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -1751,13 +1769,13 @@
         <v>2017</v>
       </c>
       <c r="B16">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="C16">
-        <v>0.7</v>
+        <v>18.399999999999999</v>
       </c>
       <c r="D16">
-        <v>0.9</v>
+        <v>19.2</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -1765,13 +1783,13 @@
         <v>2018</v>
       </c>
       <c r="B17">
-        <v>1.3</v>
+        <v>1.9</v>
       </c>
       <c r="C17">
-        <v>0.7</v>
+        <v>18.8</v>
       </c>
       <c r="D17">
-        <v>0.9</v>
+        <v>19.600000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -1779,13 +1797,13 @@
         <v>2019</v>
       </c>
       <c r="B18">
-        <v>1.3</v>
+        <v>1.8</v>
       </c>
       <c r="C18">
-        <v>0.8</v>
+        <v>19.399999999999999</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>20.2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1793,13 +1811,13 @@
         <v>2020</v>
       </c>
       <c r="B19">
-        <v>1.2</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="C19">
-        <v>0.7</v>
+        <v>23.9</v>
       </c>
       <c r="D19">
-        <v>0.8</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1807,13 +1825,13 @@
         <v>2021</v>
       </c>
       <c r="B20">
-        <v>1.2</v>
+        <v>6.5</v>
       </c>
       <c r="C20">
-        <v>0.7</v>
+        <v>27.7</v>
       </c>
       <c r="D20">
-        <v>0.8</v>
+        <v>33.1</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1821,13 +1839,13 @@
         <v>2022</v>
       </c>
       <c r="B21">
-        <v>1.1000000000000001</v>
+        <v>7.9</v>
       </c>
       <c r="C21">
-        <v>0.6</v>
+        <v>21.7</v>
       </c>
       <c r="D21">
-        <v>0.7</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,13 +1853,13 @@
         <v>2023</v>
       </c>
       <c r="B22">
-        <v>1.1000000000000001</v>
+        <v>8.1999999999999993</v>
       </c>
       <c r="C22">
-        <v>0.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D22">
-        <v>0.7</v>
+        <v>25.8</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,13 +1867,13 @@
         <v>2024</v>
       </c>
       <c r="B23">
-        <v>1.4</v>
+        <v>11</v>
       </c>
       <c r="C23">
-        <v>0.5</v>
+        <v>18.600000000000001</v>
       </c>
       <c r="D23">
-        <v>0.9</v>
+        <v>28.6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,13 +1881,13 @@
         <v>2025</v>
       </c>
       <c r="B24">
-        <v>1.5</v>
+        <v>13</v>
       </c>
       <c r="C24">
-        <v>0.5</v>
+        <v>20</v>
       </c>
       <c r="D24">
-        <v>0.9</v>
+        <v>32</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -1877,13 +1895,13 @@
         <v>2026</v>
       </c>
       <c r="B25">
-        <v>1.7</v>
+        <v>14.1</v>
       </c>
       <c r="C25">
-        <v>0.6</v>
+        <v>21.5</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>34.5</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -1891,13 +1909,13 @@
         <v>2027</v>
       </c>
       <c r="B26">
-        <v>1.7</v>
+        <v>14.6</v>
       </c>
       <c r="C26">
-        <v>0.7</v>
+        <v>21.8</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>35.4</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -1905,24 +1923,13 @@
         <v>2028</v>
       </c>
       <c r="B27">
-        <v>1.9</v>
+        <v>14.8</v>
       </c>
       <c r="C27">
-        <v>0.9</v>
+        <v>21.9</v>
       </c>
       <c r="D27">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2029</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-      <c r="D28">
-        <v>1.2</v>
+        <v>35.700000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -1930,7 +1937,417 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E9013E-AC9C-4450-BC15-408380B84B9F}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" s="16">
+        <v>-0.88900000000000001</v>
+      </c>
+      <c r="C2" s="16">
+        <v>3.54</v>
+      </c>
+      <c r="D2" s="16">
+        <v>2.327</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" s="16">
+        <v>-1.5960000000000001</v>
+      </c>
+      <c r="C3" s="16">
+        <v>2.3849999999999998</v>
+      </c>
+      <c r="D3" s="16">
+        <v>0.42099999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4" s="16">
+        <v>-2.2709999999999999</v>
+      </c>
+      <c r="C4" s="16">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="D4" s="16">
+        <v>-1.623</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" s="16">
+        <v>-3.0270000000000001</v>
+      </c>
+      <c r="C5" s="16">
+        <v>-1.0920000000000001</v>
+      </c>
+      <c r="D5" s="16">
+        <v>-4.5659999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6" s="16">
+        <v>-2.39</v>
+      </c>
+      <c r="C6" s="16">
+        <v>-3.6459999999999999</v>
+      </c>
+      <c r="D6" s="16">
+        <v>-6.4820000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7" s="16">
+        <v>-1.508</v>
+      </c>
+      <c r="C7" s="16">
+        <v>-4.4370000000000003</v>
+      </c>
+      <c r="D7" s="16">
+        <v>-6.3780000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="16">
+        <v>-0.69</v>
+      </c>
+      <c r="C8" s="16">
+        <v>-1.72</v>
+      </c>
+      <c r="D8" s="16">
+        <v>-2.9319999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="16">
+        <v>0.246</v>
+      </c>
+      <c r="C9" s="16">
+        <v>3.2170000000000001</v>
+      </c>
+      <c r="D9" s="16">
+        <v>3.0179999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="16">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="C10" s="16">
+        <v>5.9260000000000002</v>
+      </c>
+      <c r="D10" s="16">
+        <v>6.1870000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="16">
+        <v>2.0219999999999998</v>
+      </c>
+      <c r="C11" s="16">
+        <v>9.9030000000000005</v>
+      </c>
+      <c r="D11" s="16">
+        <v>11.223000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="16">
+        <v>2.98</v>
+      </c>
+      <c r="C12" s="16">
+        <v>10.018000000000001</v>
+      </c>
+      <c r="D12" s="16">
+        <v>12.486000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="16">
+        <v>3.0720000000000001</v>
+      </c>
+      <c r="C13" s="16">
+        <v>12.683</v>
+      </c>
+      <c r="D13" s="16">
+        <v>15.288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="16">
+        <v>2.976</v>
+      </c>
+      <c r="C14" s="16">
+        <v>14.920999999999999</v>
+      </c>
+      <c r="D14" s="16">
+        <v>17.268000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="16">
+        <v>2.589</v>
+      </c>
+      <c r="C15" s="16">
+        <v>18.103000000000002</v>
+      </c>
+      <c r="D15" s="16">
+        <v>19.952999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="16">
+        <v>1.8879999999999999</v>
+      </c>
+      <c r="C16" s="16">
+        <v>18.446999999999999</v>
+      </c>
+      <c r="D16" s="16">
+        <v>19.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="16">
+        <v>2.0649999999999999</v>
+      </c>
+      <c r="C17" s="16">
+        <v>18.791</v>
+      </c>
+      <c r="D17" s="16">
+        <v>19.882000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="16">
+        <v>2.0150000000000001</v>
+      </c>
+      <c r="C18" s="16">
+        <v>19.401</v>
+      </c>
+      <c r="D18" s="16">
+        <v>20.417000000000002</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" s="16">
+        <v>4.8609999999999998</v>
+      </c>
+      <c r="C19" s="16">
+        <v>23.946000000000002</v>
+      </c>
+      <c r="D19" s="16">
+        <v>27.832000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="16">
+        <v>6.7329999999999997</v>
+      </c>
+      <c r="C20" s="16">
+        <v>27.704000000000001</v>
+      </c>
+      <c r="D20" s="16">
+        <v>33.423999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21" s="16">
+        <v>8.1280000000000001</v>
+      </c>
+      <c r="C21" s="16">
+        <v>21.725999999999999</v>
+      </c>
+      <c r="D21" s="16">
+        <v>28.849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22" s="16">
+        <v>8.3930000000000007</v>
+      </c>
+      <c r="C22" s="16">
+        <v>18.619</v>
+      </c>
+      <c r="D22" s="16">
+        <v>26.024000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" s="16">
+        <v>9.7989999999999995</v>
+      </c>
+      <c r="C23" s="16">
+        <v>17.783000000000001</v>
+      </c>
+      <c r="D23" s="16">
+        <v>26.657</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24" s="16">
+        <v>12.801</v>
+      </c>
+      <c r="C24" s="16">
+        <v>19.946999999999999</v>
+      </c>
+      <c r="D24" s="16">
+        <v>31.731999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25" s="16">
+        <v>14.311</v>
+      </c>
+      <c r="C25" s="16">
+        <v>21.545000000000002</v>
+      </c>
+      <c r="D25" s="16">
+        <v>34.811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26" s="16">
+        <v>15.318</v>
+      </c>
+      <c r="C26" s="16">
+        <v>22.603999999999999</v>
+      </c>
+      <c r="D26" s="16">
+        <v>36.859000000000002</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2028</v>
+      </c>
+      <c r="B27" s="16">
+        <v>15.677</v>
+      </c>
+      <c r="C27" s="16">
+        <v>22.681999999999999</v>
+      </c>
+      <c r="D27" s="16">
+        <v>37.293999999999997</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2029</v>
+      </c>
+      <c r="B28" s="16">
+        <v>15.795999999999999</v>
+      </c>
+      <c r="C28" s="16">
+        <v>23.143999999999998</v>
+      </c>
+      <c r="D28" s="16">
+        <v>37.877000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A88D15C1-53F7-417C-B78F-47F6C0E478A8}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -2169,7 +2586,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521CE950-F8DA-4835-BD99-2FA59D7324CA}">
   <dimension ref="A1:E53"/>
   <sheetViews>
@@ -3085,7 +3502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC05B1-9AB1-4509-9089-29AFAE6666A5}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -3664,7 +4081,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D5BD26-8E8B-4A7A-AF07-A861F04DF87D}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -3890,7 +4307,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947EF26A-0411-4DBC-AC86-CB82F965425F}">
   <dimension ref="A1:E45"/>
   <sheetViews>
@@ -4670,7 +5087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FC5060-ACF6-4CD3-98AE-24CF890C07B0}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -5469,7 +5886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE48632D-6578-4F8E-9BB2-064C4BE841CD}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -5916,7 +6333,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643595FF-C969-4B3B-A38B-54922C656916}">
   <dimension ref="A1:C76"/>
   <sheetViews>
@@ -6767,7 +7184,418 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36280D95-3A35-42FC-A6F8-8778A3623A85}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="C2">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="D2">
+        <v>0.86899999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="C3">
+        <v>0.47399999999999998</v>
+      </c>
+      <c r="D3">
+        <v>0.73099999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>0.215</v>
+      </c>
+      <c r="C4">
+        <v>0.42199999999999999</v>
+      </c>
+      <c r="D4">
+        <v>0.63700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>0.221</v>
+      </c>
+      <c r="C5">
+        <v>0.46300000000000002</v>
+      </c>
+      <c r="D5">
+        <v>0.68400000000000005</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>0.183</v>
+      </c>
+      <c r="C6">
+        <v>0.36399999999999999</v>
+      </c>
+      <c r="D6">
+        <v>0.54700000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>0.193</v>
+      </c>
+      <c r="C7">
+        <v>0.318</v>
+      </c>
+      <c r="D7">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>0.218</v>
+      </c>
+      <c r="C8">
+        <v>0.315</v>
+      </c>
+      <c r="D8">
+        <v>0.53300000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>0.245</v>
+      </c>
+      <c r="C9">
+        <v>0.49099999999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.73699999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="C10">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="D10">
+        <v>0.96599999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="C11">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="D11">
+        <v>1.0780000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="C12">
+        <v>0.77100000000000002</v>
+      </c>
+      <c r="D12">
+        <v>1.1879999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>0.44</v>
+      </c>
+      <c r="C13">
+        <v>0.874</v>
+      </c>
+      <c r="D13">
+        <v>1.3140000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="C14">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="D14">
+        <v>1.3049999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>0.435</v>
+      </c>
+      <c r="C15">
+        <v>0.90300000000000002</v>
+      </c>
+      <c r="D15">
+        <v>1.339</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>0.375</v>
+      </c>
+      <c r="C16">
+        <v>0.87</v>
+      </c>
+      <c r="D16">
+        <v>1.2450000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C17">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="D17">
+        <v>1.266</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="C18">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="D18">
+        <v>1.321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>0.36599999999999999</v>
+      </c>
+      <c r="C19">
+        <v>0.83399999999999996</v>
+      </c>
+      <c r="D19">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20">
+        <v>0.37</v>
+      </c>
+      <c r="C20">
+        <v>0.82</v>
+      </c>
+      <c r="D20">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>0.36099999999999999</v>
+      </c>
+      <c r="C21">
+        <v>0.748</v>
+      </c>
+      <c r="D21">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="C22">
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="D22">
+        <v>1.141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="C23">
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="D23">
+        <v>1.373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="C24">
+        <v>0.876</v>
+      </c>
+      <c r="D24">
+        <v>1.512</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="C25">
+        <v>0.96799999999999997</v>
+      </c>
+      <c r="D25">
+        <v>1.6719999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26">
+        <v>0.8</v>
+      </c>
+      <c r="C26">
+        <v>1.008</v>
+      </c>
+      <c r="D26">
+        <v>1.8080000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2028</v>
+      </c>
+      <c r="B27">
+        <v>0.88100000000000001</v>
+      </c>
+      <c r="C27">
+        <v>1.167</v>
+      </c>
+      <c r="D27">
+        <v>2.0470000000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2029</v>
+      </c>
+      <c r="B28">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="C28">
+        <v>1.1519999999999999</v>
+      </c>
+      <c r="D28">
+        <v>2.0750000000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0764D6E1-C02B-4C95-A604-A8A7B9048862}">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -7321,7 +8149,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D2D98-802A-4A51-B75D-2192CE425136}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -7570,24 +8398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F4E449-479F-4A5B-BC49-D6A14D7825C8}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H39" sqref="H39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745C7045-4AC5-4428-8A37-55F7380B9314}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -7859,7 +8670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B6891E-27A9-4D41-980D-EA57C7FB798A}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -9315,7 +10126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664C3406-6840-4B9C-BF3E-02681E205503}">
   <dimension ref="A1:C105"/>
   <sheetViews>
@@ -10485,7 +11296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18215CE2-7A36-4362-81C2-6AB8BF24A07B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -10811,7 +11622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A31D00E-810A-4457-B6E5-9F0BD9FF0D77}">
   <dimension ref="A1:E131"/>
   <sheetViews>
@@ -13053,7 +13864,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19FBBC-734D-4613-83F8-43F87062F04C}">
   <dimension ref="A1:C92"/>
   <sheetViews>
@@ -14080,7 +14891,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D1AC7-8FBC-4965-9AF7-51AFE1EE0D26}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -14094,7 +14905,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187D45E2-7036-4FD9-9EC8-E4555F8EE05C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -14255,7 +15066,412 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7292037B-9D23-4885-87BF-08F5F9890E52}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>308</v>
+      </c>
+      <c r="C1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>0.9</v>
+      </c>
+      <c r="C2">
+        <v>0.5</v>
+      </c>
+      <c r="D2">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>0.7</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>0.6</v>
+      </c>
+      <c r="C4">
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <v>0.2</v>
+      </c>
+      <c r="D5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+      <c r="C7">
+        <v>-0.1</v>
+      </c>
+      <c r="D7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>0.5</v>
+      </c>
+      <c r="C8">
+        <v>-0.1</v>
+      </c>
+      <c r="D8">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>0.7</v>
+      </c>
+      <c r="C9">
+        <v>0.2</v>
+      </c>
+      <c r="D9">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>0.3</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.4</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>1.2</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>1.3</v>
+      </c>
+      <c r="C13">
+        <v>0.7</v>
+      </c>
+      <c r="D13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14">
+        <v>0.7</v>
+      </c>
+      <c r="D14">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>1.3</v>
+      </c>
+      <c r="C15">
+        <v>0.7</v>
+      </c>
+      <c r="D15">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>1.2</v>
+      </c>
+      <c r="C16">
+        <v>0.7</v>
+      </c>
+      <c r="D16">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>1.3</v>
+      </c>
+      <c r="C17">
+        <v>0.7</v>
+      </c>
+      <c r="D17">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>1.3</v>
+      </c>
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>1.2</v>
+      </c>
+      <c r="C19">
+        <v>0.7</v>
+      </c>
+      <c r="D19">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20">
+        <v>1.2</v>
+      </c>
+      <c r="C20">
+        <v>0.7</v>
+      </c>
+      <c r="D20">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.6</v>
+      </c>
+      <c r="D21">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C22">
+        <v>0.5</v>
+      </c>
+      <c r="D22">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>1.4</v>
+      </c>
+      <c r="C23">
+        <v>0.5</v>
+      </c>
+      <c r="D23">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24">
+        <v>1.5</v>
+      </c>
+      <c r="C24">
+        <v>0.5</v>
+      </c>
+      <c r="D24">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25">
+        <v>1.7</v>
+      </c>
+      <c r="C25">
+        <v>0.6</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26">
+        <v>1.7</v>
+      </c>
+      <c r="C26">
+        <v>0.7</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2028</v>
+      </c>
+      <c r="B27">
+        <v>1.9</v>
+      </c>
+      <c r="C27">
+        <v>0.9</v>
+      </c>
+      <c r="D27">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2029</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28">
+        <v>1.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607264FA-4CEC-4964-ADD9-7430F95E4679}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -15318,7 +16534,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE2E94-ED00-4436-9904-511FD0F7ABA5}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -15510,902 +16726,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3953408D-929D-4056-9C00-212E6B38F34C}">
-  <dimension ref="A1:C80"/>
-  <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2025</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2026</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2027</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2028</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2003</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2004</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2005</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2006</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2007</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2008</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2009</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2010</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>-4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2011</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2013</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2015</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2016</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2017</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2018</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2019</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2020</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2021</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>-6.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2022</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2023</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2024</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2025</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2026</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2027</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2028</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2003</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2004</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2005</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2006</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2007</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2008</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2009</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2011</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2012</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>-4.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2013</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2014</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2015</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2016</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2017</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2018</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2019</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2020</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2021</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>-9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2022</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>-3.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2023</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2024</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2025</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>-3.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2026</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2027</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2028</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>15</v>
-      </c>
-      <c r="C80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB187DF4-FDA8-4C94-A078-1A532C5CDB2B}">
   <dimension ref="A1:C205"/>
   <sheetViews>
@@ -18678,7 +18999,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABF7EBE-627D-4BB0-9405-ECD76D3B70EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -19057,7 +19378,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2014F5-BEAF-4909-A8EC-D6E17320100D}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -19277,7 +19598,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82725E17-B60E-4EEF-AD01-E44A279DACAE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -19291,7 +19612,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F09A25-5A7F-46B5-878B-A5D4C9D9CFAA}">
   <dimension ref="A1:N93"/>
   <sheetViews>
@@ -22337,7 +22658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574DB6E-CE67-48F6-951B-22327034725B}">
   <dimension ref="A1:Q93"/>
   <sheetViews>
@@ -26203,7 +26524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DACA9-2703-46AB-BFA3-8D857973518D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26217,7 +26538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF2612-8D4B-44BE-BDC9-9813CF05C984}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26231,7 +26552,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80F4E449-479F-4A5B-BC49-D6A14D7825C8}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FACA4F-2572-4547-9E6F-94B897041732}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -26245,7 +26583,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4260C632-A036-4233-AFE2-E87A6FB42399}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -26476,24 +26814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7021EA-99CD-4D27-9DA3-25E014DB9A35}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC29E18-6610-4DCD-BEC6-4DABE0E5BE90}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -27245,7 +27566,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1C950-9DE9-49F8-A43E-06E9BC4FB097}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -27711,7 +28032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07082F2-11DF-4770-88D1-F0B0116C1352}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -28001,7 +28322,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37150C-2201-49DC-A9D9-5A36759A8CC0}">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -28731,7 +29052,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5FBEC3-B9FD-48B5-95CF-86757768825B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -28965,7 +29286,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277955A-823F-4756-95EE-51E18498EE7B}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
@@ -31317,7 +31638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597962C1-292D-4A6C-AC0B-02B04F1224CA}">
   <dimension ref="A1:F27"/>
   <sheetViews>
@@ -31872,7 +32193,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF1DB0-E2DB-4F33-A326-4E0DA02E7E6C}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -32228,7 +32549,902 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3953408D-929D-4056-9C00-212E6B38F34C}">
+  <dimension ref="A1:C80"/>
+  <sheetViews>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18">
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2028</v>
+      </c>
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2003</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2004</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2005</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2006</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1.8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2009</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2010</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>-4.0999999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2011</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>-3.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2012</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>-3.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2013</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2014</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2015</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2016</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>-2.2999999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2017</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>-1.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2018</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2019</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>-0.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2020</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2021</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>-6.9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2022</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2023</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2024</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2025</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>-1.8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2026</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2027</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2028</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2003</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2004</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2005</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2006</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2008</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2009</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>-3.3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2010</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>-5.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2011</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>-4.8</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2012</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63">
+        <v>-4.3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2013</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>-2.6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2014</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2015</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>-2.9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2016</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>-2.7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2017</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68">
+        <v>-2.2000000000000002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2018</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>-1.3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2019</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>-1.2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2020</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>-7.5</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2021</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>-9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2022</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>-3.7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2023</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>-0.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2024</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>-1.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2025</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76">
+        <v>-3.6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2026</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>-2.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2027</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2028</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79">
+        <v>-2.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF9EC2D-5ADB-4D44-9626-BFF474F5B6F1}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -32621,7 +33837,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84465C54-AD9F-4641-9695-AEC223DDDF1F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -32812,605 +34028,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
-  <dimension ref="A1:C53"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2">
-        <v>0.35515360000000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3">
-        <v>0.3480782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4">
-        <v>0.35675380000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5">
-        <v>0.3528773</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6">
-        <v>0.34660099999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0.34731909999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8">
-        <v>0.34742139999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9">
-        <v>0.34380470000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10">
-        <v>0.34268700000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>0.34115810000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>0.36635269999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13">
-        <v>0.37641550000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>0.36339320000000003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15">
-        <v>0.36536360000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16">
-        <v>0.36243120000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17">
-        <v>0.36532789999999998</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>0.37059310000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19">
-        <v>0.3739229</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20">
-        <v>0.36755280000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21">
-        <v>0.36848120000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22">
-        <v>0.36879010000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23">
-        <v>0.42051450000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24">
-        <v>0.44151180000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25">
-        <v>0.39441470000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26">
-        <v>0.36843959999999998</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27">
-        <v>0.38262170000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>1999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28">
-        <v>0.34871269999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2000</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29">
-        <v>0.34295350000000002</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>0.35105120000000001</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31">
-        <v>0.3467421</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2003</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32">
-        <v>0.34098780000000001</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2004</v>
-      </c>
-      <c r="B33" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33">
-        <v>0.34098650000000003</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2005</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34">
-        <v>0.33942739999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2006</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>0.33300920000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2007</v>
-      </c>
-      <c r="B36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C36">
-        <v>0.32994990000000002</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2008</v>
-      </c>
-      <c r="B37" t="s">
-        <v>18</v>
-      </c>
-      <c r="C37">
-        <v>0.32696039999999998</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2009</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38">
-        <v>0.3487498</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2010</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39">
-        <v>0.35190539999999998</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2011</v>
-      </c>
-      <c r="B40" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40">
-        <v>0.34243249999999997</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2012</v>
-      </c>
-      <c r="B41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C41">
-        <v>0.34761700000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2013</v>
-      </c>
-      <c r="B42" t="s">
-        <v>18</v>
-      </c>
-      <c r="C42">
-        <v>0.35081319999999999</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2014</v>
-      </c>
-      <c r="B43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C43">
-        <v>0.35189920000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2015</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44">
-        <v>0.3582224</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2016</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45">
-        <v>0.3609771</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2017</v>
-      </c>
-      <c r="B46" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46">
-        <v>0.35345100000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2018</v>
-      </c>
-      <c r="B47" t="s">
-        <v>18</v>
-      </c>
-      <c r="C47">
-        <v>0.35015380000000002</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2019</v>
-      </c>
-      <c r="B48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48">
-        <v>0.34788089999999999</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2020</v>
-      </c>
-      <c r="B49" t="s">
-        <v>18</v>
-      </c>
-      <c r="C49">
-        <v>0.39849909999999999</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2021</v>
-      </c>
-      <c r="B50" t="s">
-        <v>18</v>
-      </c>
-      <c r="C50">
-        <v>0.41878650000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2022</v>
-      </c>
-      <c r="B51" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51">
-        <v>0.37178359999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2023</v>
-      </c>
-      <c r="B52" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52">
-        <v>0.34488210000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2024</v>
-      </c>
-      <c r="B53" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53">
-        <v>0.35905140000000002</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90598800-F848-4412-BABE-842603155D25}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -33493,7 +34111,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA57E6-6ABC-4E91-B0F1-32EF8797A167}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33507,7 +34125,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DDE1F0-C723-4546-8A50-AB43D1612454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -33521,7 +34139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3538B4-37BE-47F7-A81E-403AB88EB97A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -33752,7 +34370,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FD6F1-D440-42BC-AE35-D05933713E4C}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -34509,7 +35127,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405343B9-E24C-4687-982E-E9D66258B033}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -35107,7 +35725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964574C-56FE-4D20-B094-0B67DD33C552}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -35397,7 +36015,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8E219-7415-4FD9-9F5D-16982DCB2BC5}">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -36138,7 +36756,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7021EA-99CD-4D27-9DA3-25E014DB9A35}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2198443-384E-4402-94D6-85936292F7C6}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -36884,7 +37519,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458ED67A-6602-4019-B886-3D2E34EB9F4B}">
   <dimension ref="A1:F217"/>
   <sheetViews>
@@ -41239,891 +41874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1124D4-753C-4B69-94DB-407DB65A4188}">
-  <dimension ref="A1:C79"/>
-  <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C2">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4" t="s">
-        <v>50</v>
-      </c>
-      <c r="C4">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C11">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14">
-        <v>-0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15">
-        <v>-0.3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16" t="s">
-        <v>50</v>
-      </c>
-      <c r="C16">
-        <v>-0.4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18" t="s">
-        <v>50</v>
-      </c>
-      <c r="C18">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21" t="s">
-        <v>50</v>
-      </c>
-      <c r="C21">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2025</v>
-      </c>
-      <c r="B24" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2026</v>
-      </c>
-      <c r="B25" t="s">
-        <v>50</v>
-      </c>
-      <c r="C25">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2027</v>
-      </c>
-      <c r="B26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2028</v>
-      </c>
-      <c r="B27" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2003</v>
-      </c>
-      <c r="B28" t="s">
-        <v>1</v>
-      </c>
-      <c r="C28">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2004</v>
-      </c>
-      <c r="B29" t="s">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2005</v>
-      </c>
-      <c r="B30" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30">
-        <v>1.3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2006</v>
-      </c>
-      <c r="B31" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1.7</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>2007</v>
-      </c>
-      <c r="B32" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>2008</v>
-      </c>
-      <c r="B33" t="s">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>1.8</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>2009</v>
-      </c>
-      <c r="B34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>2010</v>
-      </c>
-      <c r="B35" t="s">
-        <v>1</v>
-      </c>
-      <c r="C35">
-        <v>-4.0999999999999996</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>2011</v>
-      </c>
-      <c r="B36" t="s">
-        <v>1</v>
-      </c>
-      <c r="C36">
-        <v>-3.8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>2012</v>
-      </c>
-      <c r="B37" t="s">
-        <v>1</v>
-      </c>
-      <c r="C37">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>2013</v>
-      </c>
-      <c r="B38" t="s">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>2014</v>
-      </c>
-      <c r="B39" t="s">
-        <v>1</v>
-      </c>
-      <c r="C39">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>2015</v>
-      </c>
-      <c r="B40" t="s">
-        <v>1</v>
-      </c>
-      <c r="C40">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>2016</v>
-      </c>
-      <c r="B41" t="s">
-        <v>1</v>
-      </c>
-      <c r="C41">
-        <v>-2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>2017</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42">
-        <v>-1.7</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>2018</v>
-      </c>
-      <c r="B43" t="s">
-        <v>1</v>
-      </c>
-      <c r="C43">
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>2019</v>
-      </c>
-      <c r="B44" t="s">
-        <v>1</v>
-      </c>
-      <c r="C44">
-        <v>-0.1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>2020</v>
-      </c>
-      <c r="B45" t="s">
-        <v>1</v>
-      </c>
-      <c r="C45">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>2021</v>
-      </c>
-      <c r="B46" t="s">
-        <v>1</v>
-      </c>
-      <c r="C46">
-        <v>-6.9</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>2022</v>
-      </c>
-      <c r="B47" t="s">
-        <v>1</v>
-      </c>
-      <c r="C47">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>2023</v>
-      </c>
-      <c r="B48" t="s">
-        <v>1</v>
-      </c>
-      <c r="C48">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>2024</v>
-      </c>
-      <c r="B49" t="s">
-        <v>1</v>
-      </c>
-      <c r="C49">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>2025</v>
-      </c>
-      <c r="B50" t="s">
-        <v>1</v>
-      </c>
-      <c r="C50">
-        <v>-1.8</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>2026</v>
-      </c>
-      <c r="B51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C51">
-        <v>-1.5</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>2027</v>
-      </c>
-      <c r="B52" t="s">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>-1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>2028</v>
-      </c>
-      <c r="B53" t="s">
-        <v>1</v>
-      </c>
-      <c r="C53">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>2003</v>
-      </c>
-      <c r="B54" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54">
-        <v>0.9</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>2004</v>
-      </c>
-      <c r="B55" t="s">
-        <v>2</v>
-      </c>
-      <c r="C55">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>2005</v>
-      </c>
-      <c r="B56" t="s">
-        <v>2</v>
-      </c>
-      <c r="C56">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>2006</v>
-      </c>
-      <c r="B57" t="s">
-        <v>2</v>
-      </c>
-      <c r="C57">
-        <v>1.9</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>2007</v>
-      </c>
-      <c r="B58" t="s">
-        <v>2</v>
-      </c>
-      <c r="C58">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>2008</v>
-      </c>
-      <c r="B59" t="s">
-        <v>2</v>
-      </c>
-      <c r="C59">
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>2009</v>
-      </c>
-      <c r="B60" t="s">
-        <v>2</v>
-      </c>
-      <c r="C60">
-        <v>-3.3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>2010</v>
-      </c>
-      <c r="B61" t="s">
-        <v>2</v>
-      </c>
-      <c r="C61">
-        <v>-5.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>2011</v>
-      </c>
-      <c r="B62" t="s">
-        <v>2</v>
-      </c>
-      <c r="C62">
-        <v>-4.8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>2012</v>
-      </c>
-      <c r="B63" t="s">
-        <v>2</v>
-      </c>
-      <c r="C63">
-        <v>-4.3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>2013</v>
-      </c>
-      <c r="B64" t="s">
-        <v>2</v>
-      </c>
-      <c r="C64">
-        <v>-2.6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>2014</v>
-      </c>
-      <c r="B65" t="s">
-        <v>2</v>
-      </c>
-      <c r="C65">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>2015</v>
-      </c>
-      <c r="B66" t="s">
-        <v>2</v>
-      </c>
-      <c r="C66">
-        <v>-2.9</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>2016</v>
-      </c>
-      <c r="B67" t="s">
-        <v>2</v>
-      </c>
-      <c r="C67">
-        <v>-2.7</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>2017</v>
-      </c>
-      <c r="B68" t="s">
-        <v>2</v>
-      </c>
-      <c r="C68">
-        <v>-2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>2018</v>
-      </c>
-      <c r="B69" t="s">
-        <v>2</v>
-      </c>
-      <c r="C69">
-        <v>-1.3</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>2019</v>
-      </c>
-      <c r="B70" t="s">
-        <v>2</v>
-      </c>
-      <c r="C70">
-        <v>-1.2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>2020</v>
-      </c>
-      <c r="B71" t="s">
-        <v>2</v>
-      </c>
-      <c r="C71">
-        <v>-7.5</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>2021</v>
-      </c>
-      <c r="B72" t="s">
-        <v>2</v>
-      </c>
-      <c r="C72">
-        <v>-9.3000000000000007</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>2022</v>
-      </c>
-      <c r="B73" t="s">
-        <v>2</v>
-      </c>
-      <c r="C73">
-        <v>-3.7</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>2023</v>
-      </c>
-      <c r="B74" t="s">
-        <v>2</v>
-      </c>
-      <c r="C74">
-        <v>-0.8</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>2024</v>
-      </c>
-      <c r="B75" t="s">
-        <v>2</v>
-      </c>
-      <c r="C75">
-        <v>-1.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>2025</v>
-      </c>
-      <c r="B76" t="s">
-        <v>2</v>
-      </c>
-      <c r="C76">
-        <v>-3.6</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>2026</v>
-      </c>
-      <c r="B77" t="s">
-        <v>2</v>
-      </c>
-      <c r="C77">
-        <v>-2.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>2027</v>
-      </c>
-      <c r="B78" t="s">
-        <v>2</v>
-      </c>
-      <c r="C78">
-        <v>-2.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>2028</v>
-      </c>
-      <c r="B79" t="s">
-        <v>2</v>
-      </c>
-      <c r="C79">
-        <v>-2.5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35A4B-F81B-4CBD-A832-685B702067D7}">
   <dimension ref="A1:F125"/>
   <sheetViews>
@@ -44638,7 +44389,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC607D-307F-431A-863B-985430F65DB4}">
   <dimension ref="A1:G18"/>
   <sheetViews>
@@ -44780,11 +44531,609 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C8EC85-39E1-416A-AFED-AE0BCD06F7CB}">
-  <dimension ref="A1:C82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{533D143C-BE55-4D68-97BF-90A964CB4EE8}">
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2">
+        <v>0.35515360000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3">
+        <v>0.3480782</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4">
+        <v>0.35675380000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>0.3528773</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6">
+        <v>0.34660099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>0.34731909999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8">
+        <v>0.34742139999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0.34380470000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10">
+        <v>0.34268700000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11">
+        <v>0.34115810000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>0.36635269999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>0.37641550000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14">
+        <v>0.36339320000000003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15">
+        <v>0.36536360000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16">
+        <v>0.36243120000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>0.36532789999999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>0.37059310000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.3739229</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>0.36755280000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>0.36848120000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>0.36879010000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>0.42051450000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24">
+        <v>0.44151180000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25">
+        <v>0.39441470000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26">
+        <v>0.36843959999999998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27">
+        <v>0.38262170000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1999</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>0.34871269999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2000</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>0.34295350000000002</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>0.35105120000000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>0.3467421</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>0.34098780000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2004</v>
+      </c>
+      <c r="B33" t="s">
+        <v>18</v>
+      </c>
+      <c r="C33">
+        <v>0.34098650000000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2005</v>
+      </c>
+      <c r="B34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C34">
+        <v>0.33942739999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2006</v>
+      </c>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>0.33300920000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2007</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>0.32994990000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>0.32696039999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2009</v>
+      </c>
+      <c r="B38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38">
+        <v>0.3487498</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2010</v>
+      </c>
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39">
+        <v>0.35190539999999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2011</v>
+      </c>
+      <c r="B40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40">
+        <v>0.34243249999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2012</v>
+      </c>
+      <c r="B41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41">
+        <v>0.34761700000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2013</v>
+      </c>
+      <c r="B42" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>0.35081319999999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2014</v>
+      </c>
+      <c r="B43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C43">
+        <v>0.35189920000000002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2015</v>
+      </c>
+      <c r="B44" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>0.3582224</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2016</v>
+      </c>
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45">
+        <v>0.3609771</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2017</v>
+      </c>
+      <c r="B46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C46">
+        <v>0.35345100000000002</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2018</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>0.35015380000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2019</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>0.34788089999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2020</v>
+      </c>
+      <c r="B49" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49">
+        <v>0.39849909999999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>0.41878650000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2022</v>
+      </c>
+      <c r="B51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>0.37178359999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2023</v>
+      </c>
+      <c r="B52" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52">
+        <v>0.34488210000000002</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2024</v>
+      </c>
+      <c r="B53" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53">
+        <v>0.35905140000000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F1124D4-753C-4B69-94DB-407DB65A4188}">
+  <dimension ref="A1:C79"/>
+  <sheetViews>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44807,8 +45156,8 @@
       <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="18">
-        <v>0.22500000000000001</v>
+      <c r="C2">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -44818,8 +45167,8 @@
       <c r="B3" t="s">
         <v>50</v>
       </c>
-      <c r="C3" s="18">
-        <v>0.50800000000000001</v>
+      <c r="C3">
+        <v>0.5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -44829,8 +45178,8 @@
       <c r="B4" t="s">
         <v>50</v>
       </c>
-      <c r="C4" s="18">
-        <v>0.41099999999999998</v>
+      <c r="C4">
+        <v>0.4</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -44840,8 +45189,8 @@
       <c r="B5" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="18">
-        <v>0.29499999999999998</v>
+      <c r="C5">
+        <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -44851,8 +45200,8 @@
       <c r="B6" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="18">
-        <v>-7.6999999999999999E-2</v>
+      <c r="C6">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -44862,8 +45211,8 @@
       <c r="B7" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="18">
-        <v>-0.218</v>
+      <c r="C7">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -44873,8 +45222,8 @@
       <c r="B8" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="18">
-        <v>-0.85499999999999998</v>
+      <c r="C8">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -44884,7 +45233,7 @@
       <c r="B9" t="s">
         <v>50</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9">
         <v>-1.1000000000000001</v>
       </c>
     </row>
@@ -44895,8 +45244,8 @@
       <c r="B10" t="s">
         <v>50</v>
       </c>
-      <c r="C10" s="18">
-        <v>-1.077</v>
+      <c r="C10">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -44906,8 +45255,8 @@
       <c r="B11" t="s">
         <v>50</v>
       </c>
-      <c r="C11" s="18">
-        <v>-0.89800000000000002</v>
+      <c r="C11">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -44917,8 +45266,8 @@
       <c r="B12" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="18">
-        <v>-1.18</v>
+      <c r="C12">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -44928,8 +45277,8 @@
       <c r="B13" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="18">
-        <v>-0.40500000000000003</v>
+      <c r="C13">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -44939,8 +45288,8 @@
       <c r="B14" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="18">
-        <v>-0.219</v>
+      <c r="C14">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -44950,8 +45299,8 @@
       <c r="B15" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="18">
-        <v>-0.25800000000000001</v>
+      <c r="C15">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -44961,8 +45310,8 @@
       <c r="B16" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="18">
-        <v>-0.42299999999999999</v>
+      <c r="C16">
+        <v>-0.4</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -44972,8 +45321,8 @@
       <c r="B17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="18">
-        <v>-0.71199999999999997</v>
+      <c r="C17">
+        <v>-0.7</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -44983,8 +45332,8 @@
       <c r="B18" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="18">
-        <v>-0.999</v>
+      <c r="C18">
+        <v>-1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -44994,8 +45343,8 @@
       <c r="B19" t="s">
         <v>50</v>
       </c>
-      <c r="C19" s="18">
-        <v>-2.6560000000000001</v>
+      <c r="C19">
+        <v>-2.7</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -45005,8 +45354,8 @@
       <c r="B20" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="18">
-        <v>-2.504</v>
+      <c r="C20">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -45016,8 +45365,8 @@
       <c r="B21" t="s">
         <v>50</v>
       </c>
-      <c r="C21" s="18">
-        <v>-2.5019999999999998</v>
+      <c r="C21">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -45027,8 +45376,8 @@
       <c r="B22" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="18">
-        <v>-1.698</v>
+      <c r="C22">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -45038,8 +45387,8 @@
       <c r="B23" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="18">
-        <v>-1.96</v>
+      <c r="C23">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -45049,8 +45398,8 @@
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="18">
-        <v>-2</v>
+      <c r="C24">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -45060,8 +45409,8 @@
       <c r="B25" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="18">
-        <v>-0.82699999999999996</v>
+      <c r="C25">
+        <v>-0.9</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -45071,8 +45420,8 @@
       <c r="B26" t="s">
         <v>50</v>
       </c>
-      <c r="C26" s="18">
-        <v>-1.3129999999999999</v>
+      <c r="C26">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -45082,1006 +45431,580 @@
       <c r="B27" t="s">
         <v>50</v>
       </c>
-      <c r="C27" s="18">
-        <v>-0.89</v>
+      <c r="C27">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>2029</v>
+        <v>2003</v>
       </c>
       <c r="B28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C28" s="18">
-        <v>-0.64800000000000002</v>
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C29" s="17">
-        <v>0.79600000000000004</v>
+      <c r="C29">
+        <v>0.8</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="17">
-        <v>0.78200000000000003</v>
+      <c r="C30">
+        <v>1.3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="17">
-        <v>1.2689999999999999</v>
+      <c r="C31">
+        <v>1.7</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="17">
-        <v>1.667</v>
+      <c r="C32">
+        <v>1.6</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
       </c>
-      <c r="C33" s="17">
-        <v>1.62</v>
+      <c r="C33">
+        <v>1.8</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="17">
-        <v>1.806</v>
+      <c r="C34">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
       </c>
-      <c r="C35" s="17">
-        <v>-2.3180000000000001</v>
+      <c r="C35">
+        <v>-4.0999999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
       </c>
-      <c r="C36" s="17">
-        <v>-4.0659999999999998</v>
+      <c r="C36">
+        <v>-3.8</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
       </c>
-      <c r="C37" s="17">
-        <v>-3.75</v>
+      <c r="C37">
+        <v>-3.1</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
       </c>
-      <c r="C38" s="17">
-        <v>-3.0739999999999998</v>
+      <c r="C38">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
       </c>
-      <c r="C39" s="17">
-        <v>-1.3779999999999999</v>
+      <c r="C39">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
       </c>
-      <c r="C40" s="17">
-        <v>-2.1970000000000001</v>
+      <c r="C40">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
       </c>
-      <c r="C41" s="17">
-        <v>-2.5619999999999998</v>
+      <c r="C41">
+        <v>-2.2999999999999998</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="B42" t="s">
         <v>1</v>
       </c>
-      <c r="C42" s="17">
-        <v>-2.3039999999999998</v>
+      <c r="C42">
+        <v>-1.7</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="17">
-        <v>-1.742</v>
+      <c r="C43">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
       </c>
-      <c r="C44" s="17">
-        <v>-0.46</v>
+      <c r="C44">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
       </c>
-      <c r="C45" s="17">
-        <v>-5.1999999999999998E-2</v>
+      <c r="C45">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
       </c>
-      <c r="C46" s="17">
-        <v>-4.819</v>
+      <c r="C46">
+        <v>-6.9</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="B47" t="s">
         <v>1</v>
       </c>
-      <c r="C47" s="17">
-        <v>-6.8879999999999999</v>
+      <c r="C47">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
       </c>
-      <c r="C48" s="17">
-        <v>-1.337</v>
+      <c r="C48">
+        <v>0.9</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="17">
-        <v>0.83099999999999996</v>
+      <c r="C49">
+        <v>0.4</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="17">
-        <v>0.41699999999999998</v>
+      <c r="C50">
+        <v>-1.8</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
       </c>
-      <c r="C51" s="17">
-        <v>-1.8169999999999999</v>
+      <c r="C51">
+        <v>-1.5</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
       </c>
-      <c r="C52" s="17">
-        <v>-1.534</v>
+      <c r="C52">
+        <v>-1.1000000000000001</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
       </c>
-      <c r="C53" s="17">
-        <v>-1.075</v>
+      <c r="C53">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>2028</v>
+        <v>2003</v>
       </c>
       <c r="B54" t="s">
-        <v>1</v>
-      </c>
-      <c r="C54" s="17">
-        <v>-1.256</v>
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>0.9</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>2029</v>
+        <v>2004</v>
       </c>
       <c r="B55" t="s">
-        <v>1</v>
-      </c>
-      <c r="C55" s="17">
-        <v>-1.117</v>
+        <v>2</v>
+      </c>
+      <c r="C55">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>2003</v>
+        <v>2005</v>
       </c>
       <c r="B56" t="s">
         <v>2</v>
       </c>
-      <c r="C56" s="17">
-        <v>0.91700000000000004</v>
+      <c r="C56">
+        <v>1.5</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>2004</v>
+        <v>2006</v>
       </c>
       <c r="B57" t="s">
         <v>2</v>
       </c>
-      <c r="C57" s="17">
-        <v>1.145</v>
+      <c r="C57">
+        <v>1.9</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>2005</v>
+        <v>2007</v>
       </c>
       <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="17">
-        <v>1.5029999999999999</v>
+      <c r="C58">
+        <v>1.4</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="17">
-        <v>1.877</v>
+      <c r="C59">
+        <v>1.4</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>2007</v>
+        <v>2009</v>
       </c>
       <c r="B60" t="s">
         <v>2</v>
       </c>
-      <c r="C60" s="17">
-        <v>1.409</v>
+      <c r="C60">
+        <v>-3.3</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>2008</v>
+        <v>2010</v>
       </c>
       <c r="B61" t="s">
         <v>2</v>
       </c>
-      <c r="C61" s="17">
-        <v>1.385</v>
+      <c r="C61">
+        <v>-5.5</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>2009</v>
+        <v>2011</v>
       </c>
       <c r="B62" t="s">
         <v>2</v>
       </c>
-      <c r="C62" s="17">
-        <v>-3.3479999999999999</v>
+      <c r="C62">
+        <v>-4.8</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>2010</v>
+        <v>2012</v>
       </c>
       <c r="B63" t="s">
         <v>2</v>
       </c>
-      <c r="C63" s="17">
-        <v>-5.5449999999999999</v>
+      <c r="C63">
+        <v>-4.3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>2011</v>
+        <v>2013</v>
       </c>
       <c r="B64" t="s">
         <v>2</v>
       </c>
-      <c r="C64" s="17">
-        <v>-4.766</v>
+      <c r="C64">
+        <v>-2.6</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>2012</v>
+        <v>2014</v>
       </c>
       <c r="B65" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="17">
-        <v>-4.2619999999999996</v>
+      <c r="C65">
+        <v>-2.9</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>2013</v>
+        <v>2015</v>
       </c>
       <c r="B66" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="17">
-        <v>-2.5939999999999999</v>
+      <c r="C66">
+        <v>-2.9</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>2014</v>
+        <v>2016</v>
       </c>
       <c r="B67" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="17">
-        <v>-2.923</v>
+      <c r="C67">
+        <v>-2.7</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>2015</v>
+        <v>2017</v>
       </c>
       <c r="B68" t="s">
         <v>2</v>
       </c>
-      <c r="C68" s="17">
-        <v>-2.895</v>
+      <c r="C68">
+        <v>-2.2000000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>2016</v>
+        <v>2018</v>
       </c>
       <c r="B69" t="s">
         <v>2</v>
       </c>
-      <c r="C69" s="17">
-        <v>-2.6640000000000001</v>
+      <c r="C69">
+        <v>-1.3</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>2017</v>
+        <v>2019</v>
       </c>
       <c r="B70" t="s">
         <v>2</v>
       </c>
-      <c r="C70" s="17">
-        <v>-2.19</v>
+      <c r="C70">
+        <v>-1.2</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>2018</v>
+        <v>2020</v>
       </c>
       <c r="B71" t="s">
         <v>2</v>
       </c>
-      <c r="C71" s="17">
-        <v>-1.264</v>
+      <c r="C71">
+        <v>-7.5</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B72" t="s">
         <v>2</v>
       </c>
-      <c r="C72" s="17">
-        <v>-1.163</v>
+      <c r="C72">
+        <v>-9.3000000000000007</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B73" t="s">
         <v>2</v>
       </c>
-      <c r="C73" s="17">
-        <v>-7.4880000000000004</v>
+      <c r="C73">
+        <v>-3.7</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="B74" t="s">
         <v>2</v>
       </c>
-      <c r="C74" s="17">
-        <v>-9.2870000000000008</v>
+      <c r="C74">
+        <v>-0.8</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="B75" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="17">
-        <v>-3.7240000000000002</v>
+      <c r="C75">
+        <v>-1.4</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>2023</v>
+        <v>2025</v>
       </c>
       <c r="B76" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="17">
-        <v>-0.82</v>
+      <c r="C76">
+        <v>-3.6</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>2024</v>
+        <v>2026</v>
       </c>
       <c r="B77" t="s">
         <v>2</v>
       </c>
-      <c r="C77" s="17">
-        <v>-1.5509999999999999</v>
+      <c r="C77">
+        <v>-2.4</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>2025</v>
+        <v>2027</v>
       </c>
       <c r="B78" t="s">
         <v>2</v>
       </c>
-      <c r="C78" s="17">
-        <v>-4.2370000000000001</v>
+      <c r="C78">
+        <v>-2.5</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>2026</v>
+        <v>2028</v>
       </c>
       <c r="B79" t="s">
         <v>2</v>
       </c>
-      <c r="C79" s="17">
-        <v>-2.7879999999999998</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>2027</v>
-      </c>
-      <c r="B80" t="s">
-        <v>2</v>
-      </c>
-      <c r="C80" s="17">
-        <v>-2.82</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>2028</v>
-      </c>
-      <c r="B81" t="s">
-        <v>2</v>
-      </c>
-      <c r="C81" s="17">
-        <v>-2.5750000000000002</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>2029</v>
-      </c>
-      <c r="B82" t="s">
-        <v>2</v>
-      </c>
-      <c r="C82" s="17">
-        <v>-2.19</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77A60D39-76D9-4B67-AB58-B56A7AA5E81B}">
-  <dimension ref="A1:D27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
-        <v>-0.9</v>
-      </c>
-      <c r="C2">
-        <v>3.5</v>
-      </c>
-      <c r="D2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3">
-        <v>-1.6</v>
-      </c>
-      <c r="C3">
-        <v>2.4</v>
-      </c>
-      <c r="D3">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4">
-        <v>-2.2999999999999998</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>-1.6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5">
-        <v>-3</v>
-      </c>
-      <c r="C5">
-        <v>-1.1000000000000001</v>
-      </c>
-      <c r="D5">
-        <v>-4.5999999999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6">
-        <v>-2.4</v>
-      </c>
-      <c r="C6">
-        <v>-3.6</v>
-      </c>
-      <c r="D6">
-        <v>-6.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7">
-        <v>-1.7</v>
-      </c>
-      <c r="C7">
-        <v>-4.4000000000000004</v>
-      </c>
-      <c r="D7">
-        <v>-6.6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8">
-        <v>-0.9</v>
-      </c>
-      <c r="C8">
-        <v>-1.7</v>
-      </c>
-      <c r="D8">
-        <v>-3.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9">
-        <v>0.1</v>
-      </c>
-      <c r="C9">
-        <v>3.2</v>
-      </c>
-      <c r="D9">
-        <v>2.9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-      <c r="C10">
-        <v>5.9</v>
-      </c>
-      <c r="D10">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11">
-        <v>1.9</v>
-      </c>
-      <c r="C11">
-        <v>9.9</v>
-      </c>
-      <c r="D11">
-        <v>11.1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12">
-        <v>2.8</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>12.3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13">
-        <v>2.9</v>
-      </c>
-      <c r="C13">
-        <v>12.7</v>
-      </c>
-      <c r="D13">
-        <v>15.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14">
-        <v>2.8</v>
-      </c>
-      <c r="C14">
-        <v>14.9</v>
-      </c>
-      <c r="D14">
-        <v>17.100000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15">
-        <v>2.4</v>
-      </c>
-      <c r="C15">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D15">
-        <v>19.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16">
-        <v>1.7</v>
-      </c>
-      <c r="C16">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="D16">
-        <v>19.2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17">
-        <v>1.9</v>
-      </c>
-      <c r="C17">
-        <v>18.8</v>
-      </c>
-      <c r="D17">
-        <v>19.600000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18">
-        <v>1.8</v>
-      </c>
-      <c r="C18">
-        <v>19.399999999999999</v>
-      </c>
-      <c r="D18">
-        <v>20.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="C19">
-        <v>23.9</v>
-      </c>
-      <c r="D19">
-        <v>27.5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20">
-        <v>6.5</v>
-      </c>
-      <c r="C20">
-        <v>27.7</v>
-      </c>
-      <c r="D20">
-        <v>33.1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21">
-        <v>7.9</v>
-      </c>
-      <c r="C21">
-        <v>21.7</v>
-      </c>
-      <c r="D21">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22">
-        <v>8.1999999999999993</v>
-      </c>
-      <c r="C22">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D22">
-        <v>25.8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23">
-        <v>11</v>
-      </c>
-      <c r="C23">
-        <v>18.600000000000001</v>
-      </c>
-      <c r="D23">
-        <v>28.6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2025</v>
-      </c>
-      <c r="B24">
-        <v>13</v>
-      </c>
-      <c r="C24">
-        <v>20</v>
-      </c>
-      <c r="D24">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2026</v>
-      </c>
-      <c r="B25">
-        <v>14.1</v>
-      </c>
-      <c r="C25">
-        <v>21.5</v>
-      </c>
-      <c r="D25">
-        <v>34.5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2027</v>
-      </c>
-      <c r="B26">
-        <v>14.6</v>
-      </c>
-      <c r="C26">
-        <v>21.8</v>
-      </c>
-      <c r="D26">
-        <v>35.4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2028</v>
-      </c>
-      <c r="B27">
-        <v>14.8</v>
-      </c>
-      <c r="C27">
-        <v>21.9</v>
-      </c>
-      <c r="D27">
-        <v>35.700000000000003</v>
+      <c r="C79">
+        <v>-2.5</v>
       </c>
     </row>
   </sheetData>
@@ -46090,408 +46013,915 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7E9013E-AC9C-4450-BC15-408380B84B9F}">
-  <dimension ref="A1:D28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75C8EC85-39E1-416A-AFED-AE0BCD06F7CB}">
+  <dimension ref="A1:C82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2003</v>
       </c>
-      <c r="B2" s="16">
-        <v>-0.88900000000000001</v>
-      </c>
-      <c r="C2" s="16">
-        <v>3.54</v>
-      </c>
-      <c r="D2" s="16">
-        <v>2.327</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C2" s="18">
+        <v>0.22500000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2004</v>
       </c>
-      <c r="B3" s="16">
-        <v>-1.5960000000000001</v>
-      </c>
-      <c r="C3" s="16">
-        <v>2.3849999999999998</v>
-      </c>
-      <c r="D3" s="16">
-        <v>0.42099999999999999</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" s="18">
+        <v>0.50800000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2005</v>
       </c>
-      <c r="B4" s="16">
-        <v>-2.2709999999999999</v>
-      </c>
-      <c r="C4" s="16">
-        <v>1.0329999999999999</v>
-      </c>
-      <c r="D4" s="16">
-        <v>-1.623</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="18">
+        <v>0.41099999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2006</v>
       </c>
-      <c r="B5" s="16">
-        <v>-3.0270000000000001</v>
-      </c>
-      <c r="C5" s="16">
-        <v>-1.0920000000000001</v>
-      </c>
-      <c r="D5" s="16">
-        <v>-4.5659999999999998</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="18">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2007</v>
       </c>
-      <c r="B6" s="16">
-        <v>-2.39</v>
-      </c>
-      <c r="C6" s="16">
-        <v>-3.6459999999999999</v>
-      </c>
-      <c r="D6" s="16">
-        <v>-6.4820000000000002</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="18">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2008</v>
       </c>
-      <c r="B7" s="16">
-        <v>-1.508</v>
-      </c>
-      <c r="C7" s="16">
-        <v>-4.4370000000000003</v>
-      </c>
-      <c r="D7" s="16">
-        <v>-6.3780000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="18">
+        <v>-0.218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2009</v>
       </c>
-      <c r="B8" s="16">
-        <v>-0.69</v>
-      </c>
-      <c r="C8" s="16">
-        <v>-1.72</v>
-      </c>
-      <c r="D8" s="16">
-        <v>-2.9319999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" s="18">
+        <v>-0.85499999999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2010</v>
       </c>
-      <c r="B9" s="16">
-        <v>0.246</v>
-      </c>
-      <c r="C9" s="16">
-        <v>3.2170000000000001</v>
-      </c>
-      <c r="D9" s="16">
-        <v>3.0179999999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" s="18">
+        <v>-1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2011</v>
       </c>
-      <c r="B10" s="16">
-        <v>0.97299999999999998</v>
-      </c>
-      <c r="C10" s="16">
-        <v>5.9260000000000002</v>
-      </c>
-      <c r="D10" s="16">
-        <v>6.1870000000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="18">
+        <v>-1.077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2012</v>
       </c>
-      <c r="B11" s="16">
-        <v>2.0219999999999998</v>
-      </c>
-      <c r="C11" s="16">
-        <v>9.9030000000000005</v>
-      </c>
-      <c r="D11" s="16">
-        <v>11.223000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="18">
+        <v>-0.89800000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2013</v>
       </c>
-      <c r="B12" s="16">
-        <v>2.98</v>
-      </c>
-      <c r="C12" s="16">
-        <v>10.018000000000001</v>
-      </c>
-      <c r="D12" s="16">
-        <v>12.486000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="18">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2014</v>
       </c>
-      <c r="B13" s="16">
-        <v>3.0720000000000001</v>
-      </c>
-      <c r="C13" s="16">
-        <v>12.683</v>
-      </c>
-      <c r="D13" s="16">
-        <v>15.288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="18">
+        <v>-0.40500000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2015</v>
       </c>
-      <c r="B14" s="16">
-        <v>2.976</v>
-      </c>
-      <c r="C14" s="16">
-        <v>14.920999999999999</v>
-      </c>
-      <c r="D14" s="16">
-        <v>17.268000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="18">
+        <v>-0.219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2016</v>
       </c>
-      <c r="B15" s="16">
-        <v>2.589</v>
-      </c>
-      <c r="C15" s="16">
-        <v>18.103000000000002</v>
-      </c>
-      <c r="D15" s="16">
-        <v>19.952999999999999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="18">
+        <v>-0.25800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2017</v>
       </c>
-      <c r="B16" s="16">
-        <v>1.8879999999999999</v>
-      </c>
-      <c r="C16" s="16">
-        <v>18.446999999999999</v>
-      </c>
-      <c r="D16" s="16">
-        <v>19.45</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="18">
+        <v>-0.42299999999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
-      <c r="B17" s="16">
-        <v>2.0649999999999999</v>
-      </c>
-      <c r="C17" s="16">
-        <v>18.791</v>
-      </c>
-      <c r="D17" s="16">
-        <v>19.882000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="18">
+        <v>-0.71199999999999997</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2019</v>
       </c>
-      <c r="B18" s="16">
-        <v>2.0150000000000001</v>
-      </c>
-      <c r="C18" s="16">
-        <v>19.401</v>
-      </c>
-      <c r="D18" s="16">
-        <v>20.417000000000002</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" s="18">
+        <v>-0.999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2020</v>
       </c>
-      <c r="B19" s="16">
-        <v>4.8609999999999998</v>
-      </c>
-      <c r="C19" s="16">
-        <v>23.946000000000002</v>
-      </c>
-      <c r="D19" s="16">
-        <v>27.832000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="18">
+        <v>-2.6560000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2021</v>
       </c>
-      <c r="B20" s="16">
-        <v>6.7329999999999997</v>
-      </c>
-      <c r="C20" s="16">
-        <v>27.704000000000001</v>
-      </c>
-      <c r="D20" s="16">
-        <v>33.423999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="18">
+        <v>-2.504</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2022</v>
       </c>
-      <c r="B21" s="16">
-        <v>8.1280000000000001</v>
-      </c>
-      <c r="C21" s="16">
-        <v>21.725999999999999</v>
-      </c>
-      <c r="D21" s="16">
-        <v>28.849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C21" s="18">
+        <v>-2.5019999999999998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2023</v>
       </c>
-      <c r="B22" s="16">
-        <v>8.3930000000000007</v>
-      </c>
-      <c r="C22" s="16">
-        <v>18.619</v>
-      </c>
-      <c r="D22" s="16">
-        <v>26.024000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="18">
+        <v>-1.698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2024</v>
       </c>
-      <c r="B23" s="16">
-        <v>9.7989999999999995</v>
-      </c>
-      <c r="C23" s="16">
-        <v>17.783000000000001</v>
-      </c>
-      <c r="D23" s="16">
-        <v>26.657</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="18">
+        <v>-1.96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2025</v>
       </c>
-      <c r="B24" s="16">
-        <v>12.801</v>
-      </c>
-      <c r="C24" s="16">
-        <v>19.946999999999999</v>
-      </c>
-      <c r="D24" s="16">
-        <v>31.731999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="18">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2026</v>
       </c>
-      <c r="B25" s="16">
-        <v>14.311</v>
-      </c>
-      <c r="C25" s="16">
-        <v>21.545000000000002</v>
-      </c>
-      <c r="D25" s="16">
-        <v>34.811</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="18">
+        <v>-0.82699999999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2027</v>
       </c>
-      <c r="B26" s="16">
-        <v>15.318</v>
-      </c>
-      <c r="C26" s="16">
-        <v>22.603999999999999</v>
-      </c>
-      <c r="D26" s="16">
-        <v>36.859000000000002</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" s="18">
+        <v>-1.3129999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2028</v>
       </c>
-      <c r="B27" s="16">
-        <v>15.677</v>
-      </c>
-      <c r="C27" s="16">
-        <v>22.681999999999999</v>
-      </c>
-      <c r="D27" s="16">
-        <v>37.293999999999997</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" s="18">
+        <v>-0.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2029</v>
       </c>
-      <c r="B28" s="16">
-        <v>15.795999999999999</v>
-      </c>
-      <c r="C28" s="16">
-        <v>23.143999999999998</v>
-      </c>
-      <c r="D28" s="16">
-        <v>37.877000000000002</v>
+      <c r="B28" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="18">
+        <v>-0.64800000000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2003</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="17">
+        <v>0.79600000000000004</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="17">
+        <v>0.78200000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2005</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1.2689999999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>2006</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1.667</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>2007</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1.806</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>2009</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="17">
+        <v>-2.3180000000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>2010</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="17">
+        <v>-4.0659999999999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2011</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="17">
+        <v>-3.75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2012</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38" s="17">
+        <v>-3.0739999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2013</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" s="17">
+        <v>-1.3779999999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2014</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="17">
+        <v>-2.1970000000000001</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2015</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41" s="17">
+        <v>-2.5619999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2016</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" s="17">
+        <v>-2.3039999999999998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2017</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43" s="17">
+        <v>-1.742</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2018</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44" s="17">
+        <v>-0.46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2019</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45" s="17">
+        <v>-5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2020</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46" s="17">
+        <v>-4.819</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2021</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47" s="17">
+        <v>-6.8879999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2022</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="17">
+        <v>-1.337</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2023</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="17">
+        <v>0.83099999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2024</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50" s="17">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2025</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="17">
+        <v>-1.8169999999999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2026</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52" s="17">
+        <v>-1.534</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2027</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53" s="17">
+        <v>-1.075</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2028</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54" s="17">
+        <v>-1.256</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2029</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="17">
+        <v>-1.117</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2003</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="17">
+        <v>0.91700000000000004</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2004</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1.145</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2005</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1.5029999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>2006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1.877</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>2007</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1.409</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>2008</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="17">
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>2009</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="17">
+        <v>-3.3479999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>2010</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="17">
+        <v>-5.5449999999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>2011</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="17">
+        <v>-4.766</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>2012</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="17">
+        <v>-4.2619999999999996</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>2013</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="17">
+        <v>-2.5939999999999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>2014</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="17">
+        <v>-2.923</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>2015</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="17">
+        <v>-2.895</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>2016</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="17">
+        <v>-2.6640000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>2017</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="17">
+        <v>-2.19</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2018</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="17">
+        <v>-1.264</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>2019</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="17">
+        <v>-1.163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>2020</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="17">
+        <v>-7.4880000000000004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2021</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="17">
+        <v>-9.2870000000000008</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2022</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="17">
+        <v>-3.7240000000000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>2023</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="17">
+        <v>-0.82</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>2024</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="17">
+        <v>-1.5509999999999999</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>2025</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="17">
+        <v>-4.2370000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>2026</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="17">
+        <v>-2.7879999999999998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>2027</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="17">
+        <v>-2.82</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>2028</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="17">
+        <v>-2.5750000000000002</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>2029</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="17">
+        <v>-2.19</v>
       </c>
     </row>
   </sheetData>

--- a/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
+++ b/e61 Projects/Fiscal sustainability/Report work/Graphs/Graph_data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MattNolan\Git\TVHENZ\e61 Projects\Fiscal sustainability\Report work\Graphs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC1297F2-E0B8-489D-A4BA-DCDE503EA9FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB1D86E9-EEE1-4861-8216-7F1513F5B4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="13" activeTab="1" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="10" activeTab="13" xr2:uid="{82F83531-D850-498C-8B60-66B6CF8D807A}"/>
   </bookViews>
   <sheets>
     <sheet name="Slide deck" sheetId="63" r:id="rId1"/>
@@ -26,60 +26,60 @@
     <sheet name="Figure_3" sheetId="1" r:id="rId11"/>
     <sheet name="Figure_3 (Feb version)" sheetId="60" r:id="rId12"/>
     <sheet name="Figure_4" sheetId="6" r:id="rId13"/>
-    <sheet name="Figure_5a" sheetId="7" r:id="rId14"/>
-    <sheet name="Figure_5b" sheetId="8" r:id="rId15"/>
-    <sheet name="Figure_6" sheetId="2" r:id="rId16"/>
-    <sheet name="Figure_7" sheetId="9" r:id="rId17"/>
-    <sheet name="Figure_8a" sheetId="11" r:id="rId18"/>
-    <sheet name="Figure_8b" sheetId="12" r:id="rId19"/>
-    <sheet name="Figure_9" sheetId="3" r:id="rId20"/>
-    <sheet name="Figure_10" sheetId="4" r:id="rId21"/>
-    <sheet name="Figure_11" sheetId="13" r:id="rId22"/>
-    <sheet name="Figure_12" sheetId="14" r:id="rId23"/>
-    <sheet name="Figure_13" sheetId="15" r:id="rId24"/>
-    <sheet name="Figure_14" sheetId="16" r:id="rId25"/>
-    <sheet name="Figure_15" sheetId="17" r:id="rId26"/>
-    <sheet name="Figure_16" sheetId="18" r:id="rId27"/>
-    <sheet name="Figure_17" sheetId="19" r:id="rId28"/>
-    <sheet name="Figure_18" sheetId="20" r:id="rId29"/>
-    <sheet name="Figure_19" sheetId="21" r:id="rId30"/>
-    <sheet name="Figure_20" sheetId="22" r:id="rId31"/>
-    <sheet name="Figure_21" sheetId="23" r:id="rId32"/>
-    <sheet name="Figure_22" sheetId="24" r:id="rId33"/>
-    <sheet name="Figure_23" sheetId="25" r:id="rId34"/>
-    <sheet name="Figure_24" sheetId="26" r:id="rId35"/>
-    <sheet name="Figure_25" sheetId="27" r:id="rId36"/>
-    <sheet name="Figure_26" sheetId="58" r:id="rId37"/>
-    <sheet name="Figure_26 (debt)" sheetId="59" r:id="rId38"/>
-    <sheet name="Figure_26a" sheetId="28" r:id="rId39"/>
-    <sheet name="Figure_26b" sheetId="29" r:id="rId40"/>
-    <sheet name="Figure_27" sheetId="30" r:id="rId41"/>
-    <sheet name="Figure29_a" sheetId="41" r:id="rId42"/>
-    <sheet name="Figure29_b" sheetId="42" r:id="rId43"/>
-    <sheet name="Figure30_a" sheetId="43" r:id="rId44"/>
-    <sheet name="Figure30_b" sheetId="44" r:id="rId45"/>
-    <sheet name="Figure_31" sheetId="45" r:id="rId46"/>
-    <sheet name="Figure_32" sheetId="46" r:id="rId47"/>
-    <sheet name="Figure_33" sheetId="47" r:id="rId48"/>
-    <sheet name="Figure_34" sheetId="48" r:id="rId49"/>
-    <sheet name="Figure_35" sheetId="49" r:id="rId50"/>
-    <sheet name="Figure_36" sheetId="50" r:id="rId51"/>
-    <sheet name="Figure_37_a" sheetId="31" r:id="rId52"/>
-    <sheet name="Figure_37_b" sheetId="32" r:id="rId53"/>
-    <sheet name="Figure_38" sheetId="55" r:id="rId54"/>
-    <sheet name="Figure_39a" sheetId="56" r:id="rId55"/>
-    <sheet name="Figure43_a" sheetId="33" r:id="rId56"/>
-    <sheet name="Figure43_b" sheetId="34" r:id="rId57"/>
-    <sheet name="Figure44_a" sheetId="35" r:id="rId58"/>
-    <sheet name="Figure44_b" sheetId="36" r:id="rId59"/>
-    <sheet name="Figure45" sheetId="37" r:id="rId60"/>
-    <sheet name="Figure46_a" sheetId="38" r:id="rId61"/>
-    <sheet name="Figur46_b" sheetId="39" r:id="rId62"/>
-    <sheet name="Figure47" sheetId="40" r:id="rId63"/>
-    <sheet name="Release schedule" sheetId="54" r:id="rId64"/>
+    <sheet name="Figure_4 (Feb version)" sheetId="65" r:id="rId14"/>
+    <sheet name="Figure_5a" sheetId="7" r:id="rId15"/>
+    <sheet name="Figure_5b" sheetId="8" r:id="rId16"/>
+    <sheet name="Figure_6" sheetId="2" r:id="rId17"/>
+    <sheet name="Figure_7" sheetId="9" r:id="rId18"/>
+    <sheet name="Figure_8a" sheetId="11" r:id="rId19"/>
+    <sheet name="Figure_8b" sheetId="12" r:id="rId20"/>
+    <sheet name="Figure_9" sheetId="3" r:id="rId21"/>
+    <sheet name="Figure_10" sheetId="4" r:id="rId22"/>
+    <sheet name="Figure_11" sheetId="13" r:id="rId23"/>
+    <sheet name="Figure_12" sheetId="14" r:id="rId24"/>
+    <sheet name="Figure_13" sheetId="15" r:id="rId25"/>
+    <sheet name="Figure_14" sheetId="16" r:id="rId26"/>
+    <sheet name="Figure_15" sheetId="17" r:id="rId27"/>
+    <sheet name="Figure_16" sheetId="18" r:id="rId28"/>
+    <sheet name="Figure_17" sheetId="19" r:id="rId29"/>
+    <sheet name="Figure_18" sheetId="20" r:id="rId30"/>
+    <sheet name="Figure_19" sheetId="21" r:id="rId31"/>
+    <sheet name="Figure_20" sheetId="22" r:id="rId32"/>
+    <sheet name="Figure_21" sheetId="23" r:id="rId33"/>
+    <sheet name="Figure_22" sheetId="24" r:id="rId34"/>
+    <sheet name="Figure_23" sheetId="25" r:id="rId35"/>
+    <sheet name="Figure_24" sheetId="26" r:id="rId36"/>
+    <sheet name="Figure_25" sheetId="27" r:id="rId37"/>
+    <sheet name="Figure_26" sheetId="58" r:id="rId38"/>
+    <sheet name="Figure_26 (debt)" sheetId="59" r:id="rId39"/>
+    <sheet name="Figure_26a" sheetId="28" r:id="rId40"/>
+    <sheet name="Figure_26b" sheetId="29" r:id="rId41"/>
+    <sheet name="Figure_27" sheetId="30" r:id="rId42"/>
+    <sheet name="Figure29_a" sheetId="41" r:id="rId43"/>
+    <sheet name="Figure29_b" sheetId="42" r:id="rId44"/>
+    <sheet name="Figure30_a" sheetId="43" r:id="rId45"/>
+    <sheet name="Figure30_b" sheetId="44" r:id="rId46"/>
+    <sheet name="Figure_31" sheetId="45" r:id="rId47"/>
+    <sheet name="Figure_32" sheetId="46" r:id="rId48"/>
+    <sheet name="Figure_33" sheetId="47" r:id="rId49"/>
+    <sheet name="Figure_34" sheetId="48" r:id="rId50"/>
+    <sheet name="Figure_35" sheetId="49" r:id="rId51"/>
+    <sheet name="Figure_36" sheetId="50" r:id="rId52"/>
+    <sheet name="Figure_37_a" sheetId="31" r:id="rId53"/>
+    <sheet name="Figure_37_b" sheetId="32" r:id="rId54"/>
+    <sheet name="Figure_38" sheetId="55" r:id="rId55"/>
+    <sheet name="Figure_39a" sheetId="56" r:id="rId56"/>
+    <sheet name="Figure43_a" sheetId="33" r:id="rId57"/>
+    <sheet name="Figure43_b" sheetId="34" r:id="rId58"/>
+    <sheet name="Figure44_a" sheetId="35" r:id="rId59"/>
+    <sheet name="Figure44_b" sheetId="36" r:id="rId60"/>
+    <sheet name="Figure45" sheetId="37" r:id="rId61"/>
+    <sheet name="Figure46_a" sheetId="38" r:id="rId62"/>
+    <sheet name="Figur46_b" sheetId="39" r:id="rId63"/>
+    <sheet name="Figure47" sheetId="40" r:id="rId64"/>
+    <sheet name="Release schedule" sheetId="54" r:id="rId65"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3517" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="330">
   <si>
     <t>State</t>
   </si>
@@ -3295,7 +3295,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H50" sqref="H50"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,6 +3530,252 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93D3D93D-0422-4868-A7AB-347CF876AAB5}">
+  <dimension ref="A1:G19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>30.44</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>38.558999999999997</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>39.22</v>
+      </c>
+      <c r="C4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4" s="4"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>39.901000000000003</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="4"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>42.651000000000003</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="4"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7">
+        <v>44.639000000000003</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8">
+        <v>50.155000000000001</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="G8" s="4"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>50.841000000000001</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" s="4"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>54.006</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11">
+        <v>63.587000000000003</v>
+      </c>
+      <c r="C11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>80.116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>81.667000000000002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>96.593000000000004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15">
+        <v>103.767</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16">
+        <v>104.11799999999999</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17">
+        <v>116.26900000000001</v>
+      </c>
+      <c r="C17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18">
+        <v>121.691</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>180.33699999999999</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{521CE950-F8DA-4835-BD99-2FA59D7324CA}">
   <dimension ref="A1:E53"/>
   <sheetViews>
@@ -4445,7 +4691,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36BC05B1-9AB1-4509-9089-29AFAE6666A5}">
   <dimension ref="A1:C51"/>
   <sheetViews>
@@ -5024,7 +5270,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D5BD26-8E8B-4A7A-AF07-A861F04DF87D}">
   <dimension ref="A1:B26"/>
   <sheetViews>
@@ -5250,7 +5496,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{947EF26A-0411-4DBC-AC86-CB82F965425F}">
   <dimension ref="A1:E45"/>
   <sheetViews>
@@ -6030,7 +6276,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97FC5060-ACF6-4CD3-98AE-24CF890C07B0}">
   <dimension ref="A1:F39"/>
   <sheetViews>
@@ -6829,7 +7075,357 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21D2944-924F-4AC6-8877-8DEB539CD2F0}">
+  <dimension ref="A1:D28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2003</v>
+      </c>
+      <c r="B2">
+        <v>33.482999999999997</v>
+      </c>
+      <c r="C2">
+        <v>34.929000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2004</v>
+      </c>
+      <c r="B3">
+        <v>33.493000000000002</v>
+      </c>
+      <c r="C3">
+        <v>35.24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2005</v>
+      </c>
+      <c r="B4">
+        <v>33.308</v>
+      </c>
+      <c r="C4">
+        <v>35.558</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2006</v>
+      </c>
+      <c r="B5">
+        <v>32.734999999999999</v>
+      </c>
+      <c r="C5">
+        <v>35.633000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2007</v>
+      </c>
+      <c r="B6">
+        <v>32.387</v>
+      </c>
+      <c r="C6">
+        <v>34.997999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>32.167000000000002</v>
+      </c>
+      <c r="C7">
+        <v>34.889000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8">
+        <v>34.185000000000002</v>
+      </c>
+      <c r="C8">
+        <v>32.493000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>34.624000000000002</v>
+      </c>
+      <c r="C9">
+        <v>31.413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>33.585999999999999</v>
+      </c>
+      <c r="C10">
+        <v>30.806000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11">
+        <v>34.079000000000001</v>
+      </c>
+      <c r="C11">
+        <v>31.466000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12">
+        <v>34.344000000000001</v>
+      </c>
+      <c r="C12">
+        <v>32.787999999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13">
+        <v>34.47</v>
+      </c>
+      <c r="C13">
+        <v>32.787999999999997</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14">
+        <v>35.040999999999997</v>
+      </c>
+      <c r="C14">
+        <v>33.29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15">
+        <v>35.314</v>
+      </c>
+      <c r="C15">
+        <v>33.869999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16">
+        <v>34.576999999999998</v>
+      </c>
+      <c r="C16">
+        <v>33.755000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17">
+        <v>34.295999999999999</v>
+      </c>
+      <c r="C17">
+        <v>34.79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18">
+        <v>34.130000000000003</v>
+      </c>
+      <c r="C18">
+        <v>34.951000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2020</v>
+      </c>
+      <c r="B19">
+        <v>39.228999999999999</v>
+      </c>
+      <c r="C19">
+        <v>33.841999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20">
+        <v>41.508000000000003</v>
+      </c>
+      <c r="C20">
+        <v>34.472000000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2022</v>
+      </c>
+      <c r="B21">
+        <v>36.837000000000003</v>
+      </c>
+      <c r="C21">
+        <v>35.363999999999997</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2023</v>
+      </c>
+      <c r="B22">
+        <v>34.116</v>
+      </c>
+      <c r="C22">
+        <v>35.630000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2024</v>
+      </c>
+      <c r="B23">
+        <v>35.447000000000003</v>
+      </c>
+      <c r="C23">
+        <v>36.201999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2025</v>
+      </c>
+      <c r="B24">
+        <v>36.228999999999999</v>
+      </c>
+      <c r="C24">
+        <v>34.06</v>
+      </c>
+      <c r="D24">
+        <f>Figure_26!C47*100-(Figure_26!C$47*100-B$24)</f>
+        <v>36.228999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2026</v>
+      </c>
+      <c r="B25">
+        <v>36.204999999999998</v>
+      </c>
+      <c r="C25">
+        <v>34.601999999999997</v>
+      </c>
+      <c r="D25">
+        <f>Figure_26!C48*100-(Figure_26!C$47*100-B$24)</f>
+        <v>36.462016529809404</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2027</v>
+      </c>
+      <c r="B26">
+        <v>35.424999999999997</v>
+      </c>
+      <c r="C26">
+        <v>34.536000000000001</v>
+      </c>
+      <c r="D26">
+        <f>Figure_26!C49*100-(Figure_26!C$47*100-B$24)</f>
+        <v>36.669927557039799</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2028</v>
+      </c>
+      <c r="B27">
+        <v>34.808</v>
+      </c>
+      <c r="C27">
+        <v>33.991</v>
+      </c>
+      <c r="D27">
+        <f>Figure_26!C50*100-(Figure_26!C$47*100-B$24)</f>
+        <v>36.830640283599003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2029</v>
+      </c>
+      <c r="B28">
+        <v>34.529000000000003</v>
+      </c>
+      <c r="C28">
+        <v>33.860999999999997</v>
+      </c>
+      <c r="D28">
+        <f>Figure_26!C51*100-(Figure_26!C$47*100-B$24)</f>
+        <v>36.953548514304799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE48632D-6578-4F8E-9BB2-064C4BE841CD}">
   <dimension ref="A1:C39"/>
   <sheetViews>
@@ -7276,357 +7872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A21D2944-924F-4AC6-8877-8DEB539CD2F0}">
-  <dimension ref="A1:D28"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2003</v>
-      </c>
-      <c r="B2">
-        <v>33.482999999999997</v>
-      </c>
-      <c r="C2">
-        <v>34.929000000000002</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2004</v>
-      </c>
-      <c r="B3">
-        <v>33.493000000000002</v>
-      </c>
-      <c r="C3">
-        <v>35.24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2005</v>
-      </c>
-      <c r="B4">
-        <v>33.308</v>
-      </c>
-      <c r="C4">
-        <v>35.558</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2006</v>
-      </c>
-      <c r="B5">
-        <v>32.734999999999999</v>
-      </c>
-      <c r="C5">
-        <v>35.633000000000003</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2007</v>
-      </c>
-      <c r="B6">
-        <v>32.387</v>
-      </c>
-      <c r="C6">
-        <v>34.997999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7">
-        <v>32.167000000000002</v>
-      </c>
-      <c r="C7">
-        <v>34.889000000000003</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2009</v>
-      </c>
-      <c r="B8">
-        <v>34.185000000000002</v>
-      </c>
-      <c r="C8">
-        <v>32.493000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9">
-        <v>34.624000000000002</v>
-      </c>
-      <c r="C9">
-        <v>31.413</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10">
-        <v>33.585999999999999</v>
-      </c>
-      <c r="C10">
-        <v>30.806000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2012</v>
-      </c>
-      <c r="B11">
-        <v>34.079000000000001</v>
-      </c>
-      <c r="C11">
-        <v>31.466000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2013</v>
-      </c>
-      <c r="B12">
-        <v>34.344000000000001</v>
-      </c>
-      <c r="C12">
-        <v>32.787999999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2014</v>
-      </c>
-      <c r="B13">
-        <v>34.47</v>
-      </c>
-      <c r="C13">
-        <v>32.787999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2015</v>
-      </c>
-      <c r="B14">
-        <v>35.040999999999997</v>
-      </c>
-      <c r="C14">
-        <v>33.29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2016</v>
-      </c>
-      <c r="B15">
-        <v>35.314</v>
-      </c>
-      <c r="C15">
-        <v>33.869999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2017</v>
-      </c>
-      <c r="B16">
-        <v>34.576999999999998</v>
-      </c>
-      <c r="C16">
-        <v>33.755000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2018</v>
-      </c>
-      <c r="B17">
-        <v>34.295999999999999</v>
-      </c>
-      <c r="C17">
-        <v>34.79</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2019</v>
-      </c>
-      <c r="B18">
-        <v>34.130000000000003</v>
-      </c>
-      <c r="C18">
-        <v>34.951000000000001</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2020</v>
-      </c>
-      <c r="B19">
-        <v>39.228999999999999</v>
-      </c>
-      <c r="C19">
-        <v>33.841999999999999</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2021</v>
-      </c>
-      <c r="B20">
-        <v>41.508000000000003</v>
-      </c>
-      <c r="C20">
-        <v>34.472000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2022</v>
-      </c>
-      <c r="B21">
-        <v>36.837000000000003</v>
-      </c>
-      <c r="C21">
-        <v>35.363999999999997</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2023</v>
-      </c>
-      <c r="B22">
-        <v>34.116</v>
-      </c>
-      <c r="C22">
-        <v>35.630000000000003</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2024</v>
-      </c>
-      <c r="B23">
-        <v>35.447000000000003</v>
-      </c>
-      <c r="C23">
-        <v>36.201999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2025</v>
-      </c>
-      <c r="B24">
-        <v>36.228999999999999</v>
-      </c>
-      <c r="C24">
-        <v>34.06</v>
-      </c>
-      <c r="D24">
-        <f>Figure_26!C47*100-(Figure_26!C$47*100-B$24)</f>
-        <v>36.228999999999999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2026</v>
-      </c>
-      <c r="B25">
-        <v>36.204999999999998</v>
-      </c>
-      <c r="C25">
-        <v>34.601999999999997</v>
-      </c>
-      <c r="D25">
-        <f>Figure_26!C48*100-(Figure_26!C$47*100-B$24)</f>
-        <v>36.462016529809404</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2027</v>
-      </c>
-      <c r="B26">
-        <v>35.424999999999997</v>
-      </c>
-      <c r="C26">
-        <v>34.536000000000001</v>
-      </c>
-      <c r="D26">
-        <f>Figure_26!C49*100-(Figure_26!C$47*100-B$24)</f>
-        <v>36.669927557039799</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2028</v>
-      </c>
-      <c r="B27">
-        <v>34.808</v>
-      </c>
-      <c r="C27">
-        <v>33.991</v>
-      </c>
-      <c r="D27">
-        <f>Figure_26!C50*100-(Figure_26!C$47*100-B$24)</f>
-        <v>36.830640283599003</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2029</v>
-      </c>
-      <c r="B28">
-        <v>34.529000000000003</v>
-      </c>
-      <c r="C28">
-        <v>33.860999999999997</v>
-      </c>
-      <c r="D28">
-        <f>Figure_26!C51*100-(Figure_26!C$47*100-B$24)</f>
-        <v>36.953548514304799</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{643595FF-C969-4B3B-A38B-54922C656916}">
   <dimension ref="A1:C76"/>
   <sheetViews>
@@ -8477,7 +8723,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0764D6E1-C02B-4C95-A604-A8A7B9048862}">
   <dimension ref="A1:C49"/>
   <sheetViews>
@@ -9031,7 +9277,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA2D2D98-802A-4A51-B75D-2192CE425136}">
   <dimension ref="A1:C21"/>
   <sheetViews>
@@ -9280,7 +9526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745C7045-4AC5-4428-8A37-55F7380B9314}">
   <dimension ref="A1:C23"/>
   <sheetViews>
@@ -9552,7 +9798,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B6891E-27A9-4D41-980D-EA57C7FB798A}">
   <dimension ref="A1:C131"/>
   <sheetViews>
@@ -11008,7 +11254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{664C3406-6840-4B9C-BF3E-02681E205503}">
   <dimension ref="A1:C105"/>
   <sheetViews>
@@ -12178,7 +12424,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18215CE2-7A36-4362-81C2-6AB8BF24A07B}">
   <dimension ref="A1:D22"/>
   <sheetViews>
@@ -12504,7 +12750,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A31D00E-810A-4457-B6E5-9F0BD9FF0D77}">
   <dimension ref="A1:E131"/>
   <sheetViews>
@@ -14746,7 +14992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D19FBBC-734D-4613-83F8-43F87062F04C}">
   <dimension ref="A1:C92"/>
   <sheetViews>
@@ -15769,20 +16015,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D1AC7-8FBC-4965-9AF7-51AFE1EE0D26}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -16199,6 +16431,20 @@
 </file>
 
 <file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{171D1AC7-8FBC-4965-9AF7-51AFE1EE0D26}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q24" sqref="Q24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{187D45E2-7036-4FD9-9EC8-E4555F8EE05C}">
   <dimension ref="A1:C14"/>
   <sheetViews>
@@ -16359,7 +16605,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607264FA-4CEC-4964-ADD9-7430F95E4679}">
   <dimension ref="A1:C96"/>
   <sheetViews>
@@ -17422,7 +17668,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DE2E94-ED00-4436-9904-511FD0F7ABA5}">
   <dimension ref="A1:I6"/>
   <sheetViews>
@@ -17614,7 +17860,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB187DF4-FDA8-4C94-A078-1A532C5CDB2B}">
   <dimension ref="A1:C205"/>
   <sheetViews>
@@ -19887,7 +20133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABF7EBE-627D-4BB0-9405-ECD76D3B70EB}">
   <dimension ref="A1:D26"/>
   <sheetViews>
@@ -20266,7 +20512,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A2014F5-BEAF-4909-A8EC-D6E17320100D}">
   <dimension ref="A1:M5"/>
   <sheetViews>
@@ -20486,7 +20732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82725E17-B60E-4EEF-AD01-E44A279DACAE}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -20500,7 +20746,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2F09A25-5A7F-46B5-878B-A5D4C9D9CFAA}">
   <dimension ref="A1:N93"/>
   <sheetViews>
@@ -23546,7 +23792,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F574DB6E-CE67-48F6-951B-22327034725B}">
   <dimension ref="A1:Q93"/>
   <sheetViews>
@@ -27408,20 +27654,6 @@
       <c r="N93" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DACA9-2703-46AB-BFA3-8D857973518D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -27832,6 +28064,20 @@
 </file>
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23DACA9-2703-46AB-BFA3-8D857973518D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O28" sqref="O28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DCF2612-8D4B-44BE-BDC9-9813CF05C984}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27845,7 +28091,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1FACA4F-2572-4547-9E6F-94B897041732}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -27859,7 +28105,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4260C632-A036-4233-AFE2-E87A6FB42399}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -28090,7 +28336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDC29E18-6610-4DCD-BEC6-4DABE0E5BE90}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -28842,7 +29088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA1C950-9DE9-49F8-A43E-06E9BC4FB097}">
   <dimension ref="A1:C41"/>
   <sheetViews>
@@ -29308,7 +29554,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B07082F2-11DF-4770-88D1-F0B0116C1352}">
   <dimension ref="A1:C25"/>
   <sheetViews>
@@ -29598,7 +29844,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37150C-2201-49DC-A9D9-5A36759A8CC0}">
   <dimension ref="A1:C65"/>
   <sheetViews>
@@ -30328,7 +30574,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C5FBEC3-B9FD-48B5-95CF-86757768825B}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -30562,7 +30808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1277955A-823F-4756-95EE-51E18498EE7B}">
   <dimension ref="A1:AP24"/>
   <sheetViews>
@@ -32907,561 +33153,6 @@
       </c>
       <c r="AG24">
         <v>11.44</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597962C1-292D-4A6C-AC0B-02B04F1224CA}">
-  <dimension ref="A1:F27"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D1" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>1.8231015755435722</v>
-      </c>
-      <c r="C2">
-        <v>4.0619982472637481</v>
-      </c>
-      <c r="D2">
-        <v>2.2555284755672402</v>
-      </c>
-      <c r="E2">
-        <v>0.68958017488981427</v>
-      </c>
-      <c r="F2">
-        <v>1.0893831519827029</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>1.8006826503871705</v>
-      </c>
-      <c r="C3">
-        <v>3.8829437966955935</v>
-      </c>
-      <c r="D3">
-        <v>2.2063390654670005</v>
-      </c>
-      <c r="E3">
-        <v>0.66756582488893623</v>
-      </c>
-      <c r="F3">
-        <v>0.86751021905150649</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>1.9618846631811107</v>
-      </c>
-      <c r="C4">
-        <v>4.2288487589704546</v>
-      </c>
-      <c r="D4">
-        <v>2.4028503935244792</v>
-      </c>
-      <c r="E4">
-        <v>0.73079119132118986</v>
-      </c>
-      <c r="F4">
-        <v>1.1681183596242766</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>1.9034301695108726</v>
-      </c>
-      <c r="C5">
-        <v>4.0674567142805262</v>
-      </c>
-      <c r="D5">
-        <v>2.3115119000057076</v>
-      </c>
-      <c r="E5">
-        <v>0.70240386860442794</v>
-      </c>
-      <c r="F5">
-        <v>1.156145093420363</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>1.870288774068622</v>
-      </c>
-      <c r="C6">
-        <v>3.991513618715484</v>
-      </c>
-      <c r="D6">
-        <v>2.2829995751869672</v>
-      </c>
-      <c r="E6">
-        <v>0.68352910957212432</v>
-      </c>
-      <c r="F6">
-        <v>1.0971043558154929</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>1.9306404585214318</v>
-      </c>
-      <c r="C7">
-        <v>4.1810106001289817</v>
-      </c>
-      <c r="D7">
-        <v>2.3231495190429912</v>
-      </c>
-      <c r="E7">
-        <v>0.70622110397572957</v>
-      </c>
-      <c r="F7">
-        <v>1.022090414467768</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>1.8683920402465142</v>
-      </c>
-      <c r="C8">
-        <v>3.9994128604677686</v>
-      </c>
-      <c r="D8">
-        <v>2.2854089490202374</v>
-      </c>
-      <c r="E8">
-        <v>0.67964568874846365</v>
-      </c>
-      <c r="F8">
-        <v>1.0199965362991623</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>1.8277983700383265</v>
-      </c>
-      <c r="C9">
-        <v>3.9310319020289834</v>
-      </c>
-      <c r="D9">
-        <v>2.2165784985287802</v>
-      </c>
-      <c r="E9">
-        <v>0.65505709592667138</v>
-      </c>
-      <c r="F9">
-        <v>0.98425972245746862</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>1.7830372636362011</v>
-      </c>
-      <c r="C10">
-        <v>3.8226086334281475</v>
-      </c>
-      <c r="D10">
-        <v>2.1783931734020285</v>
-      </c>
-      <c r="E10">
-        <v>0.62800765666648783</v>
-      </c>
-      <c r="F10">
-        <v>0.98490133991663531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>1.7455981068253927</v>
-      </c>
-      <c r="C11">
-        <v>3.7180100689619007</v>
-      </c>
-      <c r="D11">
-        <v>2.1449805962713375</v>
-      </c>
-      <c r="E11">
-        <v>0.60718593491884509</v>
-      </c>
-      <c r="F11">
-        <v>0.92093963867110684</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>2.1767452742505142</v>
-      </c>
-      <c r="C12">
-        <v>4.539059144781965</v>
-      </c>
-      <c r="D12">
-        <v>2.7098944278141364</v>
-      </c>
-      <c r="E12">
-        <v>0.77312235989410727</v>
-      </c>
-      <c r="F12">
-        <v>1.1066811104629921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>1.7954413980026018</v>
-      </c>
-      <c r="C13">
-        <v>3.73403652402193</v>
-      </c>
-      <c r="D13">
-        <v>2.1766707875363758</v>
-      </c>
-      <c r="E13">
-        <v>0.59867623178277052</v>
-      </c>
-      <c r="F13">
-        <v>1.1157181325119001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>1.7832642785250001</v>
-      </c>
-      <c r="C14">
-        <v>3.7608048726600236</v>
-      </c>
-      <c r="D14">
-        <v>2.1739990235040927</v>
-      </c>
-      <c r="E14">
-        <v>0.59742183259368775</v>
-      </c>
-      <c r="F14">
-        <v>0.89916725083670423</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>1.8560760174819209</v>
-      </c>
-      <c r="C15">
-        <v>3.9039019332484615</v>
-      </c>
-      <c r="D15">
-        <v>2.2097174281101939</v>
-      </c>
-      <c r="E15">
-        <v>0.62269499822818375</v>
-      </c>
-      <c r="F15">
-        <v>0.97390836428543304</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>1.8365398380301856</v>
-      </c>
-      <c r="C16">
-        <v>4.070718638799133</v>
-      </c>
-      <c r="D16">
-        <v>2.2192242013988306</v>
-      </c>
-      <c r="E16">
-        <v>0.63512311341977179</v>
-      </c>
-      <c r="F16">
-        <v>0.93657971696183895</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>1.9185411283189677</v>
-      </c>
-      <c r="C17">
-        <v>4.1818931835580866</v>
-      </c>
-      <c r="D17">
-        <v>2.2863311919172902</v>
-      </c>
-      <c r="E17">
-        <v>0.6565467622334481</v>
-      </c>
-      <c r="F17">
-        <v>0.93489781407091199</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>1.9814234288469115</v>
-      </c>
-      <c r="C18">
-        <v>4.3349411329970904</v>
-      </c>
-      <c r="D18">
-        <v>2.4131066262391929</v>
-      </c>
-      <c r="E18">
-        <v>0.67597330612065121</v>
-      </c>
-      <c r="F18">
-        <v>0.95978543093680635</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>1.9791088465388573</v>
-      </c>
-      <c r="C19">
-        <v>4.3003942443176157</v>
-      </c>
-      <c r="D19">
-        <v>2.4262511682630952</v>
-      </c>
-      <c r="E19">
-        <v>0.6685785855595564</v>
-      </c>
-      <c r="F19">
-        <v>0.9611187809263555</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>1.947153928380545</v>
-      </c>
-      <c r="C20">
-        <v>4.071018172100481</v>
-      </c>
-      <c r="D20">
-        <v>2.274853019775521</v>
-      </c>
-      <c r="E20">
-        <v>0.61943256725458762</v>
-      </c>
-      <c r="F20">
-        <v>0.91027525387493324</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>2.0812405494284718</v>
-      </c>
-      <c r="C21">
-        <v>3.8044432225523677</v>
-      </c>
-      <c r="D21">
-        <v>2.2009918473950787</v>
-      </c>
-      <c r="E21">
-        <v>0.57808419071385519</v>
-      </c>
-      <c r="F21">
-        <v>0.84032102864514491</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>2.1363277824713416</v>
-      </c>
-      <c r="C22">
-        <v>3.8591937569819539</v>
-      </c>
-      <c r="D22">
-        <v>2.1534948809013779</v>
-      </c>
-      <c r="E22">
-        <v>0.53583369035559425</v>
-      </c>
-      <c r="F22">
-        <v>0.80605282861730299</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23">
-        <v>2.6522277990718477</v>
-      </c>
-      <c r="C23">
-        <v>4.4301409235177944</v>
-      </c>
-      <c r="D23">
-        <v>2.4394288228879013</v>
-      </c>
-      <c r="E23">
-        <v>1.0776535564640084</v>
-      </c>
-      <c r="F23">
-        <v>0.94818844507936917</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24">
-        <v>2.5480219570164717</v>
-      </c>
-      <c r="C24">
-        <v>4.0471527650043821</v>
-      </c>
-      <c r="D24">
-        <v>2.2243741637182666</v>
-      </c>
-      <c r="E24">
-        <v>1.3427393614143666</v>
-      </c>
-      <c r="F24">
-        <v>0.84232279843761837</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25">
-        <v>2.4647559670590424</v>
-      </c>
-      <c r="C25">
-        <v>3.5296175017688194</v>
-      </c>
-      <c r="D25">
-        <v>1.8478750900453558</v>
-      </c>
-      <c r="E25">
-        <v>0.63870033066098508</v>
-      </c>
-      <c r="F25">
-        <v>1.4196683122171292</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2023</v>
-      </c>
-      <c r="B26">
-        <v>2.6843068806979846</v>
-      </c>
-      <c r="C26">
-        <v>3.6787593438873336</v>
-      </c>
-      <c r="D26">
-        <v>1.8500627921525949</v>
-      </c>
-      <c r="E26">
-        <v>0.54068885373963005</v>
-      </c>
-      <c r="F26">
-        <v>0.81353113245685638</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2024</v>
-      </c>
-      <c r="B27">
-        <v>2.9402507842536028</v>
-      </c>
-      <c r="C27">
-        <v>4.0787452532018769</v>
-      </c>
-      <c r="D27">
-        <v>2.0358162134113265</v>
-      </c>
-      <c r="E27">
-        <v>0.55063595301554347</v>
-      </c>
-      <c r="F27">
-        <v>0.8074716371441375</v>
       </c>
     </row>
   </sheetData>
@@ -33487,6 +33178,561 @@
 </file>
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{597962C1-292D-4A6C-AC0B-02B04F1224CA}">
+  <dimension ref="A1:F27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>1.8231015755435722</v>
+      </c>
+      <c r="C2">
+        <v>4.0619982472637481</v>
+      </c>
+      <c r="D2">
+        <v>2.2555284755672402</v>
+      </c>
+      <c r="E2">
+        <v>0.68958017488981427</v>
+      </c>
+      <c r="F2">
+        <v>1.0893831519827029</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>1.8006826503871705</v>
+      </c>
+      <c r="C3">
+        <v>3.8829437966955935</v>
+      </c>
+      <c r="D3">
+        <v>2.2063390654670005</v>
+      </c>
+      <c r="E3">
+        <v>0.66756582488893623</v>
+      </c>
+      <c r="F3">
+        <v>0.86751021905150649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>1.9618846631811107</v>
+      </c>
+      <c r="C4">
+        <v>4.2288487589704546</v>
+      </c>
+      <c r="D4">
+        <v>2.4028503935244792</v>
+      </c>
+      <c r="E4">
+        <v>0.73079119132118986</v>
+      </c>
+      <c r="F4">
+        <v>1.1681183596242766</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>1.9034301695108726</v>
+      </c>
+      <c r="C5">
+        <v>4.0674567142805262</v>
+      </c>
+      <c r="D5">
+        <v>2.3115119000057076</v>
+      </c>
+      <c r="E5">
+        <v>0.70240386860442794</v>
+      </c>
+      <c r="F5">
+        <v>1.156145093420363</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>1.870288774068622</v>
+      </c>
+      <c r="C6">
+        <v>3.991513618715484</v>
+      </c>
+      <c r="D6">
+        <v>2.2829995751869672</v>
+      </c>
+      <c r="E6">
+        <v>0.68352910957212432</v>
+      </c>
+      <c r="F6">
+        <v>1.0971043558154929</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>1.9306404585214318</v>
+      </c>
+      <c r="C7">
+        <v>4.1810106001289817</v>
+      </c>
+      <c r="D7">
+        <v>2.3231495190429912</v>
+      </c>
+      <c r="E7">
+        <v>0.70622110397572957</v>
+      </c>
+      <c r="F7">
+        <v>1.022090414467768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>1.8683920402465142</v>
+      </c>
+      <c r="C8">
+        <v>3.9994128604677686</v>
+      </c>
+      <c r="D8">
+        <v>2.2854089490202374</v>
+      </c>
+      <c r="E8">
+        <v>0.67964568874846365</v>
+      </c>
+      <c r="F8">
+        <v>1.0199965362991623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>1.8277983700383265</v>
+      </c>
+      <c r="C9">
+        <v>3.9310319020289834</v>
+      </c>
+      <c r="D9">
+        <v>2.2165784985287802</v>
+      </c>
+      <c r="E9">
+        <v>0.65505709592667138</v>
+      </c>
+      <c r="F9">
+        <v>0.98425972245746862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>1.7830372636362011</v>
+      </c>
+      <c r="C10">
+        <v>3.8226086334281475</v>
+      </c>
+      <c r="D10">
+        <v>2.1783931734020285</v>
+      </c>
+      <c r="E10">
+        <v>0.62800765666648783</v>
+      </c>
+      <c r="F10">
+        <v>0.98490133991663531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1.7455981068253927</v>
+      </c>
+      <c r="C11">
+        <v>3.7180100689619007</v>
+      </c>
+      <c r="D11">
+        <v>2.1449805962713375</v>
+      </c>
+      <c r="E11">
+        <v>0.60718593491884509</v>
+      </c>
+      <c r="F11">
+        <v>0.92093963867110684</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>2.1767452742505142</v>
+      </c>
+      <c r="C12">
+        <v>4.539059144781965</v>
+      </c>
+      <c r="D12">
+        <v>2.7098944278141364</v>
+      </c>
+      <c r="E12">
+        <v>0.77312235989410727</v>
+      </c>
+      <c r="F12">
+        <v>1.1066811104629921</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>1.7954413980026018</v>
+      </c>
+      <c r="C13">
+        <v>3.73403652402193</v>
+      </c>
+      <c r="D13">
+        <v>2.1766707875363758</v>
+      </c>
+      <c r="E13">
+        <v>0.59867623178277052</v>
+      </c>
+      <c r="F13">
+        <v>1.1157181325119001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>1.7832642785250001</v>
+      </c>
+      <c r="C14">
+        <v>3.7608048726600236</v>
+      </c>
+      <c r="D14">
+        <v>2.1739990235040927</v>
+      </c>
+      <c r="E14">
+        <v>0.59742183259368775</v>
+      </c>
+      <c r="F14">
+        <v>0.89916725083670423</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>1.8560760174819209</v>
+      </c>
+      <c r="C15">
+        <v>3.9039019332484615</v>
+      </c>
+      <c r="D15">
+        <v>2.2097174281101939</v>
+      </c>
+      <c r="E15">
+        <v>0.62269499822818375</v>
+      </c>
+      <c r="F15">
+        <v>0.97390836428543304</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>1.8365398380301856</v>
+      </c>
+      <c r="C16">
+        <v>4.070718638799133</v>
+      </c>
+      <c r="D16">
+        <v>2.2192242013988306</v>
+      </c>
+      <c r="E16">
+        <v>0.63512311341977179</v>
+      </c>
+      <c r="F16">
+        <v>0.93657971696183895</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>1.9185411283189677</v>
+      </c>
+      <c r="C17">
+        <v>4.1818931835580866</v>
+      </c>
+      <c r="D17">
+        <v>2.2863311919172902</v>
+      </c>
+      <c r="E17">
+        <v>0.6565467622334481</v>
+      </c>
+      <c r="F17">
+        <v>0.93489781407091199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>1.9814234288469115</v>
+      </c>
+      <c r="C18">
+        <v>4.3349411329970904</v>
+      </c>
+      <c r="D18">
+        <v>2.4131066262391929</v>
+      </c>
+      <c r="E18">
+        <v>0.67597330612065121</v>
+      </c>
+      <c r="F18">
+        <v>0.95978543093680635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>1.9791088465388573</v>
+      </c>
+      <c r="C19">
+        <v>4.3003942443176157</v>
+      </c>
+      <c r="D19">
+        <v>2.4262511682630952</v>
+      </c>
+      <c r="E19">
+        <v>0.6685785855595564</v>
+      </c>
+      <c r="F19">
+        <v>0.9611187809263555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>1.947153928380545</v>
+      </c>
+      <c r="C20">
+        <v>4.071018172100481</v>
+      </c>
+      <c r="D20">
+        <v>2.274853019775521</v>
+      </c>
+      <c r="E20">
+        <v>0.61943256725458762</v>
+      </c>
+      <c r="F20">
+        <v>0.91027525387493324</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>2.0812405494284718</v>
+      </c>
+      <c r="C21">
+        <v>3.8044432225523677</v>
+      </c>
+      <c r="D21">
+        <v>2.2009918473950787</v>
+      </c>
+      <c r="E21">
+        <v>0.57808419071385519</v>
+      </c>
+      <c r="F21">
+        <v>0.84032102864514491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>2.1363277824713416</v>
+      </c>
+      <c r="C22">
+        <v>3.8591937569819539</v>
+      </c>
+      <c r="D22">
+        <v>2.1534948809013779</v>
+      </c>
+      <c r="E22">
+        <v>0.53583369035559425</v>
+      </c>
+      <c r="F22">
+        <v>0.80605282861730299</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <v>2.6522277990718477</v>
+      </c>
+      <c r="C23">
+        <v>4.4301409235177944</v>
+      </c>
+      <c r="D23">
+        <v>2.4394288228879013</v>
+      </c>
+      <c r="E23">
+        <v>1.0776535564640084</v>
+      </c>
+      <c r="F23">
+        <v>0.94818844507936917</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>2.5480219570164717</v>
+      </c>
+      <c r="C24">
+        <v>4.0471527650043821</v>
+      </c>
+      <c r="D24">
+        <v>2.2243741637182666</v>
+      </c>
+      <c r="E24">
+        <v>1.3427393614143666</v>
+      </c>
+      <c r="F24">
+        <v>0.84232279843761837</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>2.4647559670590424</v>
+      </c>
+      <c r="C25">
+        <v>3.5296175017688194</v>
+      </c>
+      <c r="D25">
+        <v>1.8478750900453558</v>
+      </c>
+      <c r="E25">
+        <v>0.63870033066098508</v>
+      </c>
+      <c r="F25">
+        <v>1.4196683122171292</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2023</v>
+      </c>
+      <c r="B26">
+        <v>2.6843068806979846</v>
+      </c>
+      <c r="C26">
+        <v>3.6787593438873336</v>
+      </c>
+      <c r="D26">
+        <v>1.8500627921525949</v>
+      </c>
+      <c r="E26">
+        <v>0.54068885373963005</v>
+      </c>
+      <c r="F26">
+        <v>0.81353113245685638</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2024</v>
+      </c>
+      <c r="B27">
+        <v>2.9402507842536028</v>
+      </c>
+      <c r="C27">
+        <v>4.0787452532018769</v>
+      </c>
+      <c r="D27">
+        <v>2.0358162134113265</v>
+      </c>
+      <c r="E27">
+        <v>0.55063595301554347</v>
+      </c>
+      <c r="F27">
+        <v>0.8074716371441375</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDF1DB0-E2DB-4F33-A326-4E0DA02E7E6C}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
@@ -33842,7 +34088,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EF9EC2D-5ADB-4D44-9626-BFF474F5B6F1}">
   <dimension ref="A1:D27"/>
   <sheetViews>
@@ -34235,7 +34481,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84465C54-AD9F-4641-9695-AEC223DDDF1F}">
   <dimension ref="A1:C16"/>
   <sheetViews>
@@ -34426,7 +34672,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90598800-F848-4412-BABE-842603155D25}">
   <dimension ref="A1:B8"/>
   <sheetViews>
@@ -34509,7 +34755,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80CA57E6-6ABC-4E91-B0F1-32EF8797A167}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -34523,7 +34769,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70DDE1F0-C723-4546-8A50-AB43D1612454}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -34537,7 +34783,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A3538B4-37BE-47F7-A81E-403AB88EB97A}">
   <dimension ref="A1:B27"/>
   <sheetViews>
@@ -34768,7 +35014,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA5FD6F1-D440-42BC-AE35-D05933713E4C}">
   <dimension ref="A1:E49"/>
   <sheetViews>
@@ -35525,7 +35771,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet58.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{405343B9-E24C-4687-982E-E9D66258B033}">
   <dimension ref="A1:C53"/>
   <sheetViews>
@@ -36116,296 +36362,6 @@
       </c>
       <c r="C53" t="s">
         <v>72</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet59.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964574C-56FE-4D20-B094-0B67DD33C552}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B1" t="s">
-        <v>74</v>
-      </c>
-      <c r="C1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1999</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2000</v>
-      </c>
-      <c r="B3">
-        <v>1.0220866</v>
-      </c>
-      <c r="C3">
-        <v>0.9769255</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2001</v>
-      </c>
-      <c r="B4">
-        <v>1.0376456999999999</v>
-      </c>
-      <c r="C4">
-        <v>0.99942750000000002</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2002</v>
-      </c>
-      <c r="B5">
-        <v>1.0271839</v>
-      </c>
-      <c r="C5">
-        <v>1.0375540000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2003</v>
-      </c>
-      <c r="B6">
-        <v>1.0164407</v>
-      </c>
-      <c r="C6">
-        <v>1.0467379999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2004</v>
-      </c>
-      <c r="B7">
-        <v>1.0363608</v>
-      </c>
-      <c r="C7">
-        <v>1.0305829</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2005</v>
-      </c>
-      <c r="B8">
-        <v>1.0123405000000001</v>
-      </c>
-      <c r="C8">
-        <v>1.0250083999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2006</v>
-      </c>
-      <c r="B9">
-        <v>0.97470650000000003</v>
-      </c>
-      <c r="C9">
-        <v>0.99465380000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>2007</v>
-      </c>
-      <c r="B10">
-        <v>0.96822580000000003</v>
-      </c>
-      <c r="C10">
-        <v>0.96822580000000003</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11">
-        <v>1.0190398000000001</v>
-      </c>
-      <c r="C11">
-        <v>0.99270020000000003</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>2009</v>
-      </c>
-      <c r="B12">
-        <v>1.2071949</v>
-      </c>
-      <c r="C12">
-        <v>1.0526438</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>2010</v>
-      </c>
-      <c r="B13">
-        <v>1.1674226999999999</v>
-      </c>
-      <c r="C13">
-        <v>1.0288303000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>2011</v>
-      </c>
-      <c r="B14">
-        <v>1.0675675</v>
-      </c>
-      <c r="C14">
-        <v>1.0037167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2012</v>
-      </c>
-      <c r="B15">
-        <v>1.0738668</v>
-      </c>
-      <c r="C15">
-        <v>0.99377230000000005</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>2013</v>
-      </c>
-      <c r="B16">
-        <v>1.0479784000000001</v>
-      </c>
-      <c r="C16">
-        <v>0.98065729999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>2014</v>
-      </c>
-      <c r="B17">
-        <v>1.0537296</v>
-      </c>
-      <c r="C17">
-        <v>0.98076600000000003</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>2015</v>
-      </c>
-      <c r="B18">
-        <v>1.0640783</v>
-      </c>
-      <c r="C18">
-        <v>0.97128210000000004</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>2016</v>
-      </c>
-      <c r="B19">
-        <v>1.0435844000000001</v>
-      </c>
-      <c r="C19">
-        <v>0.95532899999999998</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>2017</v>
-      </c>
-      <c r="B20">
-        <v>1.0624461000000001</v>
-      </c>
-      <c r="C20">
-        <v>0.95955420000000002</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>2018</v>
-      </c>
-      <c r="B21">
-        <v>1.0752531000000001</v>
-      </c>
-      <c r="C21">
-        <v>0.96043599999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2019</v>
-      </c>
-      <c r="B22">
-        <v>1.1546417</v>
-      </c>
-      <c r="C22">
-        <v>0.96050199999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2020</v>
-      </c>
-      <c r="B23">
-        <v>1.1032557999999999</v>
-      </c>
-      <c r="C23">
-        <v>1.0369553</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2021</v>
-      </c>
-      <c r="B24">
-        <v>1.0445122</v>
-      </c>
-      <c r="C24">
-        <v>0.98176319999999995</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2022</v>
-      </c>
-      <c r="B25">
-        <v>1.0012904</v>
-      </c>
-      <c r="C25">
-        <v>0.93324510000000005</v>
       </c>
     </row>
   </sheetData>
@@ -37309,6 +37265,296 @@
 </file>
 
 <file path=xl/worksheets/sheet60.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4964574C-56FE-4D20-B094-0B67DD33C552}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1999</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2000</v>
+      </c>
+      <c r="B3">
+        <v>1.0220866</v>
+      </c>
+      <c r="C3">
+        <v>0.9769255</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2001</v>
+      </c>
+      <c r="B4">
+        <v>1.0376456999999999</v>
+      </c>
+      <c r="C4">
+        <v>0.99942750000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2002</v>
+      </c>
+      <c r="B5">
+        <v>1.0271839</v>
+      </c>
+      <c r="C5">
+        <v>1.0375540000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>1.0164407</v>
+      </c>
+      <c r="C6">
+        <v>1.0467379999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7">
+        <v>1.0363608</v>
+      </c>
+      <c r="C7">
+        <v>1.0305829</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2005</v>
+      </c>
+      <c r="B8">
+        <v>1.0123405000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.0250083999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2006</v>
+      </c>
+      <c r="B9">
+        <v>0.97470650000000003</v>
+      </c>
+      <c r="C9">
+        <v>0.99465380000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10">
+        <v>0.96822580000000003</v>
+      </c>
+      <c r="C10">
+        <v>0.96822580000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2008</v>
+      </c>
+      <c r="B11">
+        <v>1.0190398000000001</v>
+      </c>
+      <c r="C11">
+        <v>0.99270020000000003</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2009</v>
+      </c>
+      <c r="B12">
+        <v>1.2071949</v>
+      </c>
+      <c r="C12">
+        <v>1.0526438</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13">
+        <v>1.1674226999999999</v>
+      </c>
+      <c r="C13">
+        <v>1.0288303000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2011</v>
+      </c>
+      <c r="B14">
+        <v>1.0675675</v>
+      </c>
+      <c r="C14">
+        <v>1.0037167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2012</v>
+      </c>
+      <c r="B15">
+        <v>1.0738668</v>
+      </c>
+      <c r="C15">
+        <v>0.99377230000000005</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2013</v>
+      </c>
+      <c r="B16">
+        <v>1.0479784000000001</v>
+      </c>
+      <c r="C16">
+        <v>0.98065729999999995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2014</v>
+      </c>
+      <c r="B17">
+        <v>1.0537296</v>
+      </c>
+      <c r="C17">
+        <v>0.98076600000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2015</v>
+      </c>
+      <c r="B18">
+        <v>1.0640783</v>
+      </c>
+      <c r="C18">
+        <v>0.97128210000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>2016</v>
+      </c>
+      <c r="B19">
+        <v>1.0435844000000001</v>
+      </c>
+      <c r="C19">
+        <v>0.95532899999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2017</v>
+      </c>
+      <c r="B20">
+        <v>1.0624461000000001</v>
+      </c>
+      <c r="C20">
+        <v>0.95955420000000002</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>2018</v>
+      </c>
+      <c r="B21">
+        <v>1.0752531000000001</v>
+      </c>
+      <c r="C21">
+        <v>0.96043599999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2019</v>
+      </c>
+      <c r="B22">
+        <v>1.1546417</v>
+      </c>
+      <c r="C22">
+        <v>0.96050199999999997</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2020</v>
+      </c>
+      <c r="B23">
+        <v>1.1032557999999999</v>
+      </c>
+      <c r="C23">
+        <v>1.0369553</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2021</v>
+      </c>
+      <c r="B24">
+        <v>1.0445122</v>
+      </c>
+      <c r="C24">
+        <v>0.98176319999999995</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2022</v>
+      </c>
+      <c r="B25">
+        <v>1.0012904</v>
+      </c>
+      <c r="C25">
+        <v>0.93324510000000005</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BE8E219-7415-4FD9-9F5D-16982DCB2BC5}">
   <dimension ref="A1:C66"/>
   <sheetViews>
@@ -38049,7 +38295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet61.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2198443-384E-4402-94D6-85936292F7C6}">
   <dimension ref="A1:E43"/>
   <sheetViews>
@@ -38795,7 +39041,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{458ED67A-6602-4019-B886-3D2E34EB9F4B}">
   <dimension ref="A1:F217"/>
   <sheetViews>
@@ -43150,7 +43396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78C35A4B-F81B-4CBD-A832-685B702067D7}">
   <dimension ref="A1:F125"/>
   <sheetViews>
@@ -45665,7 +45911,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet65.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CDC607D-307F-431A-863B-985430F65DB4}">
   <dimension ref="A1:G18"/>
   <sheetViews>
